--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="435" windowWidth="20370" windowHeight="7410" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="7350" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
-  <si>
-    <t>program_prop_lowquality</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>parameter</t>
   </si>
@@ -33,21 +27,6 @@
     <t>tb_n_contact</t>
   </si>
   <si>
-    <t>program_prop_vaccination</t>
-  </si>
-  <si>
-    <t>program_prop_detect</t>
-  </si>
-  <si>
-    <t>program_prop_algorithm_sensitivity</t>
-  </si>
-  <si>
-    <t>program_prop_firstline_dst</t>
-  </si>
-  <si>
-    <t>program_prop_secondline_dst</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -63,24 +42,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>program_prop_treatment_success</t>
-  </si>
-  <si>
-    <t>program_prop_treatment_death</t>
-  </si>
-  <si>
-    <t>program_prop_treatment_success_mdr</t>
-  </si>
-  <si>
-    <t>program_prop_treatment_death_mdr</t>
-  </si>
-  <si>
-    <t>program_prop_treatment_success_xdr</t>
-  </si>
-  <si>
-    <t>program_prop_treatment_death_xdr</t>
-  </si>
-  <si>
     <t>scenario_1</t>
   </si>
   <si>
@@ -96,6 +57,12 @@
     <t>time_variant</t>
   </si>
   <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>susceptible_fully</t>
+  </si>
+  <si>
     <t>scenario_3</t>
   </si>
   <si>
@@ -114,7 +81,118 @@
     <t>scenario_8</t>
   </si>
   <si>
-    <t>program_prop_xpert</t>
+    <t>scenario_9</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>runge_kutta</t>
+  </si>
+  <si>
+    <t>scenario_10</t>
+  </si>
+  <si>
+    <t>scenario_11</t>
+  </si>
+  <si>
+    <t>age_unstratified</t>
+  </si>
+  <si>
+    <t>scenario_12</t>
+  </si>
+  <si>
+    <t>econ_cpi</t>
+  </si>
+  <si>
+    <t>without_diabetes</t>
+  </si>
+  <si>
+    <t>with_diabetes</t>
+  </si>
+  <si>
+    <t>program_perc_vaccination</t>
+  </si>
+  <si>
+    <t>program_perc_detect</t>
+  </si>
+  <si>
+    <t>program_perc_ipt</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age0to5</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age5to15</t>
+  </si>
+  <si>
+    <t>program_perc_algorithm_sensitivity</t>
+  </si>
+  <si>
+    <t>program_perc_lowquality</t>
+  </si>
+  <si>
+    <t>program_perc_firstline_dst</t>
+  </si>
+  <si>
+    <t>program_perc_secondline_dst</t>
+  </si>
+  <si>
+    <t>program_perc_xpert</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_support</t>
+  </si>
+  <si>
+    <t>program_perc_smearacf</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_success</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_death</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_success_mdr</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_death_mdr</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_success_xdr</t>
+  </si>
+  <si>
+    <t>program_perc_treatment_death_xdr</t>
+  </si>
+  <si>
+    <t>epi_rr_diabetes</t>
+  </si>
+  <si>
+    <t>freeze_times</t>
+  </si>
+  <si>
+    <t>program_perc_decentralisation</t>
+  </si>
+  <si>
+    <t>scenario_13</t>
+  </si>
+  <si>
+    <t>scenario_14</t>
+  </si>
+  <si>
+    <t>comorb_perc_diabetes</t>
+  </si>
+  <si>
+    <t>age_breakpoints</t>
   </si>
 </sst>
 </file>
@@ -124,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +287,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +383,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +496,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1062,7 +1168,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1099,19 +1205,41 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="14" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="14" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1785,25 +1913,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="country_constants"/>
-      <sheetName val="time_variants"/>
-      <sheetName val="dropdown_lists"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,56 +2210,141 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="51.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="37" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="29"/>
+    <col min="6" max="6" width="13.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="B2" s="59">
+        <v>7.93</v>
+      </c>
+      <c r="F2" s="59">
+        <v>7.85</v>
+      </c>
+      <c r="G2" s="59">
+        <v>7.85</v>
+      </c>
+      <c r="H2">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="43">
-        <v>22</v>
-      </c>
-      <c r="C2" s="44"/>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="60">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="60">
+        <v>0.22</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="C3" s="39"/>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="61">
+        <v>1865</v>
+      </c>
+      <c r="F4" s="61">
+        <v>1865</v>
+      </c>
+      <c r="G4" s="61">
+        <v>1865</v>
+      </c>
+      <c r="H4">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="62">
+        <v>190000</v>
+      </c>
+      <c r="F5" s="62">
+        <v>190000</v>
+      </c>
+      <c r="G5" s="62">
+        <v>190000</v>
+      </c>
+      <c r="H5">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="37">
+        <v>5</v>
+      </c>
+      <c r="C6" s="29">
+        <v>15</v>
+      </c>
+      <c r="D6" s="29">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 F4:G4">
+      <formula1>-10000</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
+      <formula1>0</formula1>
+      <formula2>10000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 F2:G2">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 F3:G3">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Age unstratified" prompt="Some values you can replace the ones to the left with if you want a manual calibration for the model without age stratification." sqref="H1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2157,556 +2356,1480 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:CC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11" style="50" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="7.42578125" style="1" customWidth="1"/>
+    <col min="22" max="27" width="7.28515625" style="1" customWidth="1"/>
+    <col min="28" max="29" width="7.42578125" style="1" customWidth="1"/>
+    <col min="30" max="31" width="7.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="7.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="7.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="7.5703125" style="1" customWidth="1"/>
+    <col min="43" max="53" width="7" style="1" customWidth="1"/>
+    <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="7.85546875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="14" style="1" customWidth="1"/>
+    <col min="59" max="65" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="70" width="14.42578125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="5">
+        <v>1920</v>
+      </c>
+      <c r="F1" s="5">
         <v>1930</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
+        <v>1940</v>
+      </c>
+      <c r="H1" s="5">
         <v>1950</v>
       </c>
-      <c r="G1" s="5">
+      <c r="I1" s="5">
         <v>1955</v>
       </c>
-      <c r="H1" s="5">
+      <c r="J1" s="5">
         <v>1960</v>
       </c>
-      <c r="I1" s="5">
+      <c r="K1" s="5">
         <v>1965</v>
       </c>
-      <c r="J1" s="5">
+      <c r="L1" s="5">
+        <v>1970</v>
+      </c>
+      <c r="M1" s="5">
+        <v>1971</v>
+      </c>
+      <c r="N1" s="5">
+        <v>1972</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1973</v>
+      </c>
+      <c r="P1" s="5">
+        <v>1974</v>
+      </c>
+      <c r="Q1" s="5">
         <v>1975</v>
       </c>
-      <c r="K1" s="5">
+      <c r="R1" s="5">
+        <v>1976</v>
+      </c>
+      <c r="S1" s="5">
+        <v>1977</v>
+      </c>
+      <c r="T1" s="5">
+        <v>1978</v>
+      </c>
+      <c r="U1" s="5">
+        <v>1979</v>
+      </c>
+      <c r="V1" s="5">
         <v>1980</v>
       </c>
-      <c r="L1" s="5">
+      <c r="W1" s="5">
+        <v>1981</v>
+      </c>
+      <c r="X1" s="5">
         <v>1982</v>
       </c>
-      <c r="M1" s="5">
+      <c r="Y1" s="5">
+        <v>1983</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>1984</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>1985</v>
+      </c>
+      <c r="AB1" s="5">
         <v>1986</v>
       </c>
-      <c r="N1" s="5">
+      <c r="AC1" s="5">
+        <v>1987</v>
+      </c>
+      <c r="AD1" s="5">
         <v>1988</v>
       </c>
-      <c r="O1" s="5">
+      <c r="AE1" s="5">
+        <v>1989</v>
+      </c>
+      <c r="AF1" s="5">
         <v>1990</v>
       </c>
-      <c r="P1" s="5">
+      <c r="AG1" s="5">
+        <v>1991</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>1992</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>1993</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>1994</v>
+      </c>
+      <c r="AK1" s="5">
         <v>1995</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="AL1" s="5">
+        <v>1996</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>1997</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>1998</v>
+      </c>
+      <c r="AO1" s="5">
+        <v>1999</v>
+      </c>
+      <c r="AP1" s="5">
         <v>2000</v>
       </c>
-      <c r="R1" s="5">
+      <c r="AQ1" s="5">
         <v>2001</v>
       </c>
-      <c r="S1" s="5">
+      <c r="AR1" s="5">
+        <v>2002</v>
+      </c>
+      <c r="AS1" s="5">
+        <v>2003</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>2004</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>2005</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2006</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>2007</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>2008</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>2009</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>2010</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>2011</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>2012</v>
+      </c>
+      <c r="BC1" s="5">
+        <v>2013</v>
+      </c>
+      <c r="BD1" s="5">
         <v>2014</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="BE1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BK2" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AM3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AN3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AP3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AU3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="26">
+        <v>10</v>
+      </c>
+      <c r="AW3" s="26">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="26">
+        <v>10</v>
+      </c>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26">
         <v>30</v>
       </c>
+      <c r="BA3" s="26">
+        <v>30</v>
+      </c>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="26"/>
+      <c r="BH3" s="9">
+        <v>60</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="4" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="BD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>50</v>
+      </c>
+      <c r="BS4" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="BA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>75</v>
+      </c>
+      <c r="BS5" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="BD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>40</v>
+      </c>
+      <c r="BS6" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>25</v>
-      </c>
-      <c r="J2" s="7">
-        <v>40</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="Z2" s="7">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>100</v>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="11">
+        <v>70</v>
+      </c>
+      <c r="J7" s="11">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>82</v>
+      </c>
+      <c r="AQ7" s="11">
+        <v>84</v>
+      </c>
+      <c r="BC7" s="11">
+        <v>85</v>
+      </c>
+      <c r="BJ7" s="11">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9">
+    <row r="8" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="H8" s="13">
         <v>30</v>
-      </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26">
-        <v>75</v>
-      </c>
-      <c r="V3" s="9">
-        <v>85</v>
-      </c>
-      <c r="W3" s="9">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
-        <v>70</v>
-      </c>
-      <c r="H4" s="11">
-        <v>80</v>
-      </c>
-      <c r="N4" s="11">
-        <v>82</v>
-      </c>
-      <c r="R4" s="11">
-        <v>84</v>
-      </c>
-      <c r="S4" s="11">
-        <v>85</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>90</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="13">
-        <v>30</v>
-      </c>
-      <c r="I5" s="13">
-        <v>35</v>
-      </c>
-      <c r="O5" s="13">
-        <v>40</v>
-      </c>
-      <c r="X5" s="13">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="15">
-        <v>30</v>
-      </c>
-      <c r="O6" s="15">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15">
-        <v>7</v>
-      </c>
-      <c r="P7" s="15">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
       </c>
       <c r="K8" s="13">
         <v>40</v>
       </c>
-      <c r="M8" s="13">
+      <c r="AF8" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="V9" s="15">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>40</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="I10" s="15">
+        <v>7</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="13">
         <v>65</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="T8" s="13">
-        <v>91.1</v>
-      </c>
-      <c r="U8" s="13">
-        <v>96</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>96</v>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27">
+        <v>93</v>
+      </c>
+      <c r="BC11" s="27">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="12" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="V13" s="24">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="AB13" s="24">
+        <v>30</v>
+      </c>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="I14" s="24">
         <v>0</v>
       </c>
-      <c r="K9" s="13">
-        <v>12</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="V14" s="24">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="24">
+        <v>50</v>
+      </c>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>15</v>
+      </c>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>62</v>
+      </c>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="34">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="34">
+        <v>100</v>
+      </c>
+      <c r="BS17" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42">
+        <v>100</v>
+      </c>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="42"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="42"/>
+      <c r="BP18" s="42"/>
+      <c r="BQ18" s="64"/>
+      <c r="BR18" s="64"/>
+      <c r="BS18" s="42"/>
+      <c r="BT18" s="42"/>
+      <c r="BU18" s="42"/>
+      <c r="BV18" s="42"/>
+      <c r="BW18" s="42"/>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="42"/>
+      <c r="BZ18" s="42"/>
+      <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+    </row>
+    <row r="19" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="42"/>
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="42"/>
+      <c r="BP19" s="42"/>
+      <c r="BQ19" s="64">
+        <v>50</v>
+      </c>
+      <c r="BR19" s="64">
+        <v>75</v>
+      </c>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="42"/>
+      <c r="BU19" s="42"/>
+      <c r="BV19" s="42"/>
+      <c r="BW19" s="42"/>
+      <c r="BX19" s="42"/>
+      <c r="BY19" s="42"/>
+      <c r="BZ19" s="42"/>
+      <c r="CA19" s="42"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+    </row>
+    <row r="20" spans="1:81" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="52">
+        <v>1</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="BD20" s="54">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="54">
+        <v>50</v>
+      </c>
+      <c r="BS20" s="54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="52">
+        <v>1</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="BD21" s="54">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="54">
+        <v>50</v>
+      </c>
+      <c r="BS21" s="54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:81" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="56">
+        <v>1</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="57">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F22" s="58">
+        <v>4.84</v>
+      </c>
+      <c r="G22" s="58">
+        <v>5.44</v>
+      </c>
+      <c r="H22" s="58">
+        <v>6.11</v>
+      </c>
+      <c r="I22" s="58">
+        <v>6.86</v>
+      </c>
+      <c r="J22" s="58">
+        <v>7.7</v>
+      </c>
+      <c r="K22" s="58">
+        <v>8.68</v>
+      </c>
+      <c r="L22" s="58">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="M22" s="58">
+        <v>9.41</v>
+      </c>
+      <c r="N22" s="58">
+        <v>11.48</v>
+      </c>
+      <c r="O22" s="58">
+        <v>12.75</v>
+      </c>
+      <c r="P22" s="58">
+        <v>14.6</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>16.5</v>
+      </c>
+      <c r="R22" s="58">
+        <v>18.38</v>
+      </c>
+      <c r="S22" s="58">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="T22" s="58">
+        <v>20.87</v>
+      </c>
+      <c r="U22" s="58">
+        <v>22.5</v>
+      </c>
+      <c r="V22" s="58">
+        <v>25.9</v>
+      </c>
+      <c r="W22" s="58">
+        <v>28.8</v>
+      </c>
+      <c r="X22" s="58">
+        <v>30.8</v>
+      </c>
+      <c r="Y22" s="58">
+        <v>32.9</v>
+      </c>
+      <c r="Z22" s="58">
+        <v>34.6</v>
+      </c>
+      <c r="AA22" s="58">
+        <v>36.1</v>
+      </c>
+      <c r="AB22" s="58">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AC22" s="58">
+        <v>38.9</v>
+      </c>
+      <c r="AD22" s="58">
+        <v>43.4</v>
+      </c>
+      <c r="AE22" s="58">
+        <v>46.1</v>
+      </c>
+      <c r="AF22" s="58">
+        <v>49.9</v>
+      </c>
+      <c r="AG22" s="58">
+        <v>53.1</v>
+      </c>
+      <c r="AH22" s="58">
+        <v>55.7</v>
+      </c>
+      <c r="AI22" s="58">
+        <v>58.6</v>
+      </c>
+      <c r="AJ22" s="58">
+        <v>59.1</v>
+      </c>
+      <c r="AK22" s="58">
+        <v>60.4</v>
+      </c>
+      <c r="AL22" s="58">
+        <v>62.2</v>
+      </c>
+      <c r="AM22" s="58">
+        <v>64.3</v>
+      </c>
+      <c r="AN22" s="58">
+        <v>68</v>
+      </c>
+      <c r="AO22" s="58">
+        <v>69.3</v>
+      </c>
+      <c r="AP22" s="58">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AQ22" s="58">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AR22" s="58">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AS22" s="58">
+        <v>76.7</v>
+      </c>
+      <c r="AT22" s="58">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AU22" s="58">
+        <v>80.8</v>
+      </c>
+      <c r="AV22" s="58">
+        <v>82.8</v>
+      </c>
+      <c r="AW22" s="58">
+        <v>86.7</v>
+      </c>
+      <c r="AX22" s="58">
+        <v>93.4</v>
+      </c>
+      <c r="AY22" s="58">
+        <v>96.5</v>
+      </c>
+      <c r="AZ22" s="58">
+        <v>100</v>
+      </c>
+      <c r="BA22" s="58">
+        <v>107.3</v>
+      </c>
+      <c r="BB22" s="58">
+        <v>110.9</v>
+      </c>
+      <c r="BC22" s="58">
+        <v>114.2</v>
+      </c>
+      <c r="BD22" s="58">
+        <v>114.8</v>
+      </c>
+      <c r="BE22" s="58">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="47">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1</v>
+      </c>
+      <c r="P23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15">
+        <v>1</v>
+      </c>
+      <c r="U23" s="15">
+        <v>1</v>
+      </c>
+      <c r="V23" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA23" s="15">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:81" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="49"/>
+      <c r="BG24" s="34">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
         <v>10</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="T9" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="U9" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="AA9" s="13">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>15</v>
-      </c>
-      <c r="M10" s="24">
-        <v>30</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>55</v>
-      </c>
-      <c r="M11" s="24">
-        <v>50</v>
-      </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="24">
+      <c r="AT25" s="1">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>5</v>
-      </c>
-      <c r="M12" s="9">
-        <v>15</v>
-      </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>65</v>
-      </c>
-      <c r="M13" s="9">
-        <v>62</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="33">
-        <v>1</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="34">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="343" yWindow="238" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14:U14">
+  <dataValidations xWindow="382" yWindow="552" count="5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF17:BG17 F4:BG6">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:BG16 F17:BE17 F2:BG3">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:S14 E2:U13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C23 C25:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B24:D24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="343" yWindow="238" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B13</xm:sqref>
+          <xm:sqref>B2:B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D1048576 D2:D13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>[1]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D2:D23 D25:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2719,27 +3842,45 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="7350" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="7350" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>parameter</t>
   </si>
@@ -193,6 +198,15 @@
   </si>
   <si>
     <t>age_breakpoints</t>
+  </si>
+  <si>
+    <t>demo_household_size</t>
+  </si>
+  <si>
+    <t>comorb_startage_diabetes</t>
+  </si>
+  <si>
+    <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1182,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1240,6 +1254,8 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1963,7 +1979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1998,7 +2014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2210,10 +2226,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="62">
-        <v>190000</v>
+        <v>7000000</v>
       </c>
       <c r="F5" s="62">
         <v>190000</v>
@@ -2323,7 +2339,26 @@
         <v>15</v>
       </c>
       <c r="D6" s="29">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2358,11 +2393,11 @@
   </sheetPr>
   <dimension ref="A1:CC25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,75 +2728,31 @@
       <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="AF3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AK3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AM3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AN3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AO3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AP3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AQ3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AR3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AS3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AT3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AU3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AV3" s="26">
-        <v>10</v>
-      </c>
-      <c r="AW3" s="26">
-        <v>10</v>
-      </c>
-      <c r="AX3" s="26">
-        <v>10</v>
-      </c>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
       <c r="AY3" s="26"/>
-      <c r="AZ3" s="26">
-        <v>30</v>
-      </c>
-      <c r="BA3" s="26">
-        <v>30</v>
-      </c>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
       <c r="BB3" s="26"/>
       <c r="BC3" s="26"/>
-      <c r="BD3" s="26">
-        <v>56</v>
-      </c>
+      <c r="BD3" s="26"/>
       <c r="BE3" s="26"/>
       <c r="BH3" s="9">
         <v>60</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1182,7 +1182,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1256,6 +1256,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2229,7 +2230,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="59">
-        <v>7.93</v>
+        <v>40</v>
       </c>
       <c r="F2" s="59">
         <v>7.85</v>
@@ -2397,7 +2398,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,32 +2729,82 @@
       <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
+      <c r="AF3" s="26">
+        <v>95</v>
+      </c>
+      <c r="AG3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="26">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AQ3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="26">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="26">
+        <v>20</v>
+      </c>
       <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
+      <c r="AU3" s="26">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="26">
+        <v>50</v>
+      </c>
+      <c r="AW3" s="26">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="26">
+        <v>60</v>
+      </c>
+      <c r="AY3" s="26">
+        <v>60</v>
+      </c>
+      <c r="AZ3" s="26">
+        <v>70</v>
+      </c>
+      <c r="BA3" s="26">
+        <v>70</v>
+      </c>
+      <c r="BB3" s="26">
+        <v>70</v>
+      </c>
+      <c r="BC3" s="26">
+        <v>70</v>
+      </c>
+      <c r="BD3" s="26">
+        <v>70</v>
+      </c>
+      <c r="BE3" s="26">
+        <v>75</v>
+      </c>
       <c r="BH3" s="9">
         <v>60</v>
       </c>
@@ -3520,163 +3571,160 @@
         <v>3</v>
       </c>
       <c r="E22" s="57">
-        <v>4.3099999999999996</v>
+        <v>1</v>
       </c>
       <c r="F22" s="58">
-        <v>4.84</v>
+        <v>1</v>
       </c>
       <c r="G22" s="58">
-        <v>5.44</v>
-      </c>
-      <c r="H22" s="58">
-        <v>6.11</v>
-      </c>
-      <c r="I22" s="58">
-        <v>6.86</v>
-      </c>
-      <c r="J22" s="58">
-        <v>7.7</v>
-      </c>
-      <c r="K22" s="58">
-        <v>8.68</v>
-      </c>
-      <c r="L22" s="58">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="M22" s="58">
-        <v>9.41</v>
-      </c>
-      <c r="N22" s="58">
-        <v>11.48</v>
-      </c>
-      <c r="O22" s="58">
-        <v>12.75</v>
-      </c>
-      <c r="P22" s="58">
-        <v>14.6</v>
-      </c>
-      <c r="Q22" s="58">
-        <v>16.5</v>
-      </c>
-      <c r="R22" s="58">
-        <v>18.38</v>
-      </c>
-      <c r="S22" s="58">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="T22" s="58">
-        <v>20.87</v>
-      </c>
-      <c r="U22" s="58">
-        <v>22.5</v>
-      </c>
-      <c r="V22" s="58">
-        <v>25.9</v>
-      </c>
-      <c r="W22" s="58">
-        <v>28.8</v>
-      </c>
-      <c r="X22" s="58">
-        <v>30.8</v>
-      </c>
-      <c r="Y22" s="58">
-        <v>32.9</v>
-      </c>
-      <c r="Z22" s="58">
-        <v>34.6</v>
-      </c>
-      <c r="AA22" s="58">
-        <v>36.1</v>
-      </c>
-      <c r="AB22" s="58">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AC22" s="58">
-        <v>38.9</v>
-      </c>
-      <c r="AD22" s="58">
-        <v>43.4</v>
-      </c>
-      <c r="AE22" s="58">
-        <v>46.1</v>
-      </c>
-      <c r="AF22" s="58">
-        <v>49.9</v>
-      </c>
-      <c r="AG22" s="58">
-        <v>53.1</v>
-      </c>
-      <c r="AH22" s="58">
-        <v>55.7</v>
-      </c>
-      <c r="AI22" s="58">
-        <v>58.6</v>
-      </c>
-      <c r="AJ22" s="58">
-        <v>59.1</v>
-      </c>
-      <c r="AK22" s="58">
-        <v>60.4</v>
-      </c>
-      <c r="AL22" s="58">
-        <v>62.2</v>
-      </c>
-      <c r="AM22" s="58">
-        <v>64.3</v>
-      </c>
-      <c r="AN22" s="58">
-        <v>68</v>
-      </c>
-      <c r="AO22" s="58">
-        <v>69.3</v>
-      </c>
-      <c r="AP22" s="58">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="AQ22" s="58">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="AR22" s="58">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="AS22" s="58">
-        <v>76.7</v>
-      </c>
-      <c r="AT22" s="58">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="AU22" s="58">
-        <v>80.8</v>
-      </c>
-      <c r="AV22" s="58">
-        <v>82.8</v>
-      </c>
-      <c r="AW22" s="58">
-        <v>86.7</v>
-      </c>
-      <c r="AX22" s="58">
-        <v>93.4</v>
-      </c>
-      <c r="AY22" s="58">
-        <v>96.5</v>
-      </c>
-      <c r="AZ22" s="58">
+        <v>1</v>
+      </c>
+      <c r="H22" s="67">
+        <v>1</v>
+      </c>
+      <c r="J22" s="67">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K22" s="67">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L22" s="67">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M22" s="67">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N22" s="67">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O22" s="67">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P22" s="67">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R22" s="67">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S22" s="67">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T22" s="67">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U22" s="67">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V22" s="67">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W22" s="67">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X22" s="67">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y22" s="67">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z22" s="67">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA22" s="67">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB22" s="67">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC22" s="67">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD22" s="67">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE22" s="67">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF22" s="67">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG22" s="67">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH22" s="67">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI22" s="67">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ22" s="67">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK22" s="67">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL22" s="67">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM22" s="67">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN22" s="67">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO22" s="67">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP22" s="67">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ22" s="67">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR22" s="67">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS22" s="67">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT22" s="67">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU22" s="67">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV22" s="67">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW22" s="67">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX22" s="67">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY22" s="67">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ22" s="67">
         <v>100</v>
       </c>
-      <c r="BA22" s="58">
-        <v>107.3</v>
-      </c>
-      <c r="BB22" s="58">
-        <v>110.9</v>
-      </c>
-      <c r="BC22" s="58">
-        <v>114.2</v>
-      </c>
-      <c r="BD22" s="58">
-        <v>114.8</v>
-      </c>
-      <c r="BE22" s="58">
-        <v>116.4</v>
+      <c r="BA22" s="67">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB22" s="67">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC22" s="67">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD22" s="67">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE22" s="67">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="23" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3744,6 +3792,36 @@
         <v>1</v>
       </c>
       <c r="V23" s="15">
+        <v>1</v>
+      </c>
+      <c r="W23" s="15">
+        <v>1</v>
+      </c>
+      <c r="X23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="BA23" s="15">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>parameter</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
+  </si>
+  <si>
+    <t>comorb_perc_hiv</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2233,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,13 +2395,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:CC25"/>
+  <dimension ref="A1:CC26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,7 +3848,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -3856,14 +3859,70 @@
       <c r="E25" s="50">
         <v>0</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="AF25" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>20</v>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="7350" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>parameter</t>
   </si>
@@ -126,15 +126,6 @@
   </si>
   <si>
     <t>program_perc_detect</t>
-  </si>
-  <si>
-    <t>program_perc_ipt</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age0to5</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age5to15</t>
   </si>
   <si>
     <t>program_perc_algorithm_sensitivity</t>
@@ -219,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +309,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,49 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,81 +1136,59 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="664">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -2233,48 +2162,48 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="37" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="29"/>
-    <col min="6" max="6" width="13.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="51.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="21">
         <v>40</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="21">
         <v>7.85</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="21">
         <v>7.85</v>
       </c>
       <c r="H2">
@@ -2282,16 +2211,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="22">
         <v>0.22</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="22">
         <v>0.22</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="22">
         <v>0.22</v>
       </c>
       <c r="H3">
@@ -2299,16 +2228,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="23">
         <v>1865</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="23">
         <v>1865</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="23">
         <v>1865</v>
       </c>
       <c r="H4">
@@ -2316,16 +2245,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="24">
         <v>7000000</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="24">
         <v>190000</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="24">
         <v>190000</v>
       </c>
       <c r="H5">
@@ -2333,35 +2262,35 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="66">
+      <c r="A7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>61</v>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="37">
+      <c r="A8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="14">
         <v>20</v>
       </c>
     </row>
@@ -2395,21 +2324,21 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:CC26"/>
+  <dimension ref="A1:CC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11" style="20" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2434,7 +2363,7 @@
     <col min="72" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2643,1321 +2572,1241 @@
         <v>29</v>
       </c>
       <c r="BR1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="41">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="H2" s="43">
+        <v>0</v>
+      </c>
+      <c r="J2" s="43">
+        <v>25</v>
+      </c>
+      <c r="BF2" s="45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="41">
+        <v>5</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43">
+        <v>0</v>
+      </c>
+      <c r="K3" s="43">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="43">
+        <v>95</v>
+      </c>
+      <c r="AG3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="43">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AQ3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="43">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="43">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="43">
+        <v>50</v>
+      </c>
+      <c r="AW3" s="43">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="43">
+        <v>60</v>
+      </c>
+      <c r="AY3" s="43">
+        <v>60</v>
+      </c>
+      <c r="AZ3" s="43">
+        <v>70</v>
+      </c>
+      <c r="BA3" s="43">
+        <v>70</v>
+      </c>
+      <c r="BB3" s="43">
+        <v>70</v>
+      </c>
+      <c r="BC3" s="43">
+        <v>70</v>
+      </c>
+      <c r="BD3" s="43">
+        <v>70</v>
+      </c>
+      <c r="BE3" s="43">
+        <v>75</v>
+      </c>
+      <c r="BH3" s="43">
+        <v>60</v>
+      </c>
+      <c r="BI3" s="43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31">
+        <v>70</v>
+      </c>
+      <c r="J4" s="31">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>84</v>
+      </c>
+      <c r="BC4" s="31">
+        <v>85</v>
+      </c>
+      <c r="BJ4" s="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="H5" s="31">
+        <v>30</v>
+      </c>
+      <c r="K5" s="31">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="V6" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>40</v>
+      </c>
+      <c r="AP6" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="I7" s="31">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="31">
+        <v>50</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>65</v>
+      </c>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32">
+        <v>93</v>
+      </c>
+      <c r="BC8" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="V9" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>8</v>
+      </c>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="V10" s="31">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="V11" s="31">
         <v>55</v>
       </c>
-      <c r="BS1" s="5" t="s">
-        <v>56</v>
+      <c r="AB11" s="31">
+        <v>50</v>
+      </c>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="31">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="12" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="H2" s="7">
+      <c r="E12" s="30"/>
+      <c r="I12" s="31">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
+      <c r="V12" s="31">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>15</v>
+      </c>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="V13" s="31">
+        <v>65</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>62</v>
+      </c>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0</v>
+      </c>
+      <c r="V14" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="43">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="43">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="43">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="43">
+        <v>2.8</v>
+      </c>
+      <c r="BC14" s="43">
+        <v>2.8</v>
+      </c>
+      <c r="BD14" s="43">
+        <v>2.8</v>
+      </c>
+      <c r="BG14" s="45">
         <v>25</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BK2" s="7">
+      <c r="BH14" s="45">
+        <v>50</v>
+      </c>
+      <c r="BI14" s="45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="33">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33">
         <v>100</v>
       </c>
-      <c r="BS2" s="7">
-        <v>99</v>
-      </c>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="34"/>
+      <c r="BR15" s="34"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
     </row>
-    <row r="3" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="16" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="9">
+      <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="26">
-        <v>95</v>
-      </c>
-      <c r="AG3" s="26">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="33">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="33"/>
+      <c r="BM16" s="33"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="33"/>
+      <c r="BQ16" s="34">
+        <v>50</v>
+      </c>
+      <c r="BR16" s="34">
+        <v>75</v>
+      </c>
+      <c r="BS16" s="33"/>
+      <c r="BT16" s="33"/>
+      <c r="BU16" s="33"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="33"/>
+    </row>
+    <row r="17" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AJ3" s="26">
+      <c r="B19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K19" s="39">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L19" s="39">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M19" s="39">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N19" s="39">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O19" s="39">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P19" s="39">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R19" s="39">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S19" s="39">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T19" s="39">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U19" s="39">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V19" s="39">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W19" s="39">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X19" s="39">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y19" s="39">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z19" s="39">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA19" s="39">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB19" s="39">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC19" s="39">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD19" s="39">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE19" s="39">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF19" s="39">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG19" s="39">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH19" s="39">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI19" s="39">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ19" s="39">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK19" s="39">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL19" s="39">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM19" s="39">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN19" s="39">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO19" s="39">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP19" s="39">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ19" s="39">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR19" s="39">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS19" s="39">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT19" s="39">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU19" s="39">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV19" s="39">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW19" s="39">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX19" s="39">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY19" s="39">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ19" s="39">
+        <v>100</v>
+      </c>
+      <c r="BA19" s="39">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB19" s="39">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC19" s="39">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD19" s="39">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE19" s="39">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="37">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38">
+        <v>1</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
+        <v>1</v>
+      </c>
+      <c r="S20" s="38">
+        <v>1</v>
+      </c>
+      <c r="T20" s="38">
+        <v>1</v>
+      </c>
+      <c r="U20" s="38">
+        <v>1</v>
+      </c>
+      <c r="V20" s="38">
+        <v>1</v>
+      </c>
+      <c r="W20" s="38">
+        <v>1</v>
+      </c>
+      <c r="X20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA20" s="38">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AL3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AM3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AN3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AO3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AP3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AQ3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AR3" s="26">
-        <v>30</v>
-      </c>
-      <c r="AS3" s="26">
-        <v>20</v>
-      </c>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26">
-        <v>40</v>
-      </c>
-      <c r="AV3" s="26">
-        <v>50</v>
-      </c>
-      <c r="AW3" s="26">
-        <v>60</v>
-      </c>
-      <c r="AX3" s="26">
-        <v>60</v>
-      </c>
-      <c r="AY3" s="26">
-        <v>60</v>
-      </c>
-      <c r="AZ3" s="26">
-        <v>70</v>
-      </c>
-      <c r="BA3" s="26">
-        <v>70</v>
-      </c>
-      <c r="BB3" s="26">
-        <v>70</v>
-      </c>
-      <c r="BC3" s="26">
-        <v>70</v>
-      </c>
-      <c r="BD3" s="26">
-        <v>70</v>
-      </c>
-      <c r="BE3" s="26">
-        <v>75</v>
-      </c>
-      <c r="BH3" s="9">
-        <v>60</v>
-      </c>
-      <c r="BI3" s="9">
-        <v>75</v>
+      <c r="B21" s="25"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="19"/>
+      <c r="BG21" s="12">
+        <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="22" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="BD4" s="9">
+      <c r="E22" s="37">
         <v>0</v>
       </c>
-      <c r="BM4" s="9">
-        <v>50</v>
-      </c>
-      <c r="BS4" s="9">
-        <v>50</v>
+      <c r="M22" s="38">
+        <v>0</v>
+      </c>
+      <c r="U22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="AS22" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX22" s="38">
+        <v>5.2</v>
+      </c>
+      <c r="BC22" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="BD22" s="38">
+        <v>5.9</v>
+      </c>
+      <c r="BE22" s="38">
+        <v>5.9</v>
       </c>
     </row>
-    <row r="5" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="23" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="BA5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="9">
-        <v>7</v>
-      </c>
-      <c r="BD5" s="9">
-        <v>23.6</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>75</v>
-      </c>
-      <c r="BS5" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="BD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>40</v>
-      </c>
-      <c r="BS6" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="11">
-        <v>70</v>
-      </c>
-      <c r="J7" s="11">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>82</v>
-      </c>
-      <c r="AQ7" s="11">
-        <v>84</v>
-      </c>
-      <c r="BC7" s="11">
-        <v>85</v>
-      </c>
-      <c r="BJ7" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="H8" s="13">
-        <v>30</v>
-      </c>
-      <c r="K8" s="13">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="V9" s="15">
-        <v>30</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>40</v>
-      </c>
-      <c r="AP9" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="I10" s="15">
-        <v>7</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>50</v>
-      </c>
-      <c r="AP10" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>40</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>65</v>
-      </c>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27">
-        <v>93</v>
-      </c>
-      <c r="BC11" s="27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>8</v>
-      </c>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="V13" s="24">
-        <v>15</v>
-      </c>
-      <c r="AB13" s="24">
-        <v>30</v>
-      </c>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <v>55</v>
-      </c>
-      <c r="AB14" s="24">
-        <v>50</v>
-      </c>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>15</v>
-      </c>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>65</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>62</v>
-      </c>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:81" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="35"/>
-      <c r="BC17" s="35"/>
-      <c r="BD17" s="34">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="34">
-        <v>100</v>
-      </c>
-      <c r="BS17" s="34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42">
-        <v>100</v>
-      </c>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="42"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
-      <c r="BM18" s="42"/>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="42"/>
-      <c r="BP18" s="42"/>
-      <c r="BQ18" s="64"/>
-      <c r="BR18" s="64"/>
-      <c r="BS18" s="42"/>
-      <c r="BT18" s="42"/>
-      <c r="BU18" s="42"/>
-      <c r="BV18" s="42"/>
-      <c r="BW18" s="42"/>
-      <c r="BX18" s="42"/>
-      <c r="BY18" s="42"/>
-      <c r="BZ18" s="42"/>
-      <c r="CA18" s="42"/>
-      <c r="CB18" s="42"/>
-      <c r="CC18" s="42"/>
-    </row>
-    <row r="19" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="47">
-        <v>0</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="42"/>
-      <c r="BN19" s="42"/>
-      <c r="BO19" s="42"/>
-      <c r="BP19" s="42"/>
-      <c r="BQ19" s="64">
-        <v>50</v>
-      </c>
-      <c r="BR19" s="64">
-        <v>75</v>
-      </c>
-      <c r="BS19" s="42"/>
-      <c r="BT19" s="42"/>
-      <c r="BU19" s="42"/>
-      <c r="BV19" s="42"/>
-      <c r="BW19" s="42"/>
-      <c r="BX19" s="42"/>
-      <c r="BY19" s="42"/>
-      <c r="BZ19" s="42"/>
-      <c r="CA19" s="42"/>
-      <c r="CB19" s="42"/>
-      <c r="CC19" s="42"/>
-    </row>
-    <row r="20" spans="1:81" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="52">
-        <v>1</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="53"/>
-      <c r="BD20" s="54">
-        <v>0</v>
-      </c>
-      <c r="BO20" s="54">
-        <v>50</v>
-      </c>
-      <c r="BS20" s="54">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:81" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="52">
-        <v>1</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="BD21" s="54">
-        <v>0</v>
-      </c>
-      <c r="BP21" s="54">
-        <v>50</v>
-      </c>
-      <c r="BS21" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:81" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="56">
-        <v>1</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="57">
-        <v>1</v>
-      </c>
-      <c r="F22" s="58">
-        <v>1</v>
-      </c>
-      <c r="G22" s="58">
-        <v>1</v>
-      </c>
-      <c r="H22" s="67">
-        <v>1</v>
-      </c>
-      <c r="J22" s="67">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K22" s="67">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L22" s="67">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M22" s="67">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N22" s="67">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O22" s="67">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P22" s="67">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q22" s="67">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R22" s="67">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S22" s="67">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T22" s="67">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U22" s="67">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V22" s="67">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W22" s="67">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X22" s="67">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y22" s="67">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z22" s="67">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA22" s="67">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB22" s="67">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC22" s="67">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD22" s="67">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE22" s="67">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF22" s="67">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG22" s="67">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH22" s="67">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI22" s="67">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ22" s="67">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK22" s="67">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL22" s="67">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM22" s="67">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN22" s="67">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO22" s="67">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP22" s="67">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ22" s="67">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR22" s="67">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS22" s="67">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT22" s="67">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU22" s="67">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV22" s="67">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW22" s="67">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX22" s="67">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY22" s="67">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ22" s="67">
-        <v>100</v>
-      </c>
-      <c r="BA22" s="67">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB22" s="67">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC22" s="67">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD22" s="67">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE22" s="67">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="47">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
-        <v>1</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
-        <v>1</v>
-      </c>
-      <c r="N23" s="15">
-        <v>1</v>
-      </c>
-      <c r="O23" s="15">
-        <v>1</v>
-      </c>
-      <c r="P23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>1</v>
-      </c>
-      <c r="R23" s="15">
-        <v>1</v>
-      </c>
-      <c r="S23" s="15">
-        <v>1</v>
-      </c>
-      <c r="T23" s="15">
-        <v>1</v>
-      </c>
-      <c r="U23" s="15">
-        <v>1</v>
-      </c>
-      <c r="V23" s="15">
-        <v>1</v>
-      </c>
-      <c r="W23" s="15">
-        <v>1</v>
-      </c>
-      <c r="X23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA23" s="15">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:81" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="49"/>
-      <c r="BG24" s="34">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="50">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="BC25" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="BE25" s="1">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="E23" s="37">
         <v>0.1</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M23" s="38">
         <v>0.1</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W23" s="38">
         <v>0.1</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH23" s="38">
         <v>0.1</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AP23" s="38">
         <v>0.1</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AY23" s="38">
         <v>0.1</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BE23" s="38">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF17:BG17 F4:BG6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF14:BG14">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:BG16 F17:BE17 F2:BG3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:BG13 F14:BE14 F2:BG3">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C23 C25:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C22:C1048576 C2:C20">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B24:D24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B21:D21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D22:D1048576 D2:D20</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D23 D25:D1048576</xm:sqref>
+          <xm:sqref>B2:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -207,8 +207,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -470,7 +472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="664">
+  <cellStyleXfs count="665">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1135,8 +1137,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1189,8 +1192,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="664">
+  <cellStyles count="665">
+    <cellStyle name="Comma" xfId="664" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Comma 2 2" xfId="6"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2162,13 +2167,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="14" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -2198,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F2" s="21">
         <v>7.85</v>
@@ -2248,8 +2253,8 @@
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24">
-        <v>7000000</v>
+      <c r="B5" s="46">
+        <v>4000000</v>
       </c>
       <c r="F5" s="24">
         <v>190000</v>
@@ -2327,10 +2332,10 @@
   <dimension ref="A1:CC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,79 +2628,79 @@
         <v>10</v>
       </c>
       <c r="AF3" s="43">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AG3" s="43">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="43">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AI3" s="43">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="AJ3" s="43">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AK3" s="43">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="AL3" s="43">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="43">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="AN3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AO3" s="43">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AP3" s="43">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AQ3" s="43">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR3" s="43">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AS3" s="43">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="AT3" s="43">
+        <v>45</v>
       </c>
       <c r="AU3" s="43">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AV3" s="43">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW3" s="43">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AX3" s="43">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AY3" s="43">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AZ3" s="43">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="BA3" s="43">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BB3" s="43">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BC3" s="43">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BD3" s="43">
-        <v>70</v>
-      </c>
-      <c r="BE3" s="43">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BH3" s="43">
         <v>60</v>
@@ -2854,6 +2859,9 @@
       </c>
       <c r="BC8" s="32">
         <v>85</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3752,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="36">
         <v>1</v>
@@ -3752,12 +3760,7 @@
       <c r="D23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0.1</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="W23" s="38">
         <v>0.1</v>
       </c>
@@ -3781,7 +3784,7 @@
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:BG13 F14:BE14 F2:BG3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:BE14 F2:AE13 AG2:BG13 AF2 AF4:AF13">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>parameter</t>
   </si>
@@ -201,6 +204,12 @@
   </si>
   <si>
     <t>comorb_perc_hiv</t>
+  </si>
+  <si>
+    <t>tb_prop_early_progression_age5to15</t>
+  </si>
+  <si>
+    <t>tb_prop_early_progression_age15up</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1148,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1193,6 +1202,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1874,6 +1887,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="constants"/>
+      <sheetName val="time_variants"/>
+      <sheetName val="dropdown_lists"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2164,10 +2194,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="21">
         <v>7.85</v>
@@ -2220,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="22">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="F3" s="22">
         <v>0.22</v>
@@ -2254,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="46">
-        <v>4000000</v>
+        <v>11000000</v>
       </c>
       <c r="F5" s="24">
         <v>190000</v>
@@ -2298,6 +2328,42 @@
       <c r="B8" s="14">
         <v>20</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="47">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2331,11 +2397,11 @@
   </sheetPr>
   <dimension ref="A1:CC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD8" sqref="BD8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,62 +2693,122 @@
       <c r="K3" s="43">
         <v>10</v>
       </c>
+      <c r="L3" s="43">
+        <v>40</v>
+      </c>
+      <c r="M3" s="43">
+        <v>40</v>
+      </c>
+      <c r="N3" s="43">
+        <v>40</v>
+      </c>
+      <c r="O3" s="43">
+        <v>40</v>
+      </c>
+      <c r="P3" s="43">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>40</v>
+      </c>
+      <c r="R3" s="43">
+        <v>40</v>
+      </c>
+      <c r="S3" s="43">
+        <v>40</v>
+      </c>
+      <c r="T3" s="43">
+        <v>40</v>
+      </c>
+      <c r="U3" s="43">
+        <v>40</v>
+      </c>
+      <c r="V3" s="43">
+        <v>40</v>
+      </c>
+      <c r="W3" s="43">
+        <v>40</v>
+      </c>
+      <c r="X3" s="43">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="43">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="43">
+        <v>40</v>
+      </c>
       <c r="AF3" s="43">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="43">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="43">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="43">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AJ3" s="43">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AK3" s="43">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AL3" s="43">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM3" s="43">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AN3" s="43">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AO3" s="43">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP3" s="43">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AQ3" s="43">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AR3" s="43">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AS3" s="43">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AT3" s="43">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AU3" s="43">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AV3" s="43">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW3" s="43">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="43">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AY3" s="43">
         <v>51</v>
@@ -2882,32 +3008,36 @@
         <v>0</v>
       </c>
       <c r="V9" s="31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="31">
-        <v>8</v>
-      </c>
-      <c r="AK9" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="AK9" s="48"/>
       <c r="AL9" s="32"/>
       <c r="AM9" s="32"/>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
+      <c r="AP9" s="48"/>
       <c r="AQ9" s="32"/>
       <c r="AR9" s="32"/>
       <c r="AS9" s="32"/>
       <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
+      <c r="AU9" s="48">
+        <v>2</v>
+      </c>
       <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
+      <c r="AZ9" s="48">
+        <v>1</v>
+      </c>
       <c r="BA9" s="32"/>
       <c r="BB9" s="32"/>
       <c r="BC9" s="32"/>
       <c r="BD9" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3914,7 @@
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:BE14 F2:AE13 AG2:BG13 AF2 AF4:AF13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:BE14 F3:AE13 AF4:AF13 F2:AF2 AG2:BG13">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3798,18 +3928,30 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D22:D1048576 D2:D20</xm:sqref>
+          <xm:sqref>D22:D1048576 D2 D4:D20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B14</xm:sqref>
+          <xm:sqref>B2 B4:B14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>parameter</t>
   </si>
@@ -210,6 +211,9 @@
   </si>
   <si>
     <t>tb_prop_early_progression_age15up</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age0to5</t>
   </si>
 </sst>
 </file>
@@ -329,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1158,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1199,13 +1209,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1904,6 +1925,23 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="constants"/>
+      <sheetName val="time_variants"/>
+      <sheetName val="dropdown_lists"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2194,10 +2232,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="21">
         <v>7.85</v>
@@ -2283,8 +2321,8 @@
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46">
-        <v>11000000</v>
+      <c r="B5" s="44">
+        <v>11500000</v>
       </c>
       <c r="F5" s="24">
         <v>190000</v>
@@ -2333,7 +2371,7 @@
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="45">
         <v>0.26</v>
       </c>
     </row>
@@ -2341,29 +2379,25 @@
       <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="45">
         <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2395,13 +2429,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:CC23"/>
+  <dimension ref="A1:CC24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,7 +2703,7 @@
       <c r="J2" s="43">
         <v>25</v>
       </c>
-      <c r="BF2" s="45">
+      <c r="BF2" s="51">
         <v>99</v>
       </c>
     </row>
@@ -2691,67 +2725,67 @@
         <v>0</v>
       </c>
       <c r="K3" s="43">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="R3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="U3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="V3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="W3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="X3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AC3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AD3" s="43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AE3" s="43">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF3" s="43">
         <v>100</v>
@@ -2784,93 +2818,136 @@
         <v>50</v>
       </c>
       <c r="AP3" s="43">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ3" s="43">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="43">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AT3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AU3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AV3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AX3" s="43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AY3" s="43">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AZ3" s="43">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA3" s="43">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="BB3" s="43">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="BC3" s="43">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BD3" s="43">
         <v>85</v>
       </c>
-      <c r="BH3" s="43">
-        <v>60</v>
-      </c>
-      <c r="BI3" s="43">
-        <v>75</v>
-      </c>
     </row>
-    <row r="4" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="s">
+    <row r="4" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31">
-        <v>70</v>
-      </c>
-      <c r="J4" s="31">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="31">
-        <v>82</v>
-      </c>
-      <c r="AQ4" s="31">
-        <v>84</v>
-      </c>
-      <c r="BC4" s="31">
-        <v>85</v>
-      </c>
-      <c r="BJ4" s="31">
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50">
+        <v>0</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="50">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="51">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>4</v>
@@ -2882,19 +2959,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="30"/>
-      <c r="H5" s="31">
-        <v>30</v>
-      </c>
-      <c r="K5" s="31">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="31">
-        <v>40</v>
+      <c r="F5" s="31">
+        <v>70</v>
+      </c>
+      <c r="J5" s="31">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>84</v>
+      </c>
+      <c r="BC5" s="31">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>4</v>
@@ -2906,19 +2989,19 @@
         <v>3</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="V6" s="31">
+      <c r="H6" s="31">
         <v>30</v>
+      </c>
+      <c r="K6" s="31">
+        <v>40</v>
       </c>
       <c r="AF6" s="31">
         <v>40</v>
-      </c>
-      <c r="AP6" s="31">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>4</v>
@@ -2930,22 +3013,22 @@
         <v>3</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="I7" s="31">
-        <v>7</v>
-      </c>
-      <c r="AK7" s="31">
+      <c r="V7" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>40</v>
+      </c>
+      <c r="AP7" s="31">
         <v>50</v>
-      </c>
-      <c r="AP7" s="31">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -2955,50 +3038,24 @@
       </c>
       <c r="E8" s="30"/>
       <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="31">
-        <v>65</v>
-      </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="32">
-        <v>93</v>
-      </c>
-      <c r="BC8" s="32">
-        <v>85</v>
-      </c>
-      <c r="BD8" s="31">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>50</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>3</v>
@@ -3008,87 +3065,83 @@
         <v>0</v>
       </c>
       <c r="V9" s="31">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AB9" s="31">
-        <v>5</v>
-      </c>
-      <c r="AK9" s="48"/>
+        <v>65</v>
+      </c>
+      <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
       <c r="AM9" s="32"/>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
-      <c r="AP9" s="48"/>
+      <c r="AP9" s="32"/>
       <c r="AQ9" s="32"/>
       <c r="AR9" s="32"/>
       <c r="AS9" s="32"/>
       <c r="AT9" s="32"/>
-      <c r="AU9" s="48">
-        <v>2</v>
-      </c>
+      <c r="AU9" s="32"/>
       <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
-      <c r="AZ9" s="48">
-        <v>1</v>
-      </c>
+      <c r="AZ9" s="32"/>
       <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
+      <c r="BB9" s="32">
+        <v>93</v>
+      </c>
+      <c r="BC9" s="32">
+        <v>85</v>
+      </c>
       <c r="BD9" s="31">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
       <c r="V10" s="31">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="31">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="AK10" s="46">
+        <v>1</v>
+      </c>
       <c r="AL10" s="32"/>
       <c r="AM10" s="32"/>
       <c r="AN10" s="32"/>
       <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
+      <c r="AP10" s="46"/>
       <c r="AQ10" s="32"/>
       <c r="AR10" s="32"/>
       <c r="AS10" s="32"/>
       <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
+      <c r="AU10" s="46"/>
       <c r="AV10" s="32"/>
       <c r="AW10" s="32"/>
       <c r="AX10" s="32"/>
       <c r="AY10" s="32"/>
-      <c r="AZ10" s="32"/>
+      <c r="AZ10" s="46"/>
       <c r="BA10" s="32"/>
       <c r="BB10" s="32"/>
       <c r="BC10" s="32"/>
       <c r="BD10" s="31">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>3</v>
@@ -3104,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="V11" s="31">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32"/>
@@ -3129,12 +3182,12 @@
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="31">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>3</v>
@@ -3150,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="V12" s="31">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="31">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AK12" s="32"/>
       <c r="AL12" s="32"/>
@@ -3175,12 +3228,12 @@
       <c r="BB12" s="32"/>
       <c r="BC12" s="32"/>
       <c r="BD12" s="31">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>3</v>
@@ -3196,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="V13" s="31">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="31">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="AK13" s="32"/>
       <c r="AL13" s="32"/>
@@ -3221,163 +3274,108 @@
       <c r="BB13" s="32"/>
       <c r="BC13" s="32"/>
       <c r="BD13" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="V14" s="31">
+        <v>65</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="15" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="41">
-        <v>1</v>
-      </c>
-      <c r="D14" s="41" t="s">
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="I14" s="43">
-        <v>0</v>
-      </c>
-      <c r="L14" s="43">
-        <v>0</v>
-      </c>
-      <c r="V14" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="43">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="43">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="43">
+      <c r="E15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>0</v>
+      </c>
+      <c r="L15" s="43">
+        <v>0</v>
+      </c>
+      <c r="V15" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="43">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="43">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="43">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="43">
         <v>2.8</v>
       </c>
-      <c r="BC14" s="43">
+      <c r="BC15" s="43">
         <v>2.8</v>
       </c>
-      <c r="BD14" s="43">
+      <c r="BD15" s="43">
         <v>2.8</v>
       </c>
-      <c r="BG14" s="45">
-        <v>25</v>
-      </c>
-      <c r="BH14" s="45">
-        <v>50</v>
-      </c>
-      <c r="BI14" s="45">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33">
-        <v>100</v>
-      </c>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="33"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="33"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="33"/>
-      <c r="BU15" s="33"/>
-      <c r="BV15" s="33"/>
-      <c r="BW15" s="33"/>
-      <c r="BX15" s="33"/>
-      <c r="BY15" s="33"/>
-      <c r="BZ15" s="33"/>
-      <c r="CA15" s="33"/>
-      <c r="CB15" s="33"/>
-      <c r="CC15" s="33"/>
+      <c r="BG15" s="51">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
@@ -3385,9 +3383,7 @@
       <c r="D16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
+      <c r="E16" s="30"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -3453,12 +3449,8 @@
       <c r="BN16" s="33"/>
       <c r="BO16" s="33"/>
       <c r="BP16" s="33"/>
-      <c r="BQ16" s="34">
-        <v>50</v>
-      </c>
-      <c r="BR16" s="34">
-        <v>75</v>
-      </c>
+      <c r="BQ16" s="34"/>
+      <c r="BR16" s="34"/>
       <c r="BS16" s="33"/>
       <c r="BT16" s="33"/>
       <c r="BU16" s="33"/>
@@ -3471,47 +3463,108 @@
       <c r="CB16" s="33"/>
       <c r="CC16" s="33"/>
     </row>
-    <row r="17" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="33">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="33"/>
+      <c r="BM17" s="33"/>
+      <c r="BN17" s="33"/>
+      <c r="BO17" s="33"/>
+      <c r="BP17" s="33"/>
+      <c r="BQ17" s="34">
+        <v>50</v>
+      </c>
+      <c r="BR17" s="34">
+        <v>75</v>
+      </c>
+      <c r="BS17" s="33"/>
+      <c r="BT17" s="33"/>
+      <c r="BU17" s="33"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="33"/>
+      <c r="BY17" s="33"/>
+      <c r="BZ17" s="33"/>
+      <c r="CA17" s="33"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="33"/>
+    </row>
+    <row r="18" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="L17" s="38">
-        <v>0</v>
-      </c>
-      <c r="V17" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="38">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="38">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>3</v>
@@ -3543,13 +3596,14 @@
       <c r="BD18" s="38">
         <v>0</v>
       </c>
-      <c r="BK18" s="44">
+      <c r="BI18" s="52">
         <v>50</v>
       </c>
+      <c r="BJ18" s="53"/>
     </row>
-    <row r="19" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>3</v>
@@ -3561,165 +3615,34 @@
         <v>3</v>
       </c>
       <c r="E19" s="37">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K19" s="39">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L19" s="39">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M19" s="39">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N19" s="39">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O19" s="39">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P19" s="39">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q19" s="39">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R19" s="39">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S19" s="39">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T19" s="39">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U19" s="39">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V19" s="39">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W19" s="39">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X19" s="39">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y19" s="39">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z19" s="39">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA19" s="39">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB19" s="39">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC19" s="39">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD19" s="39">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE19" s="39">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF19" s="39">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG19" s="39">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH19" s="39">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI19" s="39">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ19" s="39">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK19" s="39">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL19" s="39">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM19" s="39">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN19" s="39">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO19" s="39">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP19" s="39">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ19" s="39">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR19" s="39">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS19" s="39">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT19" s="39">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU19" s="39">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV19" s="39">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW19" s="39">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX19" s="39">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY19" s="39">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ19" s="39">
-        <v>100</v>
-      </c>
-      <c r="BA19" s="39">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB19" s="39">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC19" s="39">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD19" s="39">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE19" s="39">
-        <v>117.42738589211601</v>
+        <v>0</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0</v>
+      </c>
+      <c r="V19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="53"/>
+      <c r="BJ19" s="52">
+        <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>3</v>
@@ -3739,147 +3662,270 @@
       <c r="G20" s="38">
         <v>1</v>
       </c>
-      <c r="H20" s="38">
-        <v>1</v>
-      </c>
-      <c r="I20" s="38">
-        <v>1</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="38">
-        <v>1</v>
-      </c>
-      <c r="L20" s="38">
-        <v>1</v>
-      </c>
-      <c r="M20" s="38">
-        <v>1</v>
-      </c>
-      <c r="N20" s="38">
-        <v>1</v>
-      </c>
-      <c r="O20" s="38">
-        <v>1</v>
-      </c>
-      <c r="P20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="38">
-        <v>1</v>
-      </c>
-      <c r="R20" s="38">
-        <v>1</v>
-      </c>
-      <c r="S20" s="38">
-        <v>1</v>
-      </c>
-      <c r="T20" s="38">
-        <v>1</v>
-      </c>
-      <c r="U20" s="38">
-        <v>1</v>
-      </c>
-      <c r="V20" s="38">
-        <v>1</v>
-      </c>
-      <c r="W20" s="38">
-        <v>1</v>
-      </c>
-      <c r="X20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="38">
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K20" s="39">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L20" s="39">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M20" s="39">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N20" s="39">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O20" s="39">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P20" s="39">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R20" s="39">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S20" s="39">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T20" s="39">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U20" s="39">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V20" s="39">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W20" s="39">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X20" s="39">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y20" s="39">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z20" s="39">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA20" s="39">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB20" s="39">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC20" s="39">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD20" s="39">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE20" s="39">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF20" s="39">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG20" s="39">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH20" s="39">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI20" s="39">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ20" s="39">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK20" s="39">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL20" s="39">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM20" s="39">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN20" s="39">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO20" s="39">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP20" s="39">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ20" s="39">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR20" s="39">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS20" s="39">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT20" s="39">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU20" s="39">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV20" s="39">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW20" s="39">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX20" s="39">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY20" s="39">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ20" s="39">
+        <v>100</v>
+      </c>
+      <c r="BA20" s="39">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB20" s="39">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC20" s="39">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD20" s="39">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE20" s="39">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="38">
+        <v>1</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+      <c r="M21" s="38">
+        <v>1</v>
+      </c>
+      <c r="N21" s="38">
+        <v>1</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>1</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1</v>
+      </c>
+      <c r="T21" s="38">
+        <v>1</v>
+      </c>
+      <c r="U21" s="38">
+        <v>1</v>
+      </c>
+      <c r="V21" s="38">
+        <v>1</v>
+      </c>
+      <c r="W21" s="38">
+        <v>1</v>
+      </c>
+      <c r="X21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BA20" s="38">
+      <c r="BA21" s="38">
         <v>3.11</v>
       </c>
     </row>
-    <row r="21" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="19"/>
-      <c r="BG21" s="12">
+      <c r="B22" s="25"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+      <c r="BG22" s="12">
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+    <row r="23" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="36">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="M22" s="38">
-        <v>0</v>
-      </c>
-      <c r="U22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="38">
-        <v>3.1</v>
-      </c>
-      <c r="AS22" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX22" s="38">
-        <v>5.2</v>
-      </c>
-      <c r="BC22" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="BD22" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="BE22" s="38">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:63" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>3</v>
@@ -3890,56 +3936,103 @@
       <c r="D23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="W23" s="38">
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="M23" s="38">
+        <v>0</v>
+      </c>
+      <c r="U23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="AS23" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX23" s="38">
+        <v>5.2</v>
+      </c>
+      <c r="BC23" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="BD23" s="38">
+        <v>5.9</v>
+      </c>
+      <c r="BE23" s="38">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="W24" s="38">
         <v>0.1</v>
       </c>
-      <c r="AH23" s="38">
+      <c r="AH24" s="38">
         <v>0.1</v>
       </c>
-      <c r="AP23" s="38">
+      <c r="AP24" s="38">
         <v>0.1</v>
       </c>
-      <c r="AY23" s="38">
+      <c r="AY24" s="38">
         <v>0.1</v>
       </c>
-      <c r="BE23" s="38">
+      <c r="BE24" s="38">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF14:BG14">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF15:BG15 F4:BD4">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:BE14 F3:AE13 AF4:AF13 F2:AF2 AG2:BG13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:BE15 F2:AF2 BE2:BG14 AG2:BD3 F3:AE3 F5:BD14">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C22:C1048576 C2:C20">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C23:C1048576 C2:C21">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B21:D21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B22:D22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D22:D1048576 D2 D4:D20</xm:sqref>
+          <xm:sqref>D23:D1048576 D2 D5:D21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B4:B14</xm:sqref>
+          <xm:sqref>B2 B5:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
@@ -3952,6 +4045,18 @@
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>[2]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -20,12 +15,12 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>parameter</t>
   </si>
@@ -111,21 +106,9 @@
     <t>scenario_11</t>
   </si>
   <si>
-    <t>age_unstratified</t>
-  </si>
-  <si>
-    <t>scenario_12</t>
-  </si>
-  <si>
     <t>econ_cpi</t>
   </si>
   <si>
-    <t>without_diabetes</t>
-  </si>
-  <si>
-    <t>with_diabetes</t>
-  </si>
-  <si>
     <t>program_perc_vaccination</t>
   </si>
   <si>
@@ -138,12 +121,6 @@
     <t>program_perc_lowquality</t>
   </si>
   <si>
-    <t>program_perc_firstline_dst</t>
-  </si>
-  <si>
-    <t>program_perc_secondline_dst</t>
-  </si>
-  <si>
     <t>program_perc_xpert</t>
   </si>
   <si>
@@ -162,18 +139,6 @@
     <t>program_perc_treatment_death</t>
   </si>
   <si>
-    <t>program_perc_treatment_success_mdr</t>
-  </si>
-  <si>
-    <t>program_perc_treatment_death_mdr</t>
-  </si>
-  <si>
-    <t>program_perc_treatment_success_xdr</t>
-  </si>
-  <si>
-    <t>program_perc_treatment_death_xdr</t>
-  </si>
-  <si>
     <t>epi_rr_diabetes</t>
   </si>
   <si>
@@ -183,37 +148,40 @@
     <t>program_perc_decentralisation</t>
   </si>
   <si>
-    <t>scenario_13</t>
-  </si>
-  <si>
-    <t>scenario_14</t>
-  </si>
-  <si>
     <t>comorb_perc_diabetes</t>
   </si>
   <si>
+    <t>demo_household_size</t>
+  </si>
+  <si>
+    <t>comorb_startage_diabetes</t>
+  </si>
+  <si>
+    <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
+  </si>
+  <si>
+    <t>comorb_perc_hiv</t>
+  </si>
+  <si>
+    <t>tb_prop_early_progression_age5to15</t>
+  </si>
+  <si>
+    <t>tb_prop_early_progression_age15up</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age0to5</t>
+  </si>
+  <si>
+    <t>plot_end_time</t>
+  </si>
+  <si>
+    <t>transmission_modifier</t>
+  </si>
+  <si>
     <t>age_breakpoints</t>
   </si>
   <si>
-    <t>demo_household_size</t>
-  </si>
-  <si>
-    <t>comorb_startage_diabetes</t>
-  </si>
-  <si>
-    <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
-  </si>
-  <si>
-    <t>comorb_perc_hiv</t>
-  </si>
-  <si>
-    <t>tb_prop_early_progression_age5to15</t>
-  </si>
-  <si>
-    <t>tb_prop_early_progression_age15up</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age0to5</t>
+    <t>program_perc_novel_vaccination</t>
   </si>
 </sst>
 </file>
@@ -1197,9 +1165,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1227,6 +1192,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1985,7 +1951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2020,7 +1986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2232,7 +2198,7 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -2249,153 +2215,122 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="21">
-        <v>19</v>
-      </c>
-      <c r="F2" s="21">
-        <v>7.85</v>
-      </c>
-      <c r="G2" s="21">
-        <v>7.85</v>
-      </c>
-      <c r="H2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="22">
         <v>0.45</v>
       </c>
-      <c r="F3" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="23">
         <v>1865</v>
       </c>
-      <c r="F4" s="23">
-        <v>1865</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1865</v>
-      </c>
-      <c r="H4">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="44">
-        <v>11500000</v>
-      </c>
-      <c r="F5" s="24">
-        <v>190000</v>
-      </c>
-      <c r="G5" s="24">
-        <v>190000</v>
-      </c>
-      <c r="H5">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="B5" s="43">
+        <v>19000000</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="43">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" s="27">
         <v>4.5999999999999996</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="45">
+        <v>47</v>
+      </c>
+      <c r="B9" s="44">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="45">
+        <v>48</v>
+      </c>
+      <c r="B10" s="44">
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="44">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
     </row>
@@ -2405,7 +2340,7 @@
       <formula1>-10000</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 F5:G6">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
@@ -2429,13 +2364,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:CC24"/>
+  <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
+      <selection pane="bottomRight" activeCell="BR10" sqref="BR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,12 +2398,11 @@
     <col min="56" max="57" width="7.85546875" style="1" customWidth="1"/>
     <col min="58" max="58" width="14" style="1" customWidth="1"/>
     <col min="59" max="65" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="70" width="14.42578125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.140625" style="1"/>
+    <col min="66" max="68" width="14.42578125" style="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2673,311 +2607,147 @@
       <c r="BP1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BS1" s="5" t="s">
+      <c r="B2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
+        <v>25</v>
+      </c>
+      <c r="BF2" s="50">
+        <v>99</v>
+      </c>
+      <c r="BP2" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="BF3" s="50"/>
+      <c r="BK3" s="42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C4" s="40">
+        <v>5</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="42">
+        <v>82</v>
+      </c>
+      <c r="BO4" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="H2" s="43">
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49">
         <v>0</v>
       </c>
-      <c r="J2" s="43">
-        <v>25</v>
-      </c>
-      <c r="BF2" s="51">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="41">
-        <v>5</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43">
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49">
         <v>0</v>
       </c>
-      <c r="K3" s="43">
-        <v>57</v>
-      </c>
-      <c r="L3" s="43">
-        <v>57</v>
-      </c>
-      <c r="M3" s="43">
-        <v>57</v>
-      </c>
-      <c r="N3" s="43">
-        <v>57</v>
-      </c>
-      <c r="O3" s="43">
-        <v>57</v>
-      </c>
-      <c r="P3" s="43">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>57</v>
-      </c>
-      <c r="R3" s="43">
-        <v>57</v>
-      </c>
-      <c r="S3" s="43">
-        <v>57</v>
-      </c>
-      <c r="T3" s="43">
-        <v>57</v>
-      </c>
-      <c r="U3" s="43">
-        <v>57</v>
-      </c>
-      <c r="V3" s="43">
-        <v>57</v>
-      </c>
-      <c r="W3" s="43">
-        <v>57</v>
-      </c>
-      <c r="X3" s="43">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="43">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="43">
-        <v>57</v>
-      </c>
-      <c r="AA3" s="43">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="43">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="43">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="43">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AF3" s="43">
-        <v>100</v>
-      </c>
-      <c r="AG3" s="43">
-        <v>80</v>
-      </c>
-      <c r="AH3" s="43">
-        <v>70</v>
-      </c>
-      <c r="AI3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AK3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AL3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AN3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="43">
-        <v>50</v>
-      </c>
-      <c r="AP3" s="43">
-        <v>40</v>
-      </c>
-      <c r="AQ3" s="43">
-        <v>55</v>
-      </c>
-      <c r="AR3" s="43">
-        <v>55</v>
-      </c>
-      <c r="AS3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AT3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AU3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AV3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AW3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AX3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AY3" s="43">
-        <v>60</v>
-      </c>
-      <c r="AZ3" s="43">
-        <v>60</v>
-      </c>
-      <c r="BA3" s="43">
-        <v>60</v>
-      </c>
-      <c r="BB3" s="43">
-        <v>60</v>
-      </c>
-      <c r="BC3" s="43">
-        <v>60</v>
-      </c>
-      <c r="BD3" s="43">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="48">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50">
-        <v>0</v>
-      </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="50">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="43">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="51">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31">
-        <v>70</v>
-      </c>
-      <c r="J5" s="31">
-        <v>80</v>
-      </c>
-      <c r="AD5" s="31">
-        <v>82</v>
-      </c>
-      <c r="AQ5" s="31">
-        <v>84</v>
-      </c>
-      <c r="BC5" s="31">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH5" s="50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>4</v>
@@ -2989,19 +2759,19 @@
         <v>3</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="H6" s="31">
-        <v>30</v>
-      </c>
-      <c r="K6" s="31">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="31">
+        <v>70</v>
+      </c>
+      <c r="V6" s="31">
+        <v>80</v>
+      </c>
+      <c r="BC6" s="31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>4</v>
@@ -3013,138 +2783,127 @@
         <v>3</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="V7" s="31">
+      <c r="H7" s="31">
         <v>30</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="K7" s="31">
         <v>40</v>
       </c>
-      <c r="AP7" s="31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="29">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="30"/>
       <c r="I8" s="31">
-        <v>7</v>
-      </c>
-      <c r="AK8" s="31">
-        <v>50</v>
-      </c>
-      <c r="AP8" s="31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32">
+        <v>93</v>
+      </c>
+      <c r="BC8" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="29">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
       <c r="V9" s="31">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="31">
-        <v>65</v>
-      </c>
-      <c r="AK9" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="AK9" s="45"/>
       <c r="AL9" s="32"/>
       <c r="AM9" s="32"/>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
+      <c r="AP9" s="45"/>
       <c r="AQ9" s="32"/>
       <c r="AR9" s="32"/>
       <c r="AS9" s="32"/>
       <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
+      <c r="AU9" s="45"/>
       <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
+      <c r="AZ9" s="45"/>
       <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
-        <v>93</v>
-      </c>
-      <c r="BC9" s="32">
-        <v>85</v>
-      </c>
-      <c r="BD9" s="31">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+    </row>
+    <row r="10" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="40">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="V10" s="31">
-        <v>2</v>
-      </c>
-      <c r="AK10" s="46">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="32"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="32"/>
-      <c r="BC10" s="32"/>
-      <c r="BD10" s="31">
+      <c r="E10" s="41"/>
+      <c r="AZ10" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB10" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="BD10" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="BG10" s="50">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -3153,41 +2912,87 @@
         <v>3</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="I11" s="31">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="33">
         <v>0</v>
       </c>
-      <c r="V11" s="31">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="31">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33">
+        <v>75</v>
+      </c>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="33"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="33"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="33"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="33"/>
+    </row>
+    <row r="12" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>3</v>
@@ -3199,823 +3004,441 @@
         <v>3</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="I12" s="31">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33">
         <v>0</v>
       </c>
-      <c r="V12" s="31">
-        <v>55</v>
-      </c>
-      <c r="AB12" s="31">
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33">
+        <v>75</v>
+      </c>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+    </row>
+    <row r="13" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="BD13" s="37">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="51">
         <v>50</v>
       </c>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="32"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="32"/>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="BJ13" s="52"/>
+    </row>
+    <row r="14" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C14" s="35">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="I13" s="31">
+      <c r="E14" s="36"/>
+      <c r="BD14" s="37">
         <v>0</v>
       </c>
-      <c r="V13" s="31">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="31">
-        <v>15</v>
-      </c>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="32"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C15" s="35">
         <v>1</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="I14" s="31">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K15" s="38">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M15" s="38">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N15" s="38">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O15" s="38">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P15" s="38">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R15" s="38">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S15" s="38">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T15" s="38">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U15" s="38">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V15" s="38">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W15" s="38">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X15" s="38">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD15" s="38">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE15" s="38">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF15" s="38">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG15" s="38">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH15" s="38">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI15" s="38">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ15" s="38">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK15" s="38">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL15" s="38">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM15" s="38">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN15" s="38">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO15" s="38">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP15" s="38">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ15" s="38">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR15" s="38">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS15" s="38">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT15" s="38">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU15" s="38">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV15" s="38">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW15" s="38">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX15" s="38">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY15" s="38">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ15" s="38">
+        <v>100</v>
+      </c>
+      <c r="BA15" s="38">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB15" s="38">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC15" s="38">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD15" s="38">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE15" s="38">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA16" s="37">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
+      <c r="BG17" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="AE18" s="37">
         <v>0</v>
       </c>
-      <c r="V14" s="31">
-        <v>65</v>
-      </c>
-      <c r="AB14" s="31">
-        <v>62</v>
-      </c>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="32"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="32"/>
-      <c r="BA14" s="32"/>
-      <c r="BB14" s="32"/>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:81" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="AN18" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="AS18" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX18" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="BC18" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="BD18" s="37">
+        <v>5.9</v>
+      </c>
+      <c r="BE18" s="37">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C19" s="35">
         <v>1</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D19" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="43">
-        <v>0</v>
-      </c>
-      <c r="L15" s="43">
-        <v>0</v>
-      </c>
-      <c r="V15" s="43">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="43">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="43">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="43">
-        <v>2.8</v>
-      </c>
-      <c r="BC15" s="43">
-        <v>2.8</v>
-      </c>
-      <c r="BD15" s="43">
-        <v>2.8</v>
-      </c>
-      <c r="BG15" s="51">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="E19" s="36"/>
+      <c r="W19" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AH19" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AP19" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AY19" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="BE19" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="33"/>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="33"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
-      <c r="BU16" s="33"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
-      <c r="CA16" s="33"/>
-      <c r="CB16" s="33"/>
-      <c r="CC16" s="33"/>
-    </row>
-    <row r="17" spans="1:81" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="33"/>
-      <c r="BH17" s="33"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="33"/>
-      <c r="BK17" s="33"/>
-      <c r="BL17" s="33"/>
-      <c r="BM17" s="33"/>
-      <c r="BN17" s="33"/>
-      <c r="BO17" s="33"/>
-      <c r="BP17" s="33"/>
-      <c r="BQ17" s="34">
-        <v>50</v>
-      </c>
-      <c r="BR17" s="34">
-        <v>75</v>
-      </c>
-      <c r="BS17" s="33"/>
-      <c r="BT17" s="33"/>
-      <c r="BU17" s="33"/>
-      <c r="BV17" s="33"/>
-      <c r="BW17" s="33"/>
-      <c r="BX17" s="33"/>
-      <c r="BY17" s="33"/>
-      <c r="BZ17" s="33"/>
-      <c r="CA17" s="33"/>
-      <c r="CB17" s="33"/>
-      <c r="CC17" s="33"/>
-    </row>
-    <row r="18" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="36">
+      <c r="AK20" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0</v>
-      </c>
-      <c r="L18" s="38">
-        <v>0</v>
-      </c>
-      <c r="V18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="38">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="38">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="52">
-        <v>50</v>
-      </c>
-      <c r="BJ18" s="53"/>
-    </row>
-    <row r="19" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="L19" s="38">
-        <v>0</v>
-      </c>
-      <c r="V19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="38">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="38">
-        <v>0</v>
-      </c>
-      <c r="BI19" s="53"/>
-      <c r="BJ19" s="52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="37">
-        <v>1</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1</v>
-      </c>
-      <c r="G20" s="38">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K20" s="39">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L20" s="39">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M20" s="39">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N20" s="39">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O20" s="39">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P20" s="39">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q20" s="39">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R20" s="39">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S20" s="39">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T20" s="39">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U20" s="39">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V20" s="39">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W20" s="39">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X20" s="39">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y20" s="39">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z20" s="39">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA20" s="39">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB20" s="39">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC20" s="39">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD20" s="39">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE20" s="39">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF20" s="39">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG20" s="39">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH20" s="39">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI20" s="39">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ20" s="39">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK20" s="39">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL20" s="39">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM20" s="39">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN20" s="39">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO20" s="39">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP20" s="39">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ20" s="39">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR20" s="39">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS20" s="39">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT20" s="39">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU20" s="39">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV20" s="39">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW20" s="39">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX20" s="39">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY20" s="39">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ20" s="39">
-        <v>100</v>
-      </c>
-      <c r="BA20" s="39">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB20" s="39">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC20" s="39">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD20" s="39">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE20" s="39">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="37">
-        <v>1</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38">
-        <v>1</v>
-      </c>
-      <c r="I21" s="38">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="38">
-        <v>1</v>
-      </c>
-      <c r="L21" s="38">
-        <v>1</v>
-      </c>
-      <c r="M21" s="38">
-        <v>1</v>
-      </c>
-      <c r="N21" s="38">
-        <v>1</v>
-      </c>
-      <c r="O21" s="38">
-        <v>1</v>
-      </c>
-      <c r="P21" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="38">
-        <v>1</v>
-      </c>
-      <c r="R21" s="38">
-        <v>1</v>
-      </c>
-      <c r="S21" s="38">
-        <v>1</v>
-      </c>
-      <c r="T21" s="38">
-        <v>1</v>
-      </c>
-      <c r="U21" s="38">
-        <v>1</v>
-      </c>
-      <c r="V21" s="38">
-        <v>1</v>
-      </c>
-      <c r="W21" s="38">
-        <v>1</v>
-      </c>
-      <c r="X21" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA21" s="38">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="19"/>
-      <c r="BG22" s="12">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="36">
-        <v>1</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0</v>
-      </c>
-      <c r="U23" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="38">
-        <v>3.1</v>
-      </c>
-      <c r="AS23" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX23" s="38">
-        <v>5.2</v>
-      </c>
-      <c r="BC23" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="BD23" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="BE23" s="38">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:81" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="W24" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="AH24" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="AP24" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="AY24" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="BE24" s="38">
-        <v>0.1</v>
+      <c r="AP20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF15:BG15 F4:BD4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF10:BG10 F5:BD5">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:BE15 F2:AF2 BE2:BG14 AG2:BD3 F3:AE3 F5:BD14">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:BE10 F2:AF3 AG2:BD4 F4:AE4 BE2:BG9 F6:BD9">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C23:C1048576 C2:C21">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B22:D22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4026,37 +3449,37 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D23:D1048576 D2 D5:D21</xm:sqref>
+          <xm:sqref>D18:D1048576 D2:D3 D6:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B5:B15</xm:sqref>
+          <xm:sqref>B2:B3 B6:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>[2]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="22">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -2367,10 +2367,10 @@
   <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR10" sqref="BR10"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,9 +2889,6 @@
         <v>0</v>
       </c>
       <c r="BB10" s="42">
-        <v>2.8</v>
-      </c>
-      <c r="BD10" s="42">
         <v>2.8</v>
       </c>
       <c r="BG10" s="50">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>parameter</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>program_perc_novel_vaccination</t>
+  </si>
+  <si>
+    <t>program_prop_child_reporting</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1129,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1193,6 +1196,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2198,10 +2207,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,103 +2253,113 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B5" s="23">
         <v>1865</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B6" s="43">
         <v>19000000</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="43">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>45</v>
-      </c>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B9" s="14">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="44">
-        <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="44">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B12" s="44">
         <v>2035</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="44"/>
-    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 F4:G4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
       <formula1>-10000</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 F5:G6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 F6:G7">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
@@ -2348,7 +2367,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 F3:G3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 F3:G4">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2366,7 +2385,7 @@
   </sheetPr>
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>parameter</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>comorb_perc_hiv</t>
-  </si>
-  <si>
-    <t>tb_prop_early_progression_age5to15</t>
-  </si>
-  <si>
-    <t>tb_prop_early_progression_age15up</t>
   </si>
   <si>
     <t>program_perc_ipt_age0to5</t>
@@ -2207,10 +2201,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2248,7 @@
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -2284,7 +2278,7 @@
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="43">
         <v>5</v>
@@ -2319,39 +2313,23 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="44">
-        <v>0.26</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="44">
-        <v>0.03</v>
-      </c>
+      <c r="A11" s="55"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="44">
-        <v>2035</v>
-      </c>
+      <c r="A12" s="55"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2656,7 +2634,7 @@
     </row>
     <row r="3" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2693,7 +2671,7 @@
     </row>
     <row r="5" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>3</v>
@@ -3412,7 +3390,7 @@
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>parameter</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>age_breakpoints</t>
-  </si>
-  <si>
-    <t>program_perc_novel_vaccination</t>
   </si>
   <si>
     <t>program_prop_child_reporting</t>
@@ -2203,7 +2200,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -2361,13 +2358,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ20"/>
+  <dimension ref="A1:BZ19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,117 +2631,128 @@
     </row>
     <row r="3" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40">
+        <v>5</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="41"/>
-      <c r="BF3" s="50"/>
-      <c r="BK3" s="42">
-        <v>75</v>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="42">
+        <v>82</v>
+      </c>
+      <c r="BO3" s="42">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40">
-        <v>5</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="I4" s="42">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49">
         <v>0</v>
       </c>
-      <c r="BD4" s="42">
-        <v>82</v>
-      </c>
-      <c r="BO4" s="42">
-        <v>90</v>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="50">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47">
-        <v>1</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="50">
-        <v>75</v>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31">
+        <v>70</v>
+      </c>
+      <c r="V5" s="31">
+        <v>80</v>
+      </c>
+      <c r="BC5" s="31">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>4</v>
@@ -2756,40 +2764,60 @@
         <v>3</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="31">
-        <v>70</v>
-      </c>
-      <c r="V6" s="31">
-        <v>80</v>
-      </c>
-      <c r="BC6" s="31">
-        <v>85</v>
+      <c r="H6" s="31">
+        <v>30</v>
+      </c>
+      <c r="K6" s="31">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="29">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="H7" s="31">
-        <v>30</v>
-      </c>
-      <c r="K7" s="31">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
         <v>40</v>
+      </c>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32">
+        <v>93</v>
+      </c>
+      <c r="BC7" s="32">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>3</v>
@@ -2801,103 +2829,151 @@
         <v>3</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
       <c r="V8" s="31">
-        <v>40</v>
-      </c>
-      <c r="AK8" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="AK8" s="45"/>
       <c r="AL8" s="32"/>
       <c r="AM8" s="32"/>
       <c r="AN8" s="32"/>
       <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
+      <c r="AP8" s="45"/>
       <c r="AQ8" s="32"/>
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
+      <c r="AU8" s="45"/>
       <c r="AV8" s="32"/>
       <c r="AW8" s="32"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
+      <c r="AZ8" s="45"/>
       <c r="BA8" s="32"/>
-      <c r="BB8" s="32">
-        <v>93</v>
-      </c>
-      <c r="BC8" s="32">
-        <v>85</v>
-      </c>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
     </row>
-    <row r="9" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="V9" s="31">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
+      <c r="E9" s="41"/>
+      <c r="AZ9" s="42">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="BG9" s="50">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="40">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="AZ10" s="42">
+      <c r="E10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="33">
         <v>0</v>
       </c>
-      <c r="BB10" s="42">
-        <v>2.8</v>
-      </c>
-      <c r="BG10" s="50">
-        <v>95</v>
-      </c>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="33"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="33"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="33"/>
+      <c r="BM10" s="33">
+        <v>75</v>
+      </c>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="33"/>
+      <c r="BQ10" s="33"/>
+      <c r="BR10" s="33"/>
+      <c r="BS10" s="33"/>
+      <c r="BT10" s="33"/>
+      <c r="BU10" s="33"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="33"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="33"/>
     </row>
     <row r="11" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -2966,10 +3042,10 @@
       <c r="BI11" s="33"/>
       <c r="BJ11" s="33"/>
       <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33">
+      <c r="BL11" s="33">
         <v>75</v>
       </c>
+      <c r="BM11" s="33"/>
       <c r="BN11" s="33"/>
       <c r="BO11" s="33"/>
       <c r="BP11" s="33"/>
@@ -2984,101 +3060,31 @@
       <c r="BY11" s="33"/>
       <c r="BZ11" s="33"/>
     </row>
-    <row r="12" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="35">
         <v>1</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="33">
+      <c r="E12" s="36"/>
+      <c r="BD12" s="37">
         <v>0</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33">
-        <v>75</v>
-      </c>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="33"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="33"/>
-      <c r="BZ12" s="33"/>
+      <c r="BI12" s="51">
+        <v>50</v>
+      </c>
+      <c r="BJ12" s="52"/>
     </row>
     <row r="13" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>3</v>
@@ -3093,14 +3099,14 @@
       <c r="BD13" s="37">
         <v>0</v>
       </c>
-      <c r="BI13" s="51">
+      <c r="BI13" s="52"/>
+      <c r="BJ13" s="51">
         <v>50</v>
       </c>
-      <c r="BJ13" s="52"/>
     </row>
     <row r="14" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>3</v>
@@ -3111,18 +3117,160 @@
       <c r="D14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="BD14" s="37">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="51">
-        <v>50</v>
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K14" s="38">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M14" s="38">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N14" s="38">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O14" s="38">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P14" s="38">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R14" s="38">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S14" s="38">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T14" s="38">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U14" s="38">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V14" s="38">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W14" s="38">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X14" s="38">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z14" s="38">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA14" s="38">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD14" s="38">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE14" s="38">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF14" s="38">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG14" s="38">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH14" s="38">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI14" s="38">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ14" s="38">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK14" s="38">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL14" s="38">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM14" s="38">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN14" s="38">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO14" s="38">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP14" s="38">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ14" s="38">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR14" s="38">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS14" s="38">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT14" s="38">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU14" s="38">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV14" s="38">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW14" s="38">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX14" s="38">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY14" s="38">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ14" s="38">
+        <v>100</v>
+      </c>
+      <c r="BA14" s="38">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB14" s="38">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC14" s="38">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD14" s="38">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE14" s="38">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="15" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>3</v>
@@ -3136,195 +3284,67 @@
       <c r="E15" s="36">
         <v>1</v>
       </c>
-      <c r="H15" s="38">
+      <c r="AE15" s="37">
         <v>1</v>
       </c>
-      <c r="J15" s="38">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K15" s="38">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L15" s="38">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M15" s="38">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N15" s="38">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O15" s="38">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P15" s="38">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q15" s="38">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R15" s="38">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S15" s="38">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T15" s="38">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U15" s="38">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V15" s="38">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W15" s="38">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X15" s="38">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y15" s="38">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z15" s="38">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA15" s="38">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB15" s="38">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC15" s="38">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD15" s="38">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE15" s="38">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF15" s="38">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG15" s="38">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH15" s="38">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI15" s="38">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ15" s="38">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK15" s="38">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL15" s="38">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM15" s="38">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN15" s="38">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO15" s="38">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP15" s="38">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ15" s="38">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR15" s="38">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS15" s="38">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT15" s="38">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU15" s="38">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV15" s="38">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW15" s="38">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX15" s="38">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY15" s="38">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ15" s="38">
-        <v>100</v>
-      </c>
-      <c r="BA15" s="38">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB15" s="38">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC15" s="38">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD15" s="38">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE15" s="38">
-        <v>117.42738589211601</v>
+      <c r="AF15" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA15" s="37">
+        <v>3.11</v>
       </c>
     </row>
-    <row r="16" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="19"/>
+      <c r="BG16" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C17" s="35">
         <v>1</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA16" s="37">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="19"/>
-      <c r="BG17" s="12">
-        <v>2010</v>
+      <c r="E17" s="36"/>
+      <c r="AE17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="AS17" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX17" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="BC17" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="BD17" s="37">
+        <v>5.9</v>
+      </c>
+      <c r="BE17" s="37">
+        <v>5.9</v>
       </c>
     </row>
     <row r="18" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>3</v>
@@ -3336,103 +3356,67 @@
         <v>3</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="AE18" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="37">
-        <v>3.1</v>
-      </c>
-      <c r="AS18" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX18" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="BC18" s="37">
-        <v>5.4</v>
-      </c>
-      <c r="BD18" s="37">
-        <v>5.9</v>
+      <c r="W18" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AH18" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AP18" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AY18" s="37">
+        <v>0.1</v>
       </c>
       <c r="BE18" s="37">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35">
+      <c r="E19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="W19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AH19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AP19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AY19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="BE19" s="37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="AK19" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1">
+      <c r="AP19" s="1">
         <v>0.75</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU19" s="1">
         <v>0.62</v>
       </c>
-      <c r="BN20" s="1">
+      <c r="BN19" s="1">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF10:BG10 F5:BD5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF9:BG9 F4:BD4">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:BE10 F2:AF3 AG2:BD4 F4:AE4 BE2:BG9 F6:BD9">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:BE9 F2:AF2 F3:AE3 F5:BD8 BE2:BG8 AG2:BD3">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C17:C1048576 C2:C15">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B16:D16"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3443,37 +3427,37 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D18:D1048576 D2:D3 D6:D16</xm:sqref>
+          <xm:sqref>D17:D1048576 D2 D5:D15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 B6:B10</xm:sqref>
+          <xm:sqref>B2 B5:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>[2]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D5</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1900,8 +1900,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -2361,10 +2361,10 @@
   <dimension ref="A1:BZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="BQ13" sqref="BQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2364,7 +2364,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ13" sqref="BQ13"/>
+      <selection pane="bottomRight" activeCell="BG17" sqref="BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,9 +3302,6 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="19"/>
-      <c r="BG16" s="12">
-        <v>2010</v>
-      </c>
     </row>
     <row r="17" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>parameter</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>program_prop_child_reporting</t>
+  </si>
+  <si>
+    <t>program_perc_shortcourse_mdr</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2204,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,13 +2361,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ19"/>
+  <dimension ref="A1:BZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG17" sqref="BG17"/>
+      <selection pane="bottomRight" activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,10 +3109,10 @@
     </row>
     <row r="14" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="35">
         <v>1</v>
@@ -3117,160 +3120,19 @@
       <c r="D14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="38">
-        <v>1</v>
-      </c>
-      <c r="J14" s="38">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K14" s="38">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L14" s="38">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M14" s="38">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N14" s="38">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O14" s="38">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P14" s="38">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R14" s="38">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S14" s="38">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T14" s="38">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U14" s="38">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V14" s="38">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W14" s="38">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X14" s="38">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y14" s="38">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z14" s="38">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA14" s="38">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB14" s="38">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC14" s="38">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD14" s="38">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE14" s="38">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF14" s="38">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG14" s="38">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH14" s="38">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI14" s="38">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ14" s="38">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK14" s="38">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL14" s="38">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM14" s="38">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN14" s="38">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO14" s="38">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP14" s="38">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ14" s="38">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR14" s="38">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS14" s="38">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT14" s="38">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU14" s="38">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV14" s="38">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW14" s="38">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX14" s="38">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY14" s="38">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ14" s="38">
-        <v>100</v>
-      </c>
-      <c r="BA14" s="38">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB14" s="38">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC14" s="38">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD14" s="38">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE14" s="38">
-        <v>117.42738589211601</v>
+      <c r="E14" s="36"/>
+      <c r="BD14" s="37">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="37">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>3</v>
@@ -3284,64 +3146,192 @@
       <c r="E15" s="36">
         <v>1</v>
       </c>
-      <c r="AE15" s="37">
+      <c r="H15" s="38">
         <v>1</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="J15" s="38">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K15" s="38">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M15" s="38">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N15" s="38">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O15" s="38">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P15" s="38">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R15" s="38">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S15" s="38">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T15" s="38">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U15" s="38">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V15" s="38">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W15" s="38">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X15" s="38">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD15" s="38">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE15" s="38">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF15" s="38">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG15" s="38">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH15" s="38">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI15" s="38">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ15" s="38">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK15" s="38">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL15" s="38">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM15" s="38">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN15" s="38">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO15" s="38">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP15" s="38">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ15" s="38">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR15" s="38">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS15" s="38">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT15" s="38">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU15" s="38">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV15" s="38">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW15" s="38">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX15" s="38">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY15" s="38">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ15" s="38">
+        <v>100</v>
+      </c>
+      <c r="BA15" s="38">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB15" s="38">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC15" s="38">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD15" s="38">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE15" s="38">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BA15" s="37">
+      <c r="BA16" s="37">
         <v>3.11</v>
       </c>
     </row>
-    <row r="16" spans="1:78" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="AE17" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="37">
-        <v>3.1</v>
-      </c>
-      <c r="AS17" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX17" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="BC17" s="37">
-        <v>5.4</v>
-      </c>
-      <c r="BD17" s="37">
-        <v>5.9</v>
-      </c>
-      <c r="BE17" s="37">
-        <v>5.9</v>
-      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>3</v>
@@ -3353,48 +3343,84 @@
         <v>3</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="W18" s="37">
+      <c r="AE18" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="AS18" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX18" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="BC18" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="BD18" s="37">
+        <v>5.9</v>
+      </c>
+      <c r="BE18" s="37">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="W19" s="37">
         <v>0.1</v>
       </c>
-      <c r="AH18" s="37">
+      <c r="AH19" s="37">
         <v>0.1</v>
       </c>
-      <c r="AP18" s="37">
+      <c r="AP19" s="37">
         <v>0.1</v>
       </c>
-      <c r="AY18" s="37">
+      <c r="AY19" s="37">
         <v>0.1</v>
       </c>
-      <c r="BE18" s="37">
+      <c r="BE19" s="37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK20" s="1">
         <v>1</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AP20" s="1">
         <v>0.75</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU20" s="1">
         <v>0.62</v>
       </c>
-      <c r="BN19" s="1">
+      <c r="BN20" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -3409,11 +3435,11 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C17:C1048576 C2:C15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B16:D16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3424,7 +3450,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D17:D1048576 D2 D5:D15</xm:sqref>
+          <xm:sqref>D18:D1048576 D2 D5:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>parameter</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>program_perc_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>comorb_perc_prison</t>
   </si>
 </sst>
 </file>
@@ -1903,8 +1906,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -2361,13 +2364,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ20"/>
+  <dimension ref="A1:BZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ5" sqref="AQ5"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,7 +3337,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="35">
         <v>1</v>
@@ -3395,32 +3398,52 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="36">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK21" s="1">
         <v>1</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AP21" s="1">
         <v>0.75</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU21" s="1">
         <v>0.62</v>
       </c>
-      <c r="BN20" s="1">
+      <c r="BN21" s="1">
         <v>0.01</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>parameter</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>comorb_perc_prison</t>
+  </si>
+  <si>
+    <t>program_perc_smearacf_prison</t>
   </si>
 </sst>
 </file>
@@ -2364,13 +2367,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ21"/>
+  <dimension ref="A1:BZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="BM15" sqref="BM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="14" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>4</v>
@@ -3129,16 +3132,13 @@
       </c>
       <c r="BI14" s="52"/>
       <c r="BJ14" s="51"/>
-      <c r="BK14" s="37">
-        <v>50</v>
-      </c>
     </row>
     <row r="15" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="35">
         <v>1</v>
@@ -3146,160 +3146,19 @@
       <c r="D15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K15" s="38">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L15" s="38">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M15" s="38">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N15" s="38">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O15" s="38">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P15" s="38">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q15" s="38">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R15" s="38">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S15" s="38">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T15" s="38">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U15" s="38">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V15" s="38">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W15" s="38">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X15" s="38">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y15" s="38">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z15" s="38">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA15" s="38">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB15" s="38">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC15" s="38">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD15" s="38">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE15" s="38">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF15" s="38">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG15" s="38">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH15" s="38">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI15" s="38">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ15" s="38">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK15" s="38">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL15" s="38">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM15" s="38">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN15" s="38">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO15" s="38">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP15" s="38">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ15" s="38">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR15" s="38">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS15" s="38">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT15" s="38">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU15" s="38">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV15" s="38">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW15" s="38">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX15" s="38">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY15" s="38">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ15" s="38">
-        <v>100</v>
-      </c>
-      <c r="BA15" s="38">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB15" s="38">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC15" s="38">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD15" s="38">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE15" s="38">
-        <v>117.42738589211601</v>
+      <c r="E15" s="36"/>
+      <c r="BD15" s="37">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="37">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>3</v>
@@ -3313,67 +3172,195 @@
       <c r="E16" s="36">
         <v>1</v>
       </c>
-      <c r="AE16" s="37">
+      <c r="H16" s="38">
         <v>1</v>
       </c>
-      <c r="AF16" s="37">
+      <c r="J16" s="38">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L16" s="38">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M16" s="38">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N16" s="38">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O16" s="38">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P16" s="38">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R16" s="38">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S16" s="38">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T16" s="38">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U16" s="38">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V16" s="38">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W16" s="38">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X16" s="38">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z16" s="38">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA16" s="38">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC16" s="38">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD16" s="38">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE16" s="38">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF16" s="38">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG16" s="38">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH16" s="38">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI16" s="38">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ16" s="38">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK16" s="38">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL16" s="38">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM16" s="38">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN16" s="38">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO16" s="38">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP16" s="38">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ16" s="38">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR16" s="38">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS16" s="38">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT16" s="38">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU16" s="38">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV16" s="38">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW16" s="38">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX16" s="38">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY16" s="38">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ16" s="38">
+        <v>100</v>
+      </c>
+      <c r="BA16" s="38">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB16" s="38">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC16" s="38">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD16" s="38">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE16" s="38">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BA16" s="37">
+      <c r="BA17" s="37">
         <v>3.11</v>
       </c>
     </row>
-    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="35">
-        <v>1</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="AE18" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="37">
-        <v>3.1</v>
-      </c>
-      <c r="AS18" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX18" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="BC18" s="37">
-        <v>5.4</v>
-      </c>
-      <c r="BD18" s="37">
-        <v>5.9</v>
-      </c>
-      <c r="BE18" s="37">
-        <v>5.9</v>
-      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="35">
         <v>1</v>
@@ -3382,28 +3369,34 @@
         <v>3</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="W19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AH19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AP19" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AY19" s="37">
-        <v>0.1</v>
+      <c r="AE19" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="AS19" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX19" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="BC19" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="BD19" s="37">
+        <v>5.9</v>
       </c>
       <c r="BE19" s="37">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="20" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="35">
         <v>1</v>
@@ -3411,39 +3404,69 @@
       <c r="D20" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="36"/>
+      <c r="W20" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AH20" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AP20" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AY20" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="BE20" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="35">
         <v>1</v>
       </c>
-      <c r="BD20" s="37">
+      <c r="D21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="BD21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK22" s="1">
         <v>1</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP22" s="1">
         <v>0.75</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU22" s="1">
         <v>0.62</v>
       </c>
-      <c r="BN21" s="1">
+      <c r="BN22" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -3458,11 +3481,11 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C19:C1048576 C2:C17">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B18:D18"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3473,7 +3496,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D18:D1048576 D2 D5:D16</xm:sqref>
+          <xm:sqref>D19:D1048576 D2 D5:D17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="495" windowWidth="20370" windowHeight="6660" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>parameter</t>
   </si>
@@ -112,9 +111,6 @@
     <t>program_perc_vaccination</t>
   </si>
   <si>
-    <t>program_perc_detect</t>
-  </si>
-  <si>
     <t>program_perc_algorithm_sensitivity</t>
   </si>
   <si>
@@ -152,9 +148,6 @@
   </si>
   <si>
     <t>demo_household_size</t>
-  </si>
-  <si>
-    <t>comorb_startage_diabetes</t>
   </si>
   <si>
     <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
@@ -359,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -450,17 +443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="665">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1129,7 +1111,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1149,8 +1131,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1161,7 +1141,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1178,9 +1157,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1900,23 +1876,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="constants"/>
-      <sheetName val="time_variants"/>
-      <sheetName val="dropdown_lists"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2207,10 +2166,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,106 +2195,95 @@
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21">
-        <v>23</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="19">
+        <v>48</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>0.35</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>1865</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="43">
-        <v>19000000</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="40">
+        <v>22000000</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="A7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="40">
         <v>5</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="14">
-        <v>20</v>
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2035</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="44">
-        <v>2035</v>
-      </c>
+      <c r="A10" s="51"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2367,13 +2315,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ22"/>
+  <dimension ref="A1:BZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BM15" sqref="BM15"/>
+      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2329,7 @@
     <col min="1" max="1" width="56" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2611,898 +2559,880 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="37">
         <v>0.1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39">
         <v>0</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="39">
         <v>25</v>
       </c>
-      <c r="BF2" s="50">
+      <c r="BF2" s="46">
         <v>99</v>
       </c>
-      <c r="BP2" s="42">
+      <c r="BP2" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45">
+        <v>0</v>
+      </c>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
+        <v>70</v>
+      </c>
+      <c r="V4" s="28">
+        <v>80</v>
+      </c>
+      <c r="BC4" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="H5" s="28">
         <v>5</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="AP5" s="28">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="28">
+        <v>15</v>
+      </c>
+      <c r="AZ5" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="I3" s="42">
+      <c r="C6" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="I6" s="28">
         <v>0</v>
       </c>
-      <c r="BD3" s="42">
-        <v>82</v>
-      </c>
-      <c r="BO3" s="42">
-        <v>90</v>
+      <c r="V6" s="28">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="29">
+        <v>93</v>
+      </c>
+      <c r="BC6" s="29">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+    <row r="7" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="V7" s="28">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+    </row>
+    <row r="8" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="AZ8" s="39">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="39">
+        <v>2.8</v>
+      </c>
+      <c r="BG8" s="46">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30">
+        <v>75</v>
+      </c>
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30"/>
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30"/>
+    </row>
+    <row r="10" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30">
+        <v>75</v>
+      </c>
+      <c r="BM10" s="30"/>
+      <c r="BN10" s="30"/>
+      <c r="BO10" s="30"/>
+      <c r="BP10" s="30"/>
+      <c r="BQ10" s="30"/>
+      <c r="BR10" s="30"/>
+      <c r="BS10" s="30"/>
+      <c r="BT10" s="30"/>
+      <c r="BU10" s="30"/>
+      <c r="BV10" s="30"/>
+      <c r="BW10" s="30"/>
+      <c r="BX10" s="30"/>
+      <c r="BY10" s="30"/>
+      <c r="BZ10" s="30"/>
+    </row>
+    <row r="11" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="BD11" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="47">
+        <v>50</v>
+      </c>
+      <c r="BJ11" s="48"/>
+    </row>
+    <row r="12" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="BD12" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="BD13" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="47"/>
+    </row>
+    <row r="14" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="BD14" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="47"/>
+      <c r="BK14" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="L15" s="35">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="M15" s="35">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="N15" s="35">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="O15" s="35">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="P15" s="35">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="R15" s="35">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="S15" s="35">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="T15" s="35">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="U15" s="35">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="V15" s="35">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="W15" s="35">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="X15" s="35">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="Y15" s="35">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Z15" s="35">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="AA15" s="35">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AE15" s="35">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AF15" s="35">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AG15" s="35">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AH15" s="35">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AI15" s="35">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AJ15" s="35">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AK15" s="35">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AL15" s="35">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AM15" s="35">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AN15" s="35">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AO15" s="35">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AP15" s="35">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AQ15" s="35">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AR15" s="35">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AS15" s="35">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AT15" s="35">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AU15" s="35">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AV15" s="35">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AW15" s="35">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AX15" s="35">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AY15" s="35">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AZ15" s="35">
+        <v>100</v>
+      </c>
+      <c r="BA15" s="35">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BB15" s="35">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BC15" s="35">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BD15" s="35">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BE15" s="35">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA16" s="34">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="AE18" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="AS18" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX18" s="34">
+        <v>5.2</v>
+      </c>
+      <c r="BC18" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="BD18" s="34">
+        <v>5.9</v>
+      </c>
+      <c r="BE18" s="34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="W19" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="AH19" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="AY19" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="BE19" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49">
-        <v>0</v>
-      </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="50">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="AK21" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31">
-        <v>70</v>
-      </c>
-      <c r="V5" s="31">
-        <v>80</v>
-      </c>
-      <c r="BC5" s="31">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="H6" s="31">
-        <v>30</v>
-      </c>
-      <c r="K6" s="31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31">
-        <v>40</v>
-      </c>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32">
-        <v>93</v>
-      </c>
-      <c r="BC7" s="32">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="V8" s="31">
-        <v>10</v>
-      </c>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="32"/>
-      <c r="BC8" s="32"/>
-    </row>
-    <row r="9" spans="1:78" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="40">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="AZ9" s="42">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="42">
-        <v>2.8</v>
-      </c>
-      <c r="BG9" s="50">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="33"/>
-      <c r="BF10" s="33"/>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="33"/>
-      <c r="BI10" s="33"/>
-      <c r="BJ10" s="33"/>
-      <c r="BK10" s="33"/>
-      <c r="BL10" s="33"/>
-      <c r="BM10" s="33">
-        <v>75</v>
-      </c>
-      <c r="BN10" s="33"/>
-      <c r="BO10" s="33"/>
-      <c r="BP10" s="33"/>
-      <c r="BQ10" s="33"/>
-      <c r="BR10" s="33"/>
-      <c r="BS10" s="33"/>
-      <c r="BT10" s="33"/>
-      <c r="BU10" s="33"/>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="33"/>
-      <c r="BY10" s="33"/>
-      <c r="BZ10" s="33"/>
-    </row>
-    <row r="11" spans="1:78" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="33">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33">
-        <v>75</v>
-      </c>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-    </row>
-    <row r="12" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="35">
-        <v>1</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="BD12" s="37">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="51">
-        <v>50</v>
-      </c>
-      <c r="BJ12" s="52"/>
-    </row>
-    <row r="13" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="35">
-        <v>1</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="BD13" s="37">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="BD14" s="37">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="51"/>
-    </row>
-    <row r="15" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="35">
-        <v>1</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="BD15" s="37">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:78" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35">
-        <v>1</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="38">
-        <v>1</v>
-      </c>
-      <c r="J16" s="38">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K16" s="38">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L16" s="38">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M16" s="38">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N16" s="38">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O16" s="38">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P16" s="38">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q16" s="38">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R16" s="38">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S16" s="38">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T16" s="38">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U16" s="38">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V16" s="38">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W16" s="38">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X16" s="38">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y16" s="38">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z16" s="38">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA16" s="38">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB16" s="38">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC16" s="38">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD16" s="38">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE16" s="38">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF16" s="38">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG16" s="38">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH16" s="38">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI16" s="38">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ16" s="38">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK16" s="38">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL16" s="38">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM16" s="38">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN16" s="38">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO16" s="38">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP16" s="38">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ16" s="38">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR16" s="38">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS16" s="38">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT16" s="38">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU16" s="38">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV16" s="38">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW16" s="38">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX16" s="38">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY16" s="38">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ16" s="38">
-        <v>100</v>
-      </c>
-      <c r="BA16" s="38">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB16" s="38">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC16" s="38">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD16" s="38">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE16" s="38">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA17" s="37">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="35">
-        <v>1</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="AE19" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="37">
-        <v>3.1</v>
-      </c>
-      <c r="AS19" s="37">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX19" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="BC19" s="37">
-        <v>5.4</v>
-      </c>
-      <c r="BD19" s="37">
-        <v>5.9</v>
-      </c>
-      <c r="BE19" s="37">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35">
-        <v>1</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="W20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AH20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AP20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="AY20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="BE20" s="37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="35">
-        <v>1</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="36">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="1">
+      <c r="AP21" s="1">
         <v>0.75</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU21" s="1">
         <v>0.62</v>
       </c>
-      <c r="BN22" s="1">
+      <c r="BN21" s="1">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF9:BG9 F4:BD4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF8:BG8 F3:BD3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:BE9 F2:AF2 F3:AE3 F5:BD8 BE2:BG8 AG2:BD3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:BE8 F4:BD7 F2:BD2 BE2:BG7">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C19:C1048576 C2:C17">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B18:D18"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D19:D1048576 D2 D5:D17</xm:sqref>
+          <xm:sqref>D18:D1048576 D2 D4:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B5:B9</xm:sqref>
+          <xm:sqref>B2 B4:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
@@ -3515,18 +3445,6 @@
             <xm:f>[1]dropdown_lists!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>[2]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>parameter</t>
   </si>
@@ -111,18 +111,12 @@
     <t>program_perc_vaccination</t>
   </si>
   <si>
-    <t>program_perc_algorithm_sensitivity</t>
-  </si>
-  <si>
     <t>program_perc_lowquality</t>
   </si>
   <si>
     <t>program_perc_xpert</t>
   </si>
   <si>
-    <t>program_perc_treatment_support</t>
-  </si>
-  <si>
     <t>program_perc_smearacf</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
   </si>
   <si>
     <t>freeze_times</t>
-  </si>
-  <si>
-    <t>program_perc_decentralisation</t>
   </si>
   <si>
     <t>comorb_perc_diabetes</t>
@@ -189,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,23 +272,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,24 +306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,66 +1069,31 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,6 +1101,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2168,122 +2102,122 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="14" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="51.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="8">
         <v>48</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="9">
         <v>0.35</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.2</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="10">
         <v>1865</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="18">
         <v>22000000</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="40">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="18">
         <v>5</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="53">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8">
         <v>2035</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2315,1107 +2249,872 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BZ21"/>
+  <dimension ref="A1:BO18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="18" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="7.42578125" style="1" customWidth="1"/>
-    <col min="22" max="27" width="7.28515625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="7.42578125" style="1" customWidth="1"/>
-    <col min="30" max="31" width="7.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="7.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="7.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5703125" style="1" customWidth="1"/>
-    <col min="43" max="53" width="7" style="1" customWidth="1"/>
-    <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="7.85546875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="14" style="1" customWidth="1"/>
-    <col min="59" max="65" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="14.42578125" style="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="56" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11" style="15" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="7.42578125" style="16" customWidth="1"/>
+    <col min="21" max="26" width="7.28515625" style="16" customWidth="1"/>
+    <col min="27" max="28" width="7.42578125" style="16" customWidth="1"/>
+    <col min="29" max="30" width="7.140625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="7.42578125" style="16" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="7.42578125" style="16" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" style="16" customWidth="1"/>
+    <col min="42" max="52" width="7" style="16" customWidth="1"/>
+    <col min="53" max="54" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.85546875" style="16" customWidth="1"/>
+    <col min="57" max="57" width="14" style="16" customWidth="1"/>
+    <col min="58" max="64" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="14.42578125" style="16" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>1920</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>1930</v>
       </c>
-      <c r="G1" s="5">
-        <v>1940</v>
-      </c>
-      <c r="H1" s="5">
+      <c r="G1" s="3">
         <v>1950</v>
       </c>
-      <c r="I1" s="5">
+      <c r="H1" s="3">
         <v>1955</v>
       </c>
-      <c r="J1" s="5">
+      <c r="I1" s="3">
         <v>1960</v>
       </c>
-      <c r="K1" s="5">
+      <c r="J1" s="3">
         <v>1965</v>
       </c>
-      <c r="L1" s="5">
+      <c r="K1" s="3">
         <v>1970</v>
       </c>
-      <c r="M1" s="5">
+      <c r="L1" s="3">
         <v>1971</v>
       </c>
-      <c r="N1" s="5">
+      <c r="M1" s="3">
         <v>1972</v>
       </c>
-      <c r="O1" s="5">
+      <c r="N1" s="3">
         <v>1973</v>
       </c>
-      <c r="P1" s="5">
+      <c r="O1" s="3">
         <v>1974</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="P1" s="3">
         <v>1975</v>
       </c>
-      <c r="R1" s="5">
+      <c r="Q1" s="3">
         <v>1976</v>
       </c>
-      <c r="S1" s="5">
+      <c r="R1" s="3">
         <v>1977</v>
       </c>
-      <c r="T1" s="5">
+      <c r="S1" s="3">
         <v>1978</v>
       </c>
-      <c r="U1" s="5">
+      <c r="T1" s="3">
         <v>1979</v>
       </c>
-      <c r="V1" s="5">
+      <c r="U1" s="3">
         <v>1980</v>
       </c>
-      <c r="W1" s="5">
+      <c r="V1" s="3">
         <v>1981</v>
       </c>
-      <c r="X1" s="5">
+      <c r="W1" s="3">
         <v>1982</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="X1" s="3">
         <v>1983</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Y1" s="3">
         <v>1984</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="Z1" s="3">
         <v>1985</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AA1" s="3">
         <v>1986</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AB1" s="3">
         <v>1987</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AC1" s="3">
         <v>1988</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AD1" s="3">
         <v>1989</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AE1" s="3">
         <v>1990</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AF1" s="3">
         <v>1991</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AG1" s="3">
         <v>1992</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AH1" s="3">
         <v>1993</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AI1" s="3">
         <v>1994</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AJ1" s="3">
         <v>1995</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AK1" s="3">
         <v>1996</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AL1" s="3">
         <v>1997</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AM1" s="3">
         <v>1998</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AN1" s="3">
         <v>1999</v>
       </c>
-      <c r="AP1" s="5">
+      <c r="AO1" s="3">
         <v>2000</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AP1" s="3">
         <v>2001</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AQ1" s="3">
         <v>2002</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AR1" s="3">
         <v>2003</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AS1" s="3">
         <v>2004</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AT1" s="3">
         <v>2005</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AU1" s="3">
         <v>2006</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AV1" s="3">
         <v>2007</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AW1" s="3">
         <v>2008</v>
       </c>
-      <c r="AY1" s="5">
+      <c r="AX1" s="3">
         <v>2009</v>
       </c>
-      <c r="AZ1" s="5">
+      <c r="AY1" s="3">
         <v>2010</v>
       </c>
-      <c r="BA1" s="5">
+      <c r="AZ1" s="3">
         <v>2011</v>
       </c>
-      <c r="BB1" s="5">
+      <c r="BA1" s="3">
         <v>2012</v>
       </c>
-      <c r="BC1" s="5">
+      <c r="BB1" s="3">
         <v>2013</v>
       </c>
-      <c r="BD1" s="5">
+      <c r="BC1" s="3">
         <v>2014</v>
       </c>
-      <c r="BE1" s="5">
+      <c r="BD1" s="3">
         <v>2015</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BE1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BF1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BH1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BI1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BK1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BL1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BM1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BN1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BO1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="27">
         <v>0.1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39">
+      <c r="E2" s="1"/>
+      <c r="F2" s="19">
         <v>0</v>
       </c>
-      <c r="J2" s="39">
+      <c r="I2" s="19">
         <v>25</v>
       </c>
-      <c r="BF2" s="46">
+      <c r="BE2" s="28">
         <v>99</v>
       </c>
-      <c r="BP2" s="39">
+      <c r="BO2" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16">
         <v>0</v>
       </c>
-      <c r="BH3" s="46">
+      <c r="BG3" s="28">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28">
-        <v>70</v>
-      </c>
-      <c r="V4" s="28">
-        <v>80</v>
-      </c>
-      <c r="BC4" s="28">
+      <c r="G4" s="16">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17">
+        <v>93</v>
+      </c>
+      <c r="BB5" s="17">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+    </row>
+    <row r="7" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="AY7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="BF7" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="29">
+        <v>50</v>
+      </c>
+      <c r="BI8" s="29"/>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="H5" s="28">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="28">
-        <v>10</v>
-      </c>
-      <c r="AU5" s="28">
-        <v>15</v>
-      </c>
-      <c r="AZ5" s="28">
-        <v>30</v>
-      </c>
+      <c r="BC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
     </row>
-    <row r="6" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="L12" s="30">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="M12" s="30">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="N12" s="30">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="O12" s="30">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="P12" s="30">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="R12" s="30">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="S12" s="30">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="T12" s="30">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="U12" s="30">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="V12" s="30">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="W12" s="30">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="X12" s="30">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="AA12" s="30">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AC12" s="30">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AD12" s="30">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AE12" s="30">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AF12" s="30">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AG12" s="30">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AH12" s="30">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AI12" s="30">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AJ12" s="30">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AK12" s="30">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AL12" s="30">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AM12" s="30">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AN12" s="30">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AO12" s="30">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AP12" s="30">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AQ12" s="30">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AR12" s="30">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AS12" s="30">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AT12" s="30">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AU12" s="30">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AV12" s="30">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AW12" s="30">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AX12" s="30">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AY12" s="30">
+        <v>100</v>
+      </c>
+      <c r="AZ12" s="30">
+        <v>104.647302904564</v>
+      </c>
+      <c r="BA12" s="30">
+        <v>107.966804979253</v>
+      </c>
+      <c r="BB12" s="30">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BC12" s="30">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BD12" s="30">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="I6" s="28">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ13" s="16">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="16">
         <v>0</v>
       </c>
-      <c r="V6" s="28">
-        <v>40</v>
-      </c>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="29"/>
-      <c r="BB6" s="29">
-        <v>93</v>
-      </c>
-      <c r="BC6" s="29">
-        <v>85</v>
+      <c r="AM15" s="16">
+        <v>3.1</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AW15" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="BB15" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="BC15" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="BD15" s="16">
+        <v>5.9</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="26" t="s">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="V7" s="28">
-        <v>10</v>
-      </c>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="29"/>
-      <c r="BC7" s="29"/>
+      <c r="V16" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AX16" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="BD16" s="16">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="37" t="s">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37">
+      <c r="AY17" s="16">
+        <v>0.112</v>
+      </c>
+      <c r="BC17" s="16">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="AZ8" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="39">
-        <v>2.8</v>
-      </c>
-      <c r="BG8" s="46">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30"/>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30">
-        <v>75</v>
-      </c>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30"/>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30"/>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30"/>
-    </row>
-    <row r="10" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="AJ18" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="30"/>
-      <c r="BI10" s="30"/>
-      <c r="BJ10" s="30"/>
-      <c r="BK10" s="30"/>
-      <c r="BL10" s="30">
-        <v>75</v>
-      </c>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="30"/>
-      <c r="BO10" s="30"/>
-      <c r="BP10" s="30"/>
-      <c r="BQ10" s="30"/>
-      <c r="BR10" s="30"/>
-      <c r="BS10" s="30"/>
-      <c r="BT10" s="30"/>
-      <c r="BU10" s="30"/>
-      <c r="BV10" s="30"/>
-      <c r="BW10" s="30"/>
-      <c r="BX10" s="30"/>
-      <c r="BY10" s="30"/>
-      <c r="BZ10" s="30"/>
-    </row>
-    <row r="11" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="32">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="BD11" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="47">
-        <v>50</v>
-      </c>
-      <c r="BJ11" s="48"/>
-    </row>
-    <row r="12" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="BD12" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="BD13" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="47"/>
-    </row>
-    <row r="14" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="BD14" s="34">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="47"/>
-      <c r="BK14" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35">
-        <v>1</v>
-      </c>
-      <c r="J15" s="35">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="K15" s="35">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="L15" s="35">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="M15" s="35">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="N15" s="35">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="O15" s="35">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="P15" s="35">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="R15" s="35">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="S15" s="35">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="T15" s="35">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="U15" s="35">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="V15" s="35">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="W15" s="35">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="X15" s="35">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="Y15" s="35">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="Z15" s="35">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="AA15" s="35">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="AB15" s="35">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="AC15" s="35">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AD15" s="35">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AE15" s="35">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AF15" s="35">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AG15" s="35">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AH15" s="35">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AI15" s="35">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AJ15" s="35">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AK15" s="35">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AL15" s="35">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AM15" s="35">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AN15" s="35">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AO15" s="35">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AP15" s="35">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AQ15" s="35">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AR15" s="35">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AS15" s="35">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AT15" s="35">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AU15" s="35">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AV15" s="35">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AW15" s="35">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AX15" s="35">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AY15" s="35">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AZ15" s="35">
-        <v>100</v>
-      </c>
-      <c r="BA15" s="35">
-        <v>104.647302904564</v>
-      </c>
-      <c r="BB15" s="35">
-        <v>107.966804979253</v>
-      </c>
-      <c r="BC15" s="35">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BD15" s="35">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BE15" s="35">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:78" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32">
-        <v>1</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="34">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA16" s="34">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="32">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="AE18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="AS18" s="34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AX18" s="34">
-        <v>5.2</v>
-      </c>
-      <c r="BC18" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="BD18" s="34">
-        <v>5.9</v>
-      </c>
-      <c r="BE18" s="34">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="W19" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="AH19" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="AP19" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="AY19" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="BE19" s="34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="32">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="33">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="1">
+      <c r="AO18" s="16">
         <v>0.75</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AT18" s="16">
         <v>0.62</v>
       </c>
-      <c r="BN21" s="1">
+      <c r="BM18" s="16">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF8:BG8 F3:BD3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE7:BF7 F3:BC3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:BE8 F4:BD7 F2:BD2 BE2:BG7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:BC2 F7:BD7 F4:BC6 BD2:BF6">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C18:C1048576 C2:C16">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C15:C1048576 C2:C13">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B17:D17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B14:D14"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3426,13 +3125,13 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D18:D1048576 D2 D4:D16</xm:sqref>
+          <xm:sqref>D15:D1048576 D2 D4:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B4:B8</xm:sqref>
+          <xm:sqref>B2 B4:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2170,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="18">
-        <v>22000000</v>
+        <v>44000000</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2251,7 +2251,7 @@
   </sheetPr>
   <dimension ref="A1:BO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>parameter</t>
   </si>
@@ -60,9 +60,6 @@
     <t>time_variant</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
     <t>susceptible_fully</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>epi_rr_diabetes</t>
   </si>
   <si>
-    <t>freeze_times</t>
-  </si>
-  <si>
     <t>comorb_perc_diabetes</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
   </si>
   <si>
     <t>program_perc_ipt_age0to5</t>
-  </si>
-  <si>
-    <t>plot_end_time</t>
   </si>
   <si>
     <t>transmission_modifier</t>
@@ -180,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,15 +256,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,24 +273,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1069,24 +1035,18 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1094,8 +1054,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,7 +1069,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1802,8 +1760,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -2100,10 +2058,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,107 +2083,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.35</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="9">
+    <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7">
         <v>0.4</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10">
-        <v>1865</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="14">
+        <v>44000000</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="18">
-        <v>44000000</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+    <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="18">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="24">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2035</v>
-      </c>
+      <c r="A9" s="16"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
-      <formula1>-10000</formula1>
-      <formula2>10000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 F6:G7">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 F5:G6">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
@@ -2249,53 +2185,53 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11" style="15" customWidth="1"/>
-    <col min="6" max="8" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="7.42578125" style="16" customWidth="1"/>
-    <col min="21" max="26" width="7.28515625" style="16" customWidth="1"/>
-    <col min="27" max="28" width="7.42578125" style="16" customWidth="1"/>
-    <col min="29" max="30" width="7.140625" style="16" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="7.42578125" style="16" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="7.42578125" style="16" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" style="16" customWidth="1"/>
-    <col min="42" max="52" width="7" style="16" customWidth="1"/>
-    <col min="53" max="54" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="7.85546875" style="16" customWidth="1"/>
-    <col min="57" max="57" width="14" style="16" customWidth="1"/>
-    <col min="58" max="64" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="14.42578125" style="16" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="56" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11" style="11" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="7.42578125" style="12" customWidth="1"/>
+    <col min="21" max="26" width="7.28515625" style="12" customWidth="1"/>
+    <col min="27" max="28" width="7.42578125" style="12" customWidth="1"/>
+    <col min="29" max="30" width="7.140625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="7.42578125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="7.42578125" style="12" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" style="12" customWidth="1"/>
+    <col min="42" max="52" width="7" style="12" customWidth="1"/>
+    <col min="53" max="54" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.85546875" style="12" customWidth="1"/>
+    <col min="57" max="57" width="14" style="12" customWidth="1"/>
+    <col min="58" max="64" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="14.42578125" style="12" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3">
@@ -2461,646 +2397,640 @@
         <v>9</v>
       </c>
       <c r="BG1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BM1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="BN1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BO1" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="21">
         <v>0.1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="15">
         <v>25</v>
       </c>
-      <c r="BE2" s="28">
+      <c r="BE2" s="22">
         <v>99</v>
       </c>
-      <c r="BO2" s="19">
+      <c r="BO2" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12">
         <v>0</v>
       </c>
-      <c r="BG3" s="28">
+      <c r="BG3" s="22">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>5</v>
       </c>
-      <c r="AO4" s="16">
+      <c r="AO4" s="12">
         <v>10</v>
       </c>
-      <c r="AT4" s="16">
+      <c r="AT4" s="12">
         <v>15</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="AY4" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>0.2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17">
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13">
         <v>93</v>
       </c>
-      <c r="BB5" s="17">
+      <c r="BB5" s="13">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>0.2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
     </row>
-    <row r="7" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="AY7" s="19">
+      <c r="AY7" s="15">
         <v>0</v>
       </c>
-      <c r="BA7" s="19">
+      <c r="BA7" s="15">
         <v>2.8</v>
       </c>
-      <c r="BF7" s="28">
+      <c r="BF7" s="22">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="16">
+      <c r="BC8" s="12">
         <v>0</v>
       </c>
-      <c r="BH8" s="29">
+      <c r="BH8" s="23">
         <v>50</v>
       </c>
-      <c r="BI8" s="29"/>
+      <c r="BI8" s="23"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC9" s="16">
+      <c r="BC9" s="12">
         <v>0</v>
       </c>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29">
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC10" s="16">
+      <c r="BC10" s="12">
         <v>0</v>
       </c>
-      <c r="BH10" s="29"/>
-      <c r="BI10" s="29"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC11" s="16">
+      <c r="BC11" s="12">
         <v>0</v>
       </c>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="16">
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="24">
         <v>1</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="24">
         <v>1.1289570744394</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="24">
         <v>1.42215881727406</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="24">
         <v>1.90118931222233</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="24">
         <v>2.3081073919986701</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="24">
         <v>2.4974653103104298</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="24">
         <v>2.9115458645382701</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="24">
         <v>3.90623450399154</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="24">
         <v>4.1703507493909102</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="24">
         <v>4.55399078719985</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="24">
         <v>5.0047790229916798</v>
       </c>
-      <c r="S12" s="30">
+      <c r="S12" s="24">
         <v>5.3718558386314896</v>
       </c>
-      <c r="T12" s="30">
+      <c r="T12" s="24">
         <v>6.3137212289735496</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="24">
         <v>7.4628507238053698</v>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="24">
         <v>8.4391855224587609</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="24">
         <v>9.3018160392078606</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="24">
         <v>10.2347283365258</v>
       </c>
-      <c r="Y12" s="30">
+      <c r="Y12" s="24">
         <v>15.386785740408699</v>
       </c>
-      <c r="Z12" s="30">
+      <c r="Z12" s="24">
         <v>18.9416113416321</v>
       </c>
-      <c r="AA12" s="30">
+      <c r="AA12" s="24">
         <v>19.1590871369295</v>
       </c>
-      <c r="AB12" s="30">
+      <c r="AB12" s="24">
         <v>19.938817427385899</v>
       </c>
-      <c r="AC12" s="30">
+      <c r="AC12" s="24">
         <v>22.702351313969601</v>
       </c>
-      <c r="AD12" s="30">
+      <c r="AD12" s="24">
         <v>25.481798063623799</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AE12" s="24">
         <v>28.584806362378998</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AF12" s="24">
         <v>34.090656984785603</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AG12" s="24">
         <v>37.0398409405256</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AH12" s="24">
         <v>39.527551867219898</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AI12" s="24">
         <v>43.633070539419101</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AJ12" s="24">
         <v>46.6140802213001</v>
       </c>
-      <c r="AK12" s="30">
+      <c r="AK12" s="24">
         <v>50.0989972337483</v>
       </c>
-      <c r="AL12" s="30">
+      <c r="AL12" s="24">
         <v>52.899661134163203</v>
       </c>
-      <c r="AM12" s="30">
+      <c r="AM12" s="24">
         <v>57.784910096818798</v>
       </c>
-      <c r="AN12" s="30">
+      <c r="AN12" s="24">
         <v>61.2167842323652</v>
       </c>
-      <c r="AO12" s="30">
+      <c r="AO12" s="24">
         <v>63.651452282157699</v>
       </c>
-      <c r="AP12" s="30">
+      <c r="AP12" s="24">
         <v>67.053941908713696</v>
       </c>
-      <c r="AQ12" s="30">
+      <c r="AQ12" s="24">
         <v>68.8796680497925</v>
       </c>
-      <c r="AR12" s="30">
+      <c r="AR12" s="24">
         <v>70.456431535269701</v>
       </c>
-      <c r="AS12" s="30">
+      <c r="AS12" s="24">
         <v>73.858921161825705</v>
       </c>
-      <c r="AT12" s="30">
+      <c r="AT12" s="24">
         <v>78.6721991701245</v>
       </c>
-      <c r="AU12" s="30">
+      <c r="AU12" s="24">
         <v>82.987551867219906</v>
       </c>
-      <c r="AV12" s="30">
+      <c r="AV12" s="24">
         <v>85.394190871369304</v>
       </c>
-      <c r="AW12" s="30">
+      <c r="AW12" s="24">
         <v>92.448132780083</v>
       </c>
-      <c r="AX12" s="30">
+      <c r="AX12" s="24">
         <v>96.348547717842294</v>
       </c>
-      <c r="AY12" s="30">
+      <c r="AY12" s="24">
         <v>100</v>
       </c>
-      <c r="AZ12" s="30">
+      <c r="AZ12" s="24">
         <v>104.647302904564</v>
       </c>
-      <c r="BA12" s="30">
+      <c r="BA12" s="24">
         <v>107.966804979253</v>
       </c>
-      <c r="BB12" s="30">
+      <c r="BB12" s="24">
         <v>111.203319502075</v>
       </c>
-      <c r="BC12" s="30">
+      <c r="BC12" s="24">
         <v>115.767634854772</v>
       </c>
-      <c r="BD12" s="30">
+      <c r="BD12" s="24">
         <v>117.42738589211601</v>
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AD13" s="12">
         <v>1</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AE13" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AZ13" s="16">
+      <c r="AZ13" s="12">
         <v>3.11</v>
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="31"/>
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AW14" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="BD14" s="12">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="16">
-        <v>3.1</v>
-      </c>
-      <c r="AR15" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AW15" s="16">
-        <v>5.2</v>
-      </c>
-      <c r="BB15" s="16">
-        <v>5.4</v>
-      </c>
-      <c r="BC15" s="16">
-        <v>5.9</v>
-      </c>
-      <c r="BD15" s="16">
-        <v>5.9</v>
+      <c r="V15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AO15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AX15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="BD15" s="12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AO16" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AX16" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="BD16" s="16">
-        <v>0.1</v>
+      <c r="AY16" s="12">
+        <v>0.112</v>
+      </c>
+      <c r="BC16" s="12">
+        <v>0.153</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AY17" s="16">
-        <v>0.112</v>
-      </c>
-      <c r="BC17" s="16">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="AJ17" s="12">
         <v>1</v>
       </c>
-      <c r="AJ18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="16">
+      <c r="AO17" s="12">
         <v>0.75</v>
       </c>
-      <c r="AT18" s="16">
+      <c r="AT17" s="12">
         <v>0.62</v>
       </c>
-      <c r="BM18" s="16">
+      <c r="BM17" s="12">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="5">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE7:BF7 F3:BC3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3110,11 +3040,10 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C15:C1048576 C2:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C14:C1048576 C2:C13">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Leave blank" sqref="B14:D14"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3125,7 +3054,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D1048576 D2 D4:D13</xm:sqref>
+          <xm:sqref>D14:D1048576 D2 D4:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3172,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>parameter</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>program_perc_treatment_death</t>
-  </si>
-  <si>
-    <t>epi_rr_diabetes</t>
   </si>
   <si>
     <t>comorb_perc_diabetes</t>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7">
         <v>0.4</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14">
         <v>5</v>
@@ -2138,13 +2135,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="18">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,13 +2182,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,28 +2197,28 @@
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="10" customWidth="1"/>
     <col min="5" max="5" width="11" style="11" customWidth="1"/>
-    <col min="6" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="7.42578125" style="12" customWidth="1"/>
-    <col min="21" max="26" width="7.28515625" style="12" customWidth="1"/>
-    <col min="27" max="28" width="7.42578125" style="12" customWidth="1"/>
-    <col min="29" max="30" width="7.140625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="7.42578125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="7.42578125" style="12" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" style="12" customWidth="1"/>
-    <col min="42" max="52" width="7" style="12" customWidth="1"/>
-    <col min="53" max="54" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="7.85546875" style="12" customWidth="1"/>
-    <col min="57" max="57" width="14" style="12" customWidth="1"/>
-    <col min="58" max="64" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="14.42578125" style="12" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="12"/>
+    <col min="6" max="6" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.42578125" style="12" customWidth="1"/>
+    <col min="19" max="24" width="7.28515625" style="12" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" style="12" customWidth="1"/>
+    <col min="27" max="28" width="7.140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.42578125" style="12" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="12" customWidth="1"/>
+    <col min="40" max="50" width="7" style="12" customWidth="1"/>
+    <col min="51" max="52" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.85546875" style="12" customWidth="1"/>
+    <col min="55" max="55" width="14" style="12" customWidth="1"/>
+    <col min="56" max="62" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="14.42578125" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -2238,193 +2235,187 @@
         <v>1920</v>
       </c>
       <c r="F1" s="3">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="G1" s="3">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="H1" s="3">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="I1" s="3">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J1" s="3">
-        <v>1965</v>
+        <v>1971</v>
       </c>
       <c r="K1" s="3">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="L1" s="3">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="M1" s="3">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="N1" s="3">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="O1" s="3">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="P1" s="3">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="Q1" s="3">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="R1" s="3">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="S1" s="3">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="T1" s="3">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="U1" s="3">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="V1" s="3">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="W1" s="3">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="X1" s="3">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="Y1" s="3">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="Z1" s="3">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="AA1" s="3">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="AB1" s="3">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="AC1" s="3">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="AD1" s="3">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="AE1" s="3">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="AF1" s="3">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="AG1" s="3">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="AH1" s="3">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="AI1" s="3">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="AJ1" s="3">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="AK1" s="3">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="AL1" s="3">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="AM1" s="3">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="AN1" s="3">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="AO1" s="3">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="AP1" s="3">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="AQ1" s="3">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="AR1" s="3">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="AS1" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="AT1" s="3">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="AU1" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="AV1" s="3">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="AW1" s="3">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="AX1" s="3">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="AY1" s="3">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="AZ1" s="3">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="BA1" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="BB1" s="3">
-        <v>2013</v>
-      </c>
-      <c r="BC1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="BD1" s="3">
         <v>2015</v>
       </c>
+      <c r="BC1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="BE1" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BO1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2438,22 +2429,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="15">
+      <c r="BC2" s="22">
+        <v>99</v>
+      </c>
+      <c r="BM2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="15">
-        <v>25</v>
-      </c>
-      <c r="BE2" s="22">
-        <v>99</v>
-      </c>
-      <c r="BO2" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -2470,11 +2455,11 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
+      <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -2514,16 +2499,14 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="12"/>
       <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12">
+      <c r="BA3" s="12">
         <v>0</v>
       </c>
-      <c r="BG3" s="22">
+      <c r="BE3" s="22">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
@@ -2536,20 +2519,20 @@
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="F4" s="12">
         <v>5</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AM4" s="12">
         <v>10</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AR4" s="12">
         <v>15</v>
       </c>
-      <c r="AY4" s="12">
+      <c r="AW4" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2562,6 +2545,8 @@
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
@@ -2577,16 +2562,14 @@
       <c r="AV5" s="13"/>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13">
+      <c r="AY5" s="13">
         <v>93</v>
       </c>
-      <c r="BB5" s="13">
+      <c r="AZ5" s="13">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -2599,27 +2582,27 @@
       <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
+      <c r="AM6" s="15"/>
       <c r="AN6" s="13"/>
-      <c r="AO6" s="15"/>
+      <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
       <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
+      <c r="AR6" s="15"/>
       <c r="AS6" s="13"/>
-      <c r="AT6" s="15"/>
+      <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
       <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
+      <c r="AW6" s="15"/>
       <c r="AX6" s="13"/>
-      <c r="AY6" s="15"/>
+      <c r="AY6" s="13"/>
       <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
     </row>
-    <row r="7" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -2633,17 +2616,17 @@
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
       <c r="AY7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
         <v>2.8</v>
       </c>
-      <c r="BF7" s="22">
+      <c r="BD7" s="22">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2656,15 +2639,15 @@
       <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC8" s="12">
+      <c r="BA8" s="12">
         <v>0</v>
       </c>
-      <c r="BH8" s="23">
+      <c r="BF8" s="23">
         <v>50</v>
       </c>
-      <c r="BI8" s="23"/>
+      <c r="BG8" s="23"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
@@ -2677,17 +2660,17 @@
       <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC9" s="12">
+      <c r="BA9" s="12">
         <v>0</v>
       </c>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23">
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -2698,15 +2681,15 @@
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC10" s="12">
+      <c r="BA10" s="12">
         <v>0</v>
       </c>
-      <c r="BH10" s="23"/>
-      <c r="BI10" s="23"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>4</v>
@@ -2717,16 +2700,16 @@
       <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BC11" s="12">
+      <c r="BA11" s="12">
         <v>0</v>
       </c>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="12">
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -2742,160 +2725,160 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
       <c r="G12" s="24">
-        <v>1</v>
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1.42215881727406</v>
       </c>
       <c r="I12" s="24">
-        <v>1.1289570744394</v>
+        <v>1.90118931222233</v>
       </c>
       <c r="J12" s="24">
-        <v>1.42215881727406</v>
+        <v>2.3081073919986701</v>
       </c>
       <c r="K12" s="24">
-        <v>1.90118931222233</v>
+        <v>2.4974653103104298</v>
       </c>
       <c r="L12" s="24">
-        <v>2.3081073919986701</v>
+        <v>2.9115458645382701</v>
       </c>
       <c r="M12" s="24">
-        <v>2.4974653103104298</v>
+        <v>3.90623450399154</v>
       </c>
       <c r="N12" s="24">
-        <v>2.9115458645382701</v>
+        <v>4.1703507493909102</v>
       </c>
       <c r="O12" s="24">
-        <v>3.90623450399154</v>
+        <v>4.55399078719985</v>
       </c>
       <c r="P12" s="24">
-        <v>4.1703507493909102</v>
+        <v>5.0047790229916798</v>
       </c>
       <c r="Q12" s="24">
-        <v>4.55399078719985</v>
+        <v>5.3718558386314896</v>
       </c>
       <c r="R12" s="24">
-        <v>5.0047790229916798</v>
+        <v>6.3137212289735496</v>
       </c>
       <c r="S12" s="24">
-        <v>5.3718558386314896</v>
+        <v>7.4628507238053698</v>
       </c>
       <c r="T12" s="24">
-        <v>6.3137212289735496</v>
+        <v>8.4391855224587609</v>
       </c>
       <c r="U12" s="24">
-        <v>7.4628507238053698</v>
+        <v>9.3018160392078606</v>
       </c>
       <c r="V12" s="24">
-        <v>8.4391855224587609</v>
+        <v>10.2347283365258</v>
       </c>
       <c r="W12" s="24">
-        <v>9.3018160392078606</v>
+        <v>15.386785740408699</v>
       </c>
       <c r="X12" s="24">
-        <v>10.2347283365258</v>
+        <v>18.9416113416321</v>
       </c>
       <c r="Y12" s="24">
-        <v>15.386785740408699</v>
+        <v>19.1590871369295</v>
       </c>
       <c r="Z12" s="24">
-        <v>18.9416113416321</v>
+        <v>19.938817427385899</v>
       </c>
       <c r="AA12" s="24">
-        <v>19.1590871369295</v>
+        <v>22.702351313969601</v>
       </c>
       <c r="AB12" s="24">
-        <v>19.938817427385899</v>
+        <v>25.481798063623799</v>
       </c>
       <c r="AC12" s="24">
-        <v>22.702351313969601</v>
+        <v>28.584806362378998</v>
       </c>
       <c r="AD12" s="24">
-        <v>25.481798063623799</v>
+        <v>34.090656984785603</v>
       </c>
       <c r="AE12" s="24">
-        <v>28.584806362378998</v>
+        <v>37.0398409405256</v>
       </c>
       <c r="AF12" s="24">
-        <v>34.090656984785603</v>
+        <v>39.527551867219898</v>
       </c>
       <c r="AG12" s="24">
-        <v>37.0398409405256</v>
+        <v>43.633070539419101</v>
       </c>
       <c r="AH12" s="24">
-        <v>39.527551867219898</v>
+        <v>46.6140802213001</v>
       </c>
       <c r="AI12" s="24">
-        <v>43.633070539419101</v>
+        <v>50.0989972337483</v>
       </c>
       <c r="AJ12" s="24">
-        <v>46.6140802213001</v>
+        <v>52.899661134163203</v>
       </c>
       <c r="AK12" s="24">
-        <v>50.0989972337483</v>
+        <v>57.784910096818798</v>
       </c>
       <c r="AL12" s="24">
-        <v>52.899661134163203</v>
+        <v>61.2167842323652</v>
       </c>
       <c r="AM12" s="24">
-        <v>57.784910096818798</v>
+        <v>63.651452282157699</v>
       </c>
       <c r="AN12" s="24">
-        <v>61.2167842323652</v>
+        <v>67.053941908713696</v>
       </c>
       <c r="AO12" s="24">
-        <v>63.651452282157699</v>
+        <v>68.8796680497925</v>
       </c>
       <c r="AP12" s="24">
-        <v>67.053941908713696</v>
+        <v>70.456431535269701</v>
       </c>
       <c r="AQ12" s="24">
-        <v>68.8796680497925</v>
+        <v>73.858921161825705</v>
       </c>
       <c r="AR12" s="24">
-        <v>70.456431535269701</v>
+        <v>78.6721991701245</v>
       </c>
       <c r="AS12" s="24">
-        <v>73.858921161825705</v>
+        <v>82.987551867219906</v>
       </c>
       <c r="AT12" s="24">
-        <v>78.6721991701245</v>
+        <v>85.394190871369304</v>
       </c>
       <c r="AU12" s="24">
-        <v>82.987551867219906</v>
+        <v>92.448132780083</v>
       </c>
       <c r="AV12" s="24">
-        <v>85.394190871369304</v>
+        <v>96.348547717842294</v>
       </c>
       <c r="AW12" s="24">
-        <v>92.448132780083</v>
+        <v>100</v>
       </c>
       <c r="AX12" s="24">
-        <v>96.348547717842294</v>
+        <v>104.647302904564</v>
       </c>
       <c r="AY12" s="24">
-        <v>100</v>
+        <v>107.966804979253</v>
       </c>
       <c r="AZ12" s="24">
-        <v>104.647302904564</v>
+        <v>111.203319502075</v>
       </c>
       <c r="BA12" s="24">
-        <v>107.966804979253</v>
+        <v>115.767634854772</v>
       </c>
       <c r="BB12" s="24">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BC12" s="24">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BD12" s="24">
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2903,25 +2886,34 @@
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>1.1000000000000001</v>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>5.2</v>
       </c>
       <c r="AZ13" s="12">
-        <v>3.11</v>
+        <v>5.4</v>
+      </c>
+      <c r="BA13" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="BB13" s="12">
+        <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -2929,34 +2921,28 @@
       <c r="D14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AD14" s="12">
-        <v>0</v>
+      <c r="T14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>0.1</v>
       </c>
       <c r="AM14" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="AR14" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AW14" s="12">
-        <v>5.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>0.1</v>
       </c>
       <c r="BB14" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="BC14" s="12">
-        <v>5.9</v>
-      </c>
-      <c r="BD14" s="12">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -2964,25 +2950,16 @@
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AO15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AX15" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="BD15" s="12">
-        <v>0.1</v>
+      <c r="AW15" s="12">
+        <v>0.112</v>
+      </c>
+      <c r="BA15" s="12">
+        <v>0.153</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>4</v>
@@ -2993,54 +2970,34 @@
       <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AY16" s="12">
-        <v>0.112</v>
-      </c>
-      <c r="BC16" s="12">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="AH16" s="12">
         <v>1</v>
       </c>
-      <c r="AJ17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="12">
+      <c r="AM16" s="12">
         <v>0.75</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AR16" s="12">
         <v>0.62</v>
       </c>
-      <c r="BM17" s="12">
+      <c r="BK16" s="12">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE7:BF7 F3:BC3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC7:BD7 F3:BA3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:BC2 F7:BD7 F4:BC6 BD2:BF6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BD6 F2:BA2 F7:BB7 F4:BA6">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C14:C1048576 C2:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C13:C1048576 C2:C12">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3054,7 +3011,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D1048576 D2 D4:D13</xm:sqref>
+          <xm:sqref>D13:D1048576 D2 D4:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>parameter</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>program_perc_smearacf_prison</t>
+  </si>
+  <si>
+    <t>comorb_perc_indigenous</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +244,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1032,30 +1027,17 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1066,7 +1048,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2057,104 +2051,103 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="51.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="24" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>40</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="20">
         <v>0.35</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="20">
         <v>0.4</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="22">
         <v>44000000</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="18">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2182,812 +2175,830 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.42578125" style="12" customWidth="1"/>
-    <col min="19" max="24" width="7.28515625" style="12" customWidth="1"/>
-    <col min="25" max="26" width="7.42578125" style="12" customWidth="1"/>
-    <col min="27" max="28" width="7.140625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.42578125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.42578125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="12" customWidth="1"/>
-    <col min="40" max="50" width="7" style="12" customWidth="1"/>
-    <col min="51" max="52" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.85546875" style="12" customWidth="1"/>
-    <col min="55" max="55" width="14" style="12" customWidth="1"/>
-    <col min="56" max="62" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="14.42578125" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
+    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
+    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
+    <col min="40" max="50" width="7" style="7" customWidth="1"/>
+    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
+    <col min="55" max="55" width="14" style="7" customWidth="1"/>
+    <col min="56" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="14.42578125" style="7" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>1920</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>1950</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>1960</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>1965</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>1970</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>1971</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>1972</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>1973</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>1974</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>1975</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>1976</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>1977</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>1978</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>1979</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>1980</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>1981</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>1982</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>1983</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>1984</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>1985</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>1986</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="2">
         <v>1987</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="2">
         <v>1988</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <v>1989</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>1990</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>1991</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>1992</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>1993</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="2">
         <v>1994</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="2">
         <v>1995</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="2">
         <v>1996</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="2">
         <v>1997</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="2">
         <v>1998</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AL1" s="2">
         <v>1999</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AM1" s="2">
         <v>2000</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AN1" s="2">
         <v>2001</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AO1" s="2">
         <v>2002</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="AP1" s="2">
         <v>2003</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="AQ1" s="2">
         <v>2004</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AR1" s="2">
         <v>2005</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="AS1" s="2">
         <v>2006</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="AT1" s="2">
         <v>2007</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AU1" s="2">
         <v>2008</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="AV1" s="2">
         <v>2009</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="AW1" s="2">
         <v>2010</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="AX1" s="2">
         <v>2011</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>2012</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="2">
         <v>2013</v>
       </c>
-      <c r="BA1" s="3">
+      <c r="BA1" s="2">
         <v>2014</v>
       </c>
-      <c r="BB1" s="3">
+      <c r="BB1" s="2">
         <v>2015</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="12">
         <v>0.1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="22">
+      <c r="BC2" s="13">
         <v>99</v>
       </c>
-      <c r="BM2" s="15">
+      <c r="BM2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7">
         <v>0</v>
       </c>
-      <c r="BE3" s="22">
+      <c r="BE3" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="7">
         <v>10</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AR4" s="7">
         <v>15</v>
       </c>
-      <c r="AW4" s="12">
+      <c r="AW4" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13">
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8">
         <v>93</v>
       </c>
-      <c r="AZ5" s="13">
+      <c r="AZ5" s="8">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>0.2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="AW7" s="15">
+      <c r="AW7" s="9">
         <v>0</v>
       </c>
-      <c r="AY7" s="15">
+      <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD7" s="22">
+      <c r="BD7" s="13">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="12">
+      <c r="BA8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="23">
+      <c r="BF8" s="14">
         <v>50</v>
       </c>
-      <c r="BG8" s="23"/>
+      <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="23"/>
-      <c r="BG9" s="23">
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA10" s="12">
+      <c r="BA10" s="7">
         <v>0</v>
       </c>
-      <c r="BF10" s="23"/>
-      <c r="BG10" s="23"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA11" s="12">
+      <c r="BA11" s="7">
         <v>0</v>
       </c>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="12">
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="15">
         <v>1.1289570744394</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="15">
         <v>1.42215881727406</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="15">
         <v>1.90118931222233</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="15">
         <v>2.3081073919986701</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="15">
         <v>2.4974653103104298</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="15">
         <v>2.9115458645382701</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="15">
         <v>3.90623450399154</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="15">
         <v>4.1703507493909102</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="15">
         <v>4.55399078719985</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="15">
         <v>5.0047790229916798</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="15">
         <v>5.3718558386314896</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="15">
         <v>6.3137212289735496</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="15">
         <v>7.4628507238053698</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="15">
         <v>8.4391855224587609</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="15">
         <v>9.3018160392078606</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="15">
         <v>10.2347283365258</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="15">
         <v>15.386785740408699</v>
       </c>
-      <c r="X12" s="24">
+      <c r="X12" s="15">
         <v>18.9416113416321</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="Y12" s="15">
         <v>19.1590871369295</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="15">
         <v>19.938817427385899</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="15">
         <v>22.702351313969601</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="15">
         <v>25.481798063623799</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="15">
         <v>28.584806362378998</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="15">
         <v>34.090656984785603</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="15">
         <v>37.0398409405256</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="15">
         <v>39.527551867219898</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AG12" s="15">
         <v>43.633070539419101</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AH12" s="15">
         <v>46.6140802213001</v>
       </c>
-      <c r="AI12" s="24">
+      <c r="AI12" s="15">
         <v>50.0989972337483</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AJ12" s="15">
         <v>52.899661134163203</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="15">
         <v>57.784910096818798</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="15">
         <v>61.2167842323652</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AM12" s="15">
         <v>63.651452282157699</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AN12" s="15">
         <v>67.053941908713696</v>
       </c>
-      <c r="AO12" s="24">
+      <c r="AO12" s="15">
         <v>68.8796680497925</v>
       </c>
-      <c r="AP12" s="24">
+      <c r="AP12" s="15">
         <v>70.456431535269701</v>
       </c>
-      <c r="AQ12" s="24">
+      <c r="AQ12" s="15">
         <v>73.858921161825705</v>
       </c>
-      <c r="AR12" s="24">
+      <c r="AR12" s="15">
         <v>78.6721991701245</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AS12" s="15">
         <v>82.987551867219906</v>
       </c>
-      <c r="AT12" s="24">
+      <c r="AT12" s="15">
         <v>85.394190871369304</v>
       </c>
-      <c r="AU12" s="24">
+      <c r="AU12" s="15">
         <v>92.448132780083</v>
       </c>
-      <c r="AV12" s="24">
+      <c r="AV12" s="15">
         <v>96.348547717842294</v>
       </c>
-      <c r="AW12" s="24">
+      <c r="AW12" s="15">
         <v>100</v>
       </c>
-      <c r="AX12" s="24">
+      <c r="AX12" s="15">
         <v>104.647302904564</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="AY12" s="15">
         <v>107.966804979253</v>
       </c>
-      <c r="AZ12" s="24">
+      <c r="AZ12" s="15">
         <v>111.203319502075</v>
       </c>
-      <c r="BA12" s="24">
+      <c r="BA12" s="15">
         <v>115.767634854772</v>
       </c>
-      <c r="BB12" s="24">
+      <c r="BB12" s="15">
         <v>117.42738589211601</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="7">
         <v>0</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AK13" s="7">
         <v>3.1</v>
       </c>
-      <c r="AP13" s="12">
+      <c r="AP13" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AU13" s="12">
+      <c r="AU13" s="7">
         <v>5.2</v>
       </c>
-      <c r="AZ13" s="12">
+      <c r="AZ13" s="7">
         <v>5.4</v>
       </c>
-      <c r="BA13" s="12">
+      <c r="BA13" s="7">
         <v>5.9</v>
       </c>
-      <c r="BB13" s="12">
+      <c r="BB13" s="7">
         <v>5.9</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="7">
         <v>0.1</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="7">
         <v>0.1</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14" s="7">
         <v>0.1</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="7">
         <v>0.1</v>
       </c>
-      <c r="BB14" s="12">
+      <c r="BB14" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW15" s="12">
+      <c r="AW15" s="7">
         <v>0.112</v>
       </c>
-      <c r="BA15" s="12">
+      <c r="BB15" s="7">
         <v>0.153</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB16" s="7">
+        <f xml:space="preserve"> 7/98*100</f>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH17" s="7">
         <v>1</v>
       </c>
-      <c r="AM16" s="12">
+      <c r="AM17" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR16" s="12">
+      <c r="AR17" s="7">
         <v>0.62</v>
       </c>
-      <c r="BK16" s="12">
+      <c r="BK17" s="7">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="4">
+  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC7:BD7 F3:BA3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3006,7 +3017,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>parameter</t>
   </si>
@@ -78,12 +78,6 @@
     <t>scenario_7</t>
   </si>
   <si>
-    <t>scenario_8</t>
-  </si>
-  <si>
-    <t>scenario_9</t>
-  </si>
-  <si>
     <t>scipy</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>runge_kutta</t>
   </si>
   <si>
-    <t>scenario_10</t>
-  </si>
-  <si>
-    <t>scenario_11</t>
-  </si>
-  <si>
     <t>econ_cpi</t>
   </si>
   <si>
@@ -160,6 +148,9 @@
   </si>
   <si>
     <t>comorb_perc_indigenous</t>
+  </si>
+  <si>
+    <t>program_perc_smearacf_indigenous</t>
   </si>
 </sst>
 </file>
@@ -2049,9 +2040,9 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2096,7 +2087,7 @@
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="20">
         <v>0.4</v>
@@ -2116,7 +2107,7 @@
     </row>
     <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="22">
         <v>5</v>
@@ -2127,27 +2118,24 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="24">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2175,13 +2163,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC16" sqref="BC16"/>
+      <selection pane="bottomRight" activeCell="BA26" sqref="BA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,12 +2194,11 @@
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="55" width="14" style="7" customWidth="1"/>
-    <col min="56" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="14.42578125" style="7" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="7"/>
+    <col min="56" max="61" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2395,22 +2382,10 @@
       <c r="BI1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -2422,16 +2397,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="13">
-        <v>99</v>
-      </c>
-      <c r="BM2" s="9">
-        <v>0</v>
-      </c>
+      <c r="BC2" s="13"/>
     </row>
-    <row r="3" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2495,13 +2465,11 @@
       <c r="BA3" s="7">
         <v>0</v>
       </c>
-      <c r="BE3" s="13">
-        <v>75</v>
-      </c>
+      <c r="BE3" s="13"/>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2524,10 +2492,13 @@
       <c r="AW4" s="7">
         <v>30</v>
       </c>
+      <c r="BC4" s="7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2562,9 +2533,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2595,9 +2566,9 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -2616,12 +2587,12 @@
         <v>2.8</v>
       </c>
       <c r="BD7" s="13">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2635,14 +2606,15 @@
       <c r="BA8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="14">
+      <c r="BE8" s="7">
         <v>50</v>
       </c>
+      <c r="BF8" s="14"/>
       <c r="BG8" s="14"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2656,14 +2628,14 @@
       <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14">
+      <c r="BF9" s="14">
         <v>50</v>
       </c>
+      <c r="BG9" s="14"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2678,9 +2650,11 @@
         <v>0</v>
       </c>
       <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
+      <c r="BG10" s="14">
+        <v>75</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2699,15 +2673,15 @@
       <c r="BF11" s="14"/>
       <c r="BG11" s="14"/>
       <c r="BH11" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2715,163 +2689,21 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J12" s="15">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K12" s="15">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L12" s="15">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M12" s="15">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N12" s="15">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O12" s="15">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P12" s="15">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R12" s="15">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S12" s="15">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T12" s="15">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U12" s="15">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V12" s="15">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W12" s="15">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X12" s="15">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC12" s="15">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD12" s="15">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE12" s="15">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG12" s="15">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH12" s="15">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ12" s="15">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK12" s="15">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL12" s="15">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM12" s="15">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN12" s="15">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO12" s="15">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP12" s="15">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ12" s="15">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR12" s="15">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS12" s="15">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT12" s="15">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU12" s="15">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV12" s="15">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW12" s="15">
-        <v>100</v>
-      </c>
-      <c r="AX12" s="15">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY12" s="15">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ12" s="15">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA12" s="15">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB12" s="15">
-        <v>117.42738589211601</v>
+      <c r="BA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BI12" s="7">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2879,34 +2711,163 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU13" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ13" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BA13" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="BB13" s="7">
-        <v>5.9</v>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K13" s="15">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L13" s="15">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M13" s="15">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N13" s="15">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O13" s="15">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P13" s="15">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R13" s="15">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S13" s="15">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T13" s="15">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U13" s="15">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V13" s="15">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W13" s="15">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X13" s="15">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM13" s="15">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN13" s="15">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO13" s="15">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ13" s="15">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR13" s="15">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS13" s="15">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT13" s="15">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU13" s="15">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV13" s="15">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW13" s="15">
+        <v>100</v>
+      </c>
+      <c r="AX13" s="15">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY13" s="15">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ13" s="15">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA13" s="15">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB13" s="15">
+        <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2914,28 +2875,31 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AV14" s="7">
-        <v>0.1</v>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>5.4</v>
       </c>
       <c r="BB14" s="7">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2943,16 +2907,13 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW15" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB15" s="7">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -2963,42 +2924,59 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW16" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB16" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB17" s="7">
         <f xml:space="preserve"> 7/98*100</f>
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="AH18" s="7">
         <v>1</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="AM18" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR17" s="7">
+      <c r="AR18" s="7">
         <v>0.62</v>
-      </c>
-      <c r="BK17" s="7">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC7:BD7 F3:BA3">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3008,7 +2986,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C13:C1048576 C2:C12">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3017,12 +2995,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D1048576 D2 D4:D12</xm:sqref>
+          <xm:sqref>D2 D4:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3069,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>parameter</t>
   </si>
@@ -151,6 +156,27 @@
   </si>
   <si>
     <t>program_perc_smearacf_indigenous</t>
+  </si>
+  <si>
+    <t>scenario_8</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
+  </si>
+  <si>
+    <t>econ_unitcost_ipt</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_ipt</t>
+  </si>
+  <si>
+    <t>econ_startupcost_ipt</t>
+  </si>
+  <si>
+    <t>econ_startupduration_ipt</t>
+  </si>
+  <si>
+    <t>econ_saturation_ipt</t>
   </si>
 </sst>
 </file>
@@ -240,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +282,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1018,7 +1056,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,6 +1090,14 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1742,8 +1788,8 @@
       <sheetName val="dropdown_lists"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -1793,7 +1839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1828,7 +1874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2040,10 +2086,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,8 +2180,59 @@
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="26">
+        <v>26.22</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="26">
+        <v>265450</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="26">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2163,13 +2260,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI18"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA26" sqref="BA26"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,11 +2291,12 @@
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="55" width="14" style="7" customWidth="1"/>
-    <col min="56" max="61" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="7"/>
+    <col min="56" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" style="7" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2382,8 +2480,14 @@
       <c r="BI1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2502,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="BC2" s="13"/>
-    </row>
-    <row r="3" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -2440,7 +2547,9 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
@@ -2456,18 +2565,23 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
+      <c r="AU3" s="7">
+        <v>0</v>
+      </c>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE3" s="13"/>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BK3" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2533,7 +2647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +2680,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -2590,7 +2704,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -2612,7 +2726,7 @@
       <c r="BF8" s="14"/>
       <c r="BG8" s="14"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2633,7 +2747,7 @@
       </c>
       <c r="BG9" s="14"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2676,7 +2790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -2698,7 +2812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2976,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2894,7 +3008,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2911,7 +3025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>parameter</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>econ_saturation_ipt</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_xpert</t>
+  </si>
+  <si>
+    <t>econ_startupcost_xpert</t>
+  </si>
+  <si>
+    <t>econ_startupduration_xpert</t>
+  </si>
+  <si>
+    <t>econ_saturation_xpert</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +305,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1080,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1098,6 +1122,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2086,10 +2117,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,6 +2264,38 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="33">
+        <v>3302568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2262,11 +2325,11 @@
   </sheetPr>
   <dimension ref="A1:BK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="BD7" sqref="BD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,8 +2763,8 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD7" s="13">
-        <v>75</v>
+      <c r="BD7" s="29">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>parameter</t>
   </si>
@@ -110,9 +110,6 @@
     <t>program_perc_smearacf</t>
   </si>
   <si>
-    <t>program_perc_xpertacf</t>
-  </si>
-  <si>
     <t>program_perc_treatment_success</t>
   </si>
   <si>
@@ -189,6 +186,27 @@
   </si>
   <si>
     <t>econ_saturation_xpert</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_unitcost_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_startupcost_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_startupduration_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_saturation_xpertacf_community</t>
+  </si>
+  <si>
+    <t>econ_unitcost_xpert</t>
   </si>
 </sst>
 </file>
@@ -278,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +335,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1110,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1129,6 +1159,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2117,10 +2152,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2199,7 @@
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="20">
         <v>0.4</v>
@@ -2184,7 +2219,7 @@
     </row>
     <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="22">
         <v>5</v>
@@ -2197,13 +2232,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="24">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2212,7 +2247,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="26">
         <v>26.22</v>
@@ -2223,7 +2258,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="26">
         <v>0</v>
@@ -2234,7 +2269,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="26">
         <v>265450</v>
@@ -2245,7 +2280,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="26">
         <v>3</v>
@@ -2256,7 +2291,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="26">
         <v>1.0009999999999999</v>
@@ -2267,34 +2302,85 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="31">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B14" s="32">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="33">
+        <v>11575186.195826644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="33">
-        <v>3302568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="B17" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="B18" s="31">
         <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="35">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="35">
+        <v>140500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="35">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2412,10 @@
   <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD7" sqref="BD7"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,10 +2630,10 @@
         <v>18</v>
       </c>
       <c r="BJ1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2571,7 +2657,7 @@
     </row>
     <row r="3" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2675,7 +2761,7 @@
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2712,7 +2798,7 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2772,7 +2858,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2790,8 +2876,8 @@
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
+      <c r="A9" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2802,17 +2888,23 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
       <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="14">
-        <v>50</v>
+      <c r="BF9" s="36">
+        <v>80</v>
       </c>
       <c r="BG9" s="14"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2833,7 +2925,7 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2855,7 +2947,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -3041,7 +3133,7 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -3073,7 +3165,7 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3090,7 +3182,7 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3110,7 +3202,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3128,7 +3220,7 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>parameter</t>
   </si>
@@ -207,6 +207,39 @@
   </si>
   <si>
     <t>econ_unitcost_xpert</t>
+  </si>
+  <si>
+    <t>econ_unitcost_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>econ_startupcost_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>econ_startupduration_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>econ_saturation_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>econ_unitcost_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>econ_startupcost_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>econ_startupduration_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>econ_saturation_shortcourse_mdr</t>
   </si>
 </sst>
 </file>
@@ -296,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +361,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,6 +374,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1155,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1152,17 +1197,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
     </xf>
   </cellXfs>
   <cellStyles count="665">
@@ -2152,10 +2206,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,10 +2355,10 @@
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>16</v>
       </c>
       <c r="C14" s="28"/>
@@ -2312,75 +2366,155 @@
       <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>11575186.195826644</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>30.42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>140500</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="41">
+        <v>3837.6979926791319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1144060.9951845906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="38">
+        <v>0.90010000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2409,13 +2543,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,8 +2784,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="13"/>
-      <c r="BJ2" s="25">
+      <c r="BC2" s="25">
         <v>100</v>
       </c>
     </row>
@@ -2725,10 +2858,10 @@
       <c r="BA3" s="7">
         <v>5</v>
       </c>
+      <c r="BD3" s="25">
+        <v>90</v>
+      </c>
       <c r="BE3" s="13"/>
-      <c r="BK3" s="25">
-        <v>90</v>
-      </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2754,9 +2887,6 @@
       </c>
       <c r="AW4" s="7">
         <v>30</v>
-      </c>
-      <c r="BC4" s="7">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
@@ -2849,7 +2979,7 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD7" s="29">
+      <c r="BE7" s="36">
         <v>100</v>
       </c>
     </row>
@@ -2869,14 +2999,11 @@
       <c r="BA8" s="7">
         <v>0</v>
       </c>
-      <c r="BE8" s="7">
-        <v>50</v>
-      </c>
       <c r="BF8" s="14"/>
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2897,17 +3024,17 @@
       <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="36">
+      <c r="BF9" s="37">
         <v>80</v>
       </c>
       <c r="BG9" s="14"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
+      <c r="A10" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2915,17 +3042,23 @@
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
       <c r="BA10" s="7">
         <v>0</v>
       </c>
       <c r="BF10" s="14"/>
-      <c r="BG10" s="14">
-        <v>75</v>
+      <c r="BG10" s="37">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2941,13 +3074,10 @@
       </c>
       <c r="BF11" s="14"/>
       <c r="BG11" s="14"/>
-      <c r="BH11" s="7">
-        <v>75</v>
-      </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2963,16 +3093,13 @@
       </c>
       <c r="BF12" s="14"/>
       <c r="BG12" s="14"/>
-      <c r="BI12" s="7">
-        <v>75</v>
-      </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2980,163 +3107,21 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K13" s="15">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M13" s="15">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N13" s="15">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O13" s="15">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P13" s="15">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R13" s="15">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S13" s="15">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T13" s="15">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U13" s="15">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V13" s="15">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W13" s="15">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X13" s="15">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD13" s="15">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE13" s="15">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF13" s="15">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG13" s="15">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH13" s="15">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI13" s="15">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ13" s="15">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK13" s="15">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL13" s="15">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM13" s="15">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN13" s="15">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO13" s="15">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP13" s="15">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ13" s="15">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR13" s="15">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS13" s="15">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT13" s="15">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU13" s="15">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV13" s="15">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW13" s="15">
-        <v>100</v>
-      </c>
-      <c r="AX13" s="15">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY13" s="15">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ13" s="15">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA13" s="15">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB13" s="15">
-        <v>117.42738589211601</v>
+      <c r="BA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="39">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3144,31 +3129,163 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ14" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB14" s="7">
-        <v>5.9</v>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J14" s="15">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K14" s="15">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L14" s="15">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M14" s="15">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N14" s="15">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O14" s="15">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R14" s="15">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S14" s="15">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T14" s="15">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U14" s="15">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V14" s="15">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W14" s="15">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X14" s="15">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF14" s="15">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK14" s="15">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL14" s="15">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM14" s="15">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN14" s="15">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO14" s="15">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP14" s="15">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ14" s="15">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR14" s="15">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS14" s="15">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT14" s="15">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU14" s="15">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV14" s="15">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW14" s="15">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="15">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY14" s="15">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ14" s="15">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA14" s="15">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB14" s="15">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -3176,16 +3293,31 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB15" s="7">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3193,16 +3325,13 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW16" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB16" s="7">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3213,45 +3342,65 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW17" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB17" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="7">
         <f xml:space="preserve"> 7/98*100</f>
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AH19" s="7">
         <v>1</v>
       </c>
-      <c r="AM18" s="7">
+      <c r="AM19" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR19" s="7">
         <v>0.62</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC7:BD7 F3:BA3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:BA3 BE7 BC7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BD6 F2:BA2 F7:BB7 F4:BA6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:BA6 F2:BA2 F7:BB7 BB2:BB6 BC3:BC6 BD2 BD4:BD6">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1155,7 +1155,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1200,7 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1218,6 +1217,11 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2209,7 +2213,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="31">
-        <v>16</v>
+        <v>30.26</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -2377,8 +2381,8 @@
       <c r="A16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="32">
-        <v>11575186.195826644</v>
+      <c r="B16" s="41">
+        <v>11575186.195826599</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2390,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,122 +2402,122 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="34">
-        <v>30.42</v>
+      <c r="B19" s="33">
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="34">
-        <v>140500</v>
+      <c r="B21" s="42">
+        <v>142024.47833065799</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="35">
-        <v>20</v>
+      <c r="B24" s="34">
+        <v>30.26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="43">
+        <v>662.11878009630811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="40">
+        <v>3837.6979926791319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="35">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="41">
-        <v>3837.6979926791319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="38">
-        <v>0</v>
-      </c>
-    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="39">
         <v>1144060.9951845906</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>0.90010000000000001</v>
       </c>
     </row>
@@ -2979,7 +2983,7 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BE7" s="36">
+      <c r="BE7" s="35">
         <v>100</v>
       </c>
     </row>
@@ -3003,7 +3007,7 @@
       <c r="BG8" s="14"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3024,13 +3028,13 @@
       <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="37">
+      <c r="BF9" s="36">
         <v>80</v>
       </c>
       <c r="BG9" s="14"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3052,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="14"/>
-      <c r="BG10" s="37">
+      <c r="BG10" s="36">
         <v>80</v>
       </c>
     </row>
@@ -3112,7 +3116,7 @@
       </c>
       <c r="BF13" s="14"/>
       <c r="BG13" s="14"/>
-      <c r="BH13" s="39">
+      <c r="BH13" s="38">
         <v>90</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2212,8 +2212,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,11 +2549,11 @@
   </sheetPr>
   <dimension ref="A1:BK19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH13" sqref="BH13"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,7 +3103,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -3338,7 +3338,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>parameter</t>
   </si>
@@ -126,9 +121,6 @@
   </si>
   <si>
     <t>comorb_perc_hiv</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age0to5</t>
   </si>
   <si>
     <t>transmission_modifier</t>
@@ -1155,7 +1147,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1169,9 +1161,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1959,7 +1948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1994,7 +1983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,19 +2197,19 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="24" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="21"/>
-    <col min="6" max="6" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2231,289 +2220,289 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>40</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>0.35</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19">
         <v>0.4</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>44000000</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="21">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>15</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="25">
+        <v>26.22</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="26">
-        <v>26.22</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B11" s="25">
+        <v>265450</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="30">
+        <v>16</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="29">
         <v>0</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="26">
-        <v>265450</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="26">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="31">
+        <v>11575186.195826644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="33">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="33">
+        <v>140500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="31">
-        <v>16</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="B24" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="32">
-        <v>11575186.195826644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="30">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="34">
-        <v>30.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="34">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="34">
-        <v>140500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="34">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="40">
+        <v>3837.6979926791319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="39">
+        <v>1144060.9951845906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="34">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="35">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="41">
-        <v>3837.6979926791319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1144060.9951845906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>0.90010000000000001</v>
       </c>
     </row>
@@ -2543,13 +2532,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH13" sqref="BH13"/>
+      <selection pane="bottomRight" activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,10 +2753,10 @@
         <v>18</v>
       </c>
       <c r="BJ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2784,16 +2773,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="25">
+      <c r="BC2" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -2801,97 +2790,59 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="BD3" s="25">
-        <v>90</v>
-      </c>
-      <c r="BE3" s="13"/>
+      <c r="AM3" s="7">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>10</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>15</v>
-      </c>
-      <c r="AW4" s="7">
-        <v>30</v>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8">
+        <v>93</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2902,93 +2853,75 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="8"/>
+      <c r="AH5" s="9"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
+      <c r="AM5" s="9"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
+      <c r="AR5" s="9"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
+      <c r="AW5" s="9"/>
       <c r="AX5" s="8"/>
-      <c r="AY5" s="8">
-        <v>93</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+    </row>
+    <row r="6" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-    </row>
-    <row r="7" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="AW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="BE6" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="BA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="AW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="BE7" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2996,15 +2929,23 @@
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
       <c r="BA8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
+      <c r="BF8" s="36">
+        <v>80</v>
+      </c>
+      <c r="BG8" s="13"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>54</v>
+      <c r="A9" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -3024,17 +2965,17 @@
       <c r="BA9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="37">
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="36">
         <v>80</v>
       </c>
-      <c r="BG9" s="14"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>66</v>
+      <c r="A10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3042,23 +2983,15 @@
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
       <c r="BA10" s="7">
         <v>0</v>
       </c>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="37">
-        <v>80</v>
-      </c>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -3072,12 +3005,12 @@
       <c r="BA11" s="7">
         <v>0</v>
       </c>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -3091,15 +3024,18 @@
       <c r="BA12" s="7">
         <v>0</v>
       </c>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="38">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3107,21 +3043,163 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA13" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="39">
-        <v>90</v>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M13" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N13" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O13" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P13" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R13" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S13" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T13" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U13" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V13" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W13" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X13" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO13" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS13" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT13" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV13" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX13" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY13" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ13" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA13" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB13" s="14">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3129,163 +3207,31 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J14" s="15">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K14" s="15">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N14" s="15">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O14" s="15">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P14" s="15">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R14" s="15">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S14" s="15">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T14" s="15">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U14" s="15">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V14" s="15">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W14" s="15">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X14" s="15">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC14" s="15">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD14" s="15">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE14" s="15">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF14" s="15">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG14" s="15">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH14" s="15">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI14" s="15">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ14" s="15">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK14" s="15">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL14" s="15">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM14" s="15">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN14" s="15">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO14" s="15">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP14" s="15">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ14" s="15">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR14" s="15">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS14" s="15">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT14" s="15">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU14" s="15">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV14" s="15">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW14" s="15">
-        <v>100</v>
-      </c>
-      <c r="AX14" s="15">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY14" s="15">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ14" s="15">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA14" s="15">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB14" s="15">
-        <v>117.42738589211601</v>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>5.9</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -3293,31 +3239,16 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ15" s="7">
-        <v>5.4</v>
-      </c>
       <c r="BB15" s="7">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3325,13 +3256,16 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW16" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB16" s="7">
-        <v>0.1</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3342,16 +3276,14 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW17" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB17" s="7">
-        <v>0.153</v>
+        <f xml:space="preserve"> 7/98*100</f>
+        <v>7.1428571428571423</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3362,45 +3294,27 @@
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB18" s="7">
-        <f xml:space="preserve"> 7/98*100</f>
-        <v>7.1428571428571423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="AH18" s="7">
         <v>1</v>
       </c>
-      <c r="AH19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="7">
+      <c r="AM18" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR19" s="7">
+      <c r="AR18" s="7">
         <v>0.62</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:BA3 BE7 BC7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE6 BC6">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:BA6 F2:BA2 F7:BB7 BB2:BB6 BC3:BC6 BD2 BD4:BD6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:BB6 BD2 BC3:BD5">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3413,30 +3327,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2 D4:D1048576</xm:sqref>
+          <xm:sqref>D2 D3:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B4:B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>[1]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B2 B3:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -11,15 +11,12 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>parameter</t>
   </si>
@@ -75,9 +72,6 @@
     <t>scenario_6</t>
   </si>
   <si>
-    <t>scenario_7</t>
-  </si>
-  <si>
     <t>scipy</t>
   </si>
   <si>
@@ -145,12 +139,6 @@
   </si>
   <si>
     <t>program_perc_smearacf_indigenous</t>
-  </si>
-  <si>
-    <t>scenario_8</t>
-  </si>
-  <si>
-    <t>scenario_9</t>
   </si>
   <si>
     <t>econ_unitcost_ipt</t>
@@ -1888,23 +1876,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="constants"/>
-      <sheetName val="time_variants"/>
-      <sheetName val="dropdown_lists"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2195,7 +2166,7 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2242,7 +2213,7 @@
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2262,7 +2233,7 @@
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="21">
         <v>5</v>
@@ -2275,36 +2246,43 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="25">
+        <v>26.22</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="25">
-        <v>0</v>
+        <v>265450</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2312,32 +2290,32 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="25">
-        <v>265450</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="25">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="25">
-        <v>1.0009999999999999</v>
+      <c r="A13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="30">
+        <v>16</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2345,98 +2323,95 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="30">
-        <v>16</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="31">
+        <v>11575186.195826644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="31">
-        <v>11575186.195826644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="B17" s="29">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1.0009999999999999</v>
+      <c r="B18" s="33">
+        <v>30.42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="33">
-        <v>30.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="33">
-        <v>0</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="33">
-        <v>140500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="33">
-        <v>0.9</v>
+      <c r="B23" s="34">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="34">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="34">
         <v>0</v>
@@ -2444,65 +2419,57 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="34">
-        <v>0.9</v>
+      <c r="B28" s="40">
+        <v>3837.6979926791319</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="40">
-        <v>3837.6979926791319</v>
+        <v>64</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="37">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="39">
+        <v>1144060.9951845906</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="39">
-        <v>1144060.9951845906</v>
+        <v>66</v>
+      </c>
+      <c r="B31" s="37">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="37">
         <v>0.90010000000000001</v>
       </c>
     </row>
@@ -2532,13 +2499,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL7" sqref="AL7"/>
+      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,12 +2530,11 @@
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="55" width="14" style="7" customWidth="1"/>
-    <col min="56" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.28515625" style="7" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="7"/>
+    <col min="56" max="60" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2749,19 +2715,10 @@
       <c r="BH1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -2777,9 +2734,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2803,9 +2760,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2840,9 +2797,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2873,9 +2830,9 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
     </row>
-    <row r="6" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>3</v>
@@ -2897,9 +2854,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -2916,9 +2873,9 @@
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2943,9 +2900,9 @@
       </c>
       <c r="BG8" s="13"/>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2970,9 +2927,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2989,9 +2946,9 @@
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -3008,9 +2965,9 @@
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -3030,9 +2987,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -3194,9 +3151,9 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -3226,9 +3183,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3243,9 +3200,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3265,7 +3222,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3277,13 +3234,12 @@
         <v>3</v>
       </c>
       <c r="BB17" s="7">
-        <f xml:space="preserve"> 7/98*100</f>
-        <v>7.1428571428571423</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3367,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3389,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -1919,7 +1924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,7 +1959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2169,7 +2174,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,7 +2320,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="30">
-        <v>16</v>
+        <v>30.26</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2342,7 +2347,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2363,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="33">
-        <v>30.42</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2379,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="33">
-        <v>140500</v>
+        <v>142024</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2403,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="34">
-        <v>20</v>
+        <v>30.26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2419,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="34">
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,10 +2507,10 @@
   <dimension ref="A1:BH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomRight" activeCell="BB17" sqref="BB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,7 +2975,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3156,7 +3161,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3205,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3225,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3234,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="BB17" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>parameter</t>
   </si>
@@ -125,9 +120,6 @@
     <t>transmission_modifier</t>
   </si>
   <si>
-    <t>age_breakpoints</t>
-  </si>
-  <si>
     <t>program_prop_child_reporting</t>
   </si>
   <si>
@@ -210,21 +202,6 @@
   </si>
   <si>
     <t>program_perc_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_unitcost_shortcourse_mdr</t>
-  </si>
-  <si>
-    <t>econ_inflectioncost_shortcourse_mdr</t>
-  </si>
-  <si>
-    <t>econ_startupcost_shortcourse_mdr</t>
-  </si>
-  <si>
-    <t>econ_startupduration_shortcourse_mdr</t>
-  </si>
-  <si>
-    <t>econ_saturation_shortcourse_mdr</t>
   </si>
 </sst>
 </file>
@@ -314,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1111,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1192,13 +1163,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
     </xf>
   </cellXfs>
   <cellStyles count="665">
@@ -1924,7 +1890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1959,7 +1925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2171,10 +2137,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,7 +2184,7 @@
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2236,39 +2202,37 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="21">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="23">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="25">
+        <v>26.22</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,7 +2240,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="25">
-        <v>0</v>
+        <v>265450</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2287,29 +2251,29 @@
         <v>43</v>
       </c>
       <c r="B10" s="25">
-        <v>265450</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="25">
-        <v>1.0009999999999999</v>
+      <c r="A12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="30">
+        <v>30.26</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2317,45 +2281,42 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="30">
-        <v>30.26</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="29">
-        <v>0</v>
+      <c r="B14" s="31">
+        <v>11575186.195826644</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="31">
-        <v>11575186.195826644</v>
+      <c r="B15" s="29">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="29">
-        <v>3</v>
+        <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="29">
-        <v>1.0009999999999999</v>
+      <c r="A17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="33">
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2324,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="33">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,7 +2332,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="33">
-        <v>0</v>
+        <v>142024</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,7 +2340,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="33">
-        <v>142024</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2387,15 +2348,15 @@
         <v>54</v>
       </c>
       <c r="B21" s="33">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="33">
-        <v>0.9</v>
+      <c r="A22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="34">
+        <v>30.26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2403,7 +2364,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="34">
-        <v>30.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,7 +2372,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="34">
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,7 +2380,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="34">
-        <v>662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2427,60 +2388,12 @@
         <v>60</v>
       </c>
       <c r="B26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="34">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="40">
-        <v>3837.6979926791319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="39">
-        <v>1144060.9951845906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="37">
-        <v>0.90010000000000001</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 F5:G6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
@@ -2506,11 +2419,11 @@
   </sheetPr>
   <dimension ref="A1:BH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB17" sqref="BB17"/>
+      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,7 +2785,7 @@
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA7" s="7">
+      <c r="BB7" s="7">
         <v>0</v>
       </c>
       <c r="BF7" s="13"/>
@@ -2880,7 +2793,7 @@
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2897,7 +2810,7 @@
       <c r="AE8" s="7">
         <v>0</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BB8" s="7">
         <v>0</v>
       </c>
       <c r="BF8" s="36">
@@ -2907,7 +2820,7 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2924,7 +2837,7 @@
       <c r="AE9" s="7">
         <v>0</v>
       </c>
-      <c r="BA9" s="7">
+      <c r="BB9" s="7">
         <v>0</v>
       </c>
       <c r="BF9" s="13"/>
@@ -2934,7 +2847,7 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2945,7 +2858,7 @@
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA10" s="7">
+      <c r="BB10" s="7">
         <v>0</v>
       </c>
       <c r="BF10" s="13"/>
@@ -2953,7 +2866,7 @@
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2964,7 +2877,7 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA11" s="7">
+      <c r="BB11" s="7">
         <v>0</v>
       </c>
       <c r="BF11" s="13"/>
@@ -2972,7 +2885,7 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -2983,12 +2896,12 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BA12" s="7">
+      <c r="BB12" s="7">
         <v>0</v>
       </c>
       <c r="BF12" s="13"/>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="38">
+      <c r="BH12" s="37">
         <v>90</v>
       </c>
     </row>
@@ -3207,7 +3120,7 @@
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -3227,7 +3140,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
@@ -3275,7 +3188,7 @@
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:BB6 BD2 BC3:BD5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 BC3:BD5 F2:BB6">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3293,13 +3206,13 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2 D3:D1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B3:B6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>parameter</t>
   </si>
@@ -96,9 +96,6 @@
     <t>program_perc_xpert</t>
   </si>
   <si>
-    <t>program_perc_smearacf</t>
-  </si>
-  <si>
     <t>program_perc_treatment_success</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>comorb_perc_prison</t>
   </si>
   <si>
-    <t>program_perc_smearacf_prison</t>
-  </si>
-  <si>
     <t>comorb_perc_indigenous</t>
   </si>
   <si>
-    <t>program_perc_smearacf_indigenous</t>
-  </si>
-  <si>
     <t>econ_unitcost_ipt</t>
   </si>
   <si>
@@ -165,43 +156,34 @@
     <t>econ_saturation_xpert</t>
   </si>
   <si>
-    <t>program_perc_xpertacf_community</t>
-  </si>
-  <si>
-    <t>econ_unitcost_xpertacf_community</t>
-  </si>
-  <si>
-    <t>econ_inflectioncost_xpertacf_community</t>
-  </si>
-  <si>
-    <t>econ_startupcost_xpertacf_community</t>
-  </si>
-  <si>
-    <t>econ_startupduration_xpertacf_community</t>
-  </si>
-  <si>
-    <t>econ_saturation_xpertacf_community</t>
-  </si>
-  <si>
     <t>econ_unitcost_xpert</t>
   </si>
   <si>
-    <t>econ_unitcost_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_inflectioncost_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_startupcost_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_startupduration_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_saturation_xpertacf_prison</t>
-  </si>
-  <si>
     <t>program_perc_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf_indigenous</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf</t>
+  </si>
+  <si>
+    <t>econ_unitcost_xpertacf</t>
+  </si>
+  <si>
+    <t>econ_inflectioncost_xpertacf</t>
+  </si>
+  <si>
+    <t>econ_startupcost_xpertacf</t>
+  </si>
+  <si>
+    <t>econ_startupduration_xpertacf</t>
+  </si>
+  <si>
+    <t>econ_saturation_xpertacf</t>
+  </si>
+  <si>
+    <t>age_breakpoints</t>
   </si>
 </sst>
 </file>
@@ -291,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,48 +289,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1111,7 +1051,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1142,28 +1082,12 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2137,10 +2061,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2108,7 @@
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2193,207 +2117,195 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B6" s="21">
         <v>44000000</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="23">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+        <v>26.22</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="25">
-        <v>265450</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="25">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+        <v>265450</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="25">
+        <v>30.26</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="26">
+        <v>11575186.195826644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14">
         <v>1.0009999999999999</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="30">
-        <v>30.26</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="29">
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="25">
+        <v>473</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="31">
-        <v>11575186.195826644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="25">
+        <v>142024</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="29">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="33">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="33">
-        <v>142024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B22" s="25">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="34">
-        <v>30.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="34">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="34">
-        <v>0.9</v>
-      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 F5:G5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 F6:G6">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
@@ -2401,7 +2313,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 F3:G4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G5 B3:B4">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2417,13 +2329,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BH18"/>
+  <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
+      <selection pane="bottomRight" activeCell="BE7" sqref="BE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="24">
+      <c r="BC2" s="27">
         <v>100</v>
       </c>
     </row>
@@ -2680,7 +2592,7 @@
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2717,7 +2629,7 @@
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2768,16 +2680,17 @@
       <c r="AY6" s="9">
         <v>2.8</v>
       </c>
-      <c r="BE6" s="35">
+      <c r="BD6" s="9">
         <v>100</v>
       </c>
+      <c r="BE6" s="27"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2785,15 +2698,24 @@
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
       <c r="BB7" s="7">
         <v>0</v>
       </c>
+      <c r="BE7" s="7">
+        <v>80</v>
+      </c>
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>49</v>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2813,17 +2735,17 @@
       <c r="BB8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="36">
+      <c r="BF8" s="13">
         <v>80</v>
       </c>
       <c r="BG8" s="13"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>61</v>
+      <c r="A9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2831,26 +2753,20 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
       <c r="BB9" s="7">
         <v>0</v>
       </c>
       <c r="BF9" s="13"/>
-      <c r="BG9" s="36">
+      <c r="BG9" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2863,13 +2779,16 @@
       </c>
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
+      <c r="BH10" s="13">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2877,15 +2796,160 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="13"/>
-      <c r="BG11" s="13"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M11" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N11" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O11" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P11" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R11" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S11" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T11" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U11" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V11" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W11" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X11" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM11" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN11" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO11" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP11" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ11" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR11" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS11" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT11" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU11" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV11" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW11" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX11" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY11" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ11" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA11" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB11" s="14">
+        <v>117.42738589211601</v>
+      </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -2896,18 +2960,28 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="37">
-        <v>90</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -2918,160 +2992,13 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K13" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L13" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M13" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N13" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O13" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P13" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R13" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S13" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T13" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U13" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V13" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W13" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X13" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS13" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT13" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU13" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV13" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW13" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX13" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY13" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ13" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA13" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB13" s="14">
-        <v>117.42738589211601</v>
+      <c r="BB13" s="7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -3082,28 +3009,16 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ14" s="7">
-        <v>5.4</v>
+      <c r="AW14" s="7">
+        <v>0.112</v>
       </c>
       <c r="BB14" s="7">
-        <v>5.9</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3115,15 +3030,15 @@
         <v>3</v>
       </c>
       <c r="BB15" s="7">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3131,53 +3046,16 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW16" s="7">
-        <v>0.112</v>
-      </c>
-      <c r="BB16" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="AH16" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="7">
+      <c r="AM16" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR16" s="7">
         <v>0.62</v>
       </c>
     </row>
@@ -3202,17 +3080,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>parameter</t>
   </si>
@@ -184,6 +189,9 @@
   </si>
   <si>
     <t>age_breakpoints</t>
+  </si>
+  <si>
+    <t>program_number_tests_per_tb_presentation</t>
   </si>
 </sst>
 </file>
@@ -195,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +276,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1051,7 +1066,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1090,6 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1814,7 +1830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,7 +1865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,10 +2077,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,33 +2167,30 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+        <v>26.22</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="25">
-        <v>265450</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2185,32 +2198,32 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <v>265450</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B13" s="25">
         <v>1.0009999999999999</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="25">
-        <v>30.26</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2218,53 +2231,53 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B14" s="25">
+        <v>30.26</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B16" s="26">
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B18" s="14">
         <v>1.0009999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="25">
-        <v>473</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="25">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2272,10 +2285,10 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="25">
-        <v>142024</v>
+        <v>0</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2283,10 +2296,10 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="25">
-        <v>3</v>
+        <v>142024</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2294,14 +2307,25 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="25">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2332,10 +2356,10 @@
   <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE7" sqref="BE7"/>
+      <selection pane="bottomRight" activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>parameter</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>age_breakpoints</t>
+  </si>
+  <si>
+    <t>program_perc_engage_lowquality</t>
+  </si>
+  <si>
+    <t>scenario_7</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2069,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2329,13 +2335,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BH16"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE7" sqref="BE7"/>
+      <selection pane="bottomRight" activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,12 +2365,12 @@
     <col min="40" max="50" width="7" style="7" customWidth="1"/>
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
-    <col min="55" max="55" width="14" style="7" customWidth="1"/>
-    <col min="56" max="60" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="7"/>
+    <col min="55" max="56" width="14" style="7" customWidth="1"/>
+    <col min="57" max="61" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2545,8 +2551,11 @@
       <c r="BH1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2563,8 +2572,9 @@
       <c r="BC2" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BD2" s="27"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2590,46 +2600,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8">
-        <v>93</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2640,82 +2633,91 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="9"/>
+      <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="9"/>
+      <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
-      <c r="AR5" s="9"/>
+      <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
-      <c r="AW5" s="9"/>
+      <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-    </row>
-    <row r="6" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY5" s="8">
+        <v>93</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+    </row>
+    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="AW6" s="9">
+      <c r="E7" s="1"/>
+      <c r="AW7" s="9">
         <v>0</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD6" s="9">
+      <c r="BE7" s="9">
         <v>100</v>
       </c>
-      <c r="BE6" s="27"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="BF7" s="27"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="7">
-        <v>80</v>
-      </c>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2735,17 +2737,18 @@
       <c r="BB8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="13">
+      <c r="BF8" s="7">
         <v>80</v>
       </c>
       <c r="BG8" s="13"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH8" s="13"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2753,20 +2756,26 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
       <c r="BB9" s="7">
         <v>0</v>
       </c>
-      <c r="BF9" s="13"/>
       <c r="BG9" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH9" s="13"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2777,15 +2786,14 @@
       <c r="BB10" s="7">
         <v>0</v>
       </c>
-      <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
       <c r="BH10" s="13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
@@ -2796,160 +2804,18 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J11" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K11" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L11" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M11" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N11" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O11" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P11" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R11" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S11" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T11" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U11" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V11" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W11" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X11" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK11" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL11" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM11" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN11" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP11" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ11" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR11" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS11" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT11" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU11" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV11" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW11" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX11" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY11" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ11" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA11" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB11" s="14">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -2960,28 +2826,160 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP12" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU12" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ12" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB12" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J12" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M12" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N12" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O12" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P12" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R12" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S12" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T12" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U12" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V12" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W12" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X12" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO12" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP12" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ12" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS12" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT12" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU12" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV12" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX12" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY12" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ12" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA12" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB12" s="14">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -2992,13 +2990,28 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB13" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -3009,16 +3022,13 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW14" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB14" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3029,16 +3039,19 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW15" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB15" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3046,27 +3059,44 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="BB16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AH17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AR17" s="7">
         <v>0.62</v>
       </c>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE6 BC6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2 BC3:BD5 F2:BB6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2 BC3:BE6 F2:BB7">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3084,7 +3114,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
           <x14:formula1>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>parameter</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>scenario_7</t>
+  </si>
+  <si>
+    <t>scenario_8</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2073,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,13 +2338,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BI17"/>
+  <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT13" sqref="AT13"/>
+      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2373,7 @@
     <col min="62" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2554,8 +2557,11 @@
       <c r="BI1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BJ1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2573,8 +2579,11 @@
         <v>100</v>
       </c>
       <c r="BD2" s="27"/>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2628,11 @@
       <c r="BD4" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ4" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2690,7 +2702,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2714,8 +2726,11 @@
         <v>100</v>
       </c>
       <c r="BF7" s="27"/>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2742,8 +2757,11 @@
       </c>
       <c r="BG8" s="13"/>
       <c r="BH8" s="13"/>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2769,8 +2787,11 @@
         <v>80</v>
       </c>
       <c r="BH9" s="13"/>
-    </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ9" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2790,8 +2811,11 @@
       <c r="BH10" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ10" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -2812,8 +2836,11 @@
       <c r="BI11" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ11" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2977,7 +3004,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3036,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>parameter</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>scenario_8</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
+  </si>
+  <si>
+    <t>scenario_10</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf_urbanpoor</t>
+  </si>
+  <si>
+    <t>comorb_perc_urbanpoor</t>
+  </si>
+  <si>
+    <t>comorb_perc_ruralpoor</t>
+  </si>
+  <si>
+    <t>program_perc_xpertacf_ruralpoor</t>
   </si>
 </sst>
 </file>
@@ -2072,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,13 +2356,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ17"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,11 +2387,13 @@
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="61" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="7"/>
+    <col min="57" max="60" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="14.42578125" style="7" customWidth="1"/>
+    <col min="63" max="63" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2560,8 +2580,14 @@
       <c r="BJ1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2579,11 +2605,11 @@
         <v>100</v>
       </c>
       <c r="BD2" s="27"/>
-      <c r="BJ2" s="9">
+      <c r="BL2" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2628,11 +2654,11 @@
       <c r="BD4" s="7">
         <v>50</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BL4" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2669,7 +2695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2702,7 +2728,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2726,11 +2752,11 @@
         <v>100</v>
       </c>
       <c r="BF7" s="27"/>
-      <c r="BJ7" s="9">
+      <c r="BL7" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2757,11 +2783,13 @@
       </c>
       <c r="BG8" s="13"/>
       <c r="BH8" s="13"/>
-      <c r="BJ8" s="7">
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BL8" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2787,11 +2815,13 @@
         <v>80</v>
       </c>
       <c r="BH9" s="13"/>
-      <c r="BJ9" s="7">
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BL9" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2811,16 +2841,18 @@
       <c r="BH10" s="13">
         <v>80</v>
       </c>
-      <c r="BJ10" s="7">
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BL10" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2834,18 +2866,16 @@
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
       <c r="BI11" s="13">
-        <v>90</v>
-      </c>
-      <c r="BJ11" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="BJ11" s="13"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2853,160 +2883,19 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J12" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K12" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L12" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M12" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N12" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O12" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P12" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R12" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S12" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T12" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U12" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V12" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W12" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X12" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD12" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK12" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL12" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM12" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN12" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP12" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ12" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR12" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS12" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT12" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU12" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV12" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW12" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX12" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY12" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ12" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA12" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB12" s="14">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -3017,28 +2906,23 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="BB13" s="7">
         <v>0</v>
       </c>
-      <c r="AK13" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU13" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ13" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB13" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13">
+        <v>90</v>
+      </c>
+      <c r="BL13" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -3049,13 +2933,160 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB14" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N14" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P14" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R14" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S14" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T14" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U14" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V14" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W14" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X14" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ14" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN14" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO14" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP14" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ14" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR14" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS14" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT14" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU14" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV14" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY14" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ14" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA14" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB14" s="14">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3066,16 +3097,28 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW15" s="7">
-        <v>0.112</v>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>5.4</v>
       </c>
       <c r="BB15" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -3087,12 +3130,12 @@
         <v>3</v>
       </c>
       <c r="BB16" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3103,16 +3146,87 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="AW17" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="BB17" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="7">
         <v>0.75</v>
       </c>
-      <c r="AR17" s="7">
+      <c r="AR21" s="7">
         <v>0.62</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2359,10 +2359,10 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="BB19" sqref="BB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3167,8 @@
         <v>3</v>
       </c>
       <c r="BB18" s="7">
-        <v>5</v>
+        <f>1/98</f>
+        <v>1.020408163265306E-2</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
@@ -3184,7 +3185,8 @@
         <v>3</v>
       </c>
       <c r="BB19" s="7">
-        <v>20</v>
+        <f>4/98</f>
+        <v>4.0816326530612242E-2</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -3201,7 +3203,8 @@
         <v>3</v>
       </c>
       <c r="BB20" s="7">
-        <v>20</v>
+        <f>10/98</f>
+        <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>parameter</t>
   </si>
@@ -211,6 +216,9 @@
   </si>
   <si>
     <t>program_perc_xpertacf_ruralpoor</t>
+  </si>
+  <si>
+    <t>program_number_tests_per_tb_presentation</t>
   </si>
 </sst>
 </file>
@@ -222,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +303,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1078,7 +1093,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1117,6 +1132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -1841,7 +1858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1876,7 +1893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2088,10 +2105,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,33 +2195,30 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+        <v>26.22</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="25">
-        <v>265450</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2212,32 +2226,32 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="25">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <v>265450</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B13" s="25">
         <v>1.0009999999999999</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="25">
-        <v>30.26</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -2245,53 +2259,53 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B14" s="25">
+        <v>30.26</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B16" s="26">
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B18" s="14">
         <v>1.0009999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="25">
-        <v>473</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="25">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2299,10 +2313,10 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="25">
-        <v>142024</v>
+        <v>0</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2310,10 +2324,10 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="25">
-        <v>3</v>
+        <v>142024</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2321,17 +2335,28 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="25">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 F6:G6">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
@@ -2358,11 +2383,11 @@
   </sheetPr>
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB19" sqref="BB19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2107,8 +2107,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,10 +2384,10 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="BD10" sqref="BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1858,7 +1853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1893,7 +1888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2107,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,11 +2378,11 @@
   </sheetPr>
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD10" sqref="BD10"/>
+      <selection pane="bottomRight" activeCell="BB19" sqref="BB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,8 +3187,8 @@
         <v>3</v>
       </c>
       <c r="BB18" s="7">
-        <f>1/98</f>
-        <v>1.020408163265306E-2</v>
+        <f>1/98 * 100</f>
+        <v>1.0204081632653061</v>
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
@@ -3210,8 +3205,8 @@
         <v>3</v>
       </c>
       <c r="BB19" s="7">
-        <f>4/98</f>
-        <v>4.0816326530612242E-2</v>
+        <f>4/98 * 100</f>
+        <v>4.0816326530612246</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -3228,8 +3223,8 @@
         <v>3</v>
       </c>
       <c r="BB20" s="7">
-        <f>10/98</f>
-        <v>0.10204081632653061</v>
+        <f>10/98 * 100</f>
+        <v>10.204081632653061</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2102,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="19">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -2378,7 +2378,7 @@
   </sheetPr>
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2103,7 +2103,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>parameter</t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>scenario_8</t>
-  </si>
-  <si>
-    <t>scenario_9</t>
-  </si>
-  <si>
-    <t>scenario_10</t>
   </si>
   <si>
     <t>program_perc_xpertacf_urbanpoor</t>
@@ -2102,7 +2096,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="29">
         <v>2.5</v>
@@ -2376,13 +2370,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB19" sqref="BB19"/>
+      <selection pane="bottomRight" activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,13 +2401,13 @@
     <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="60" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="14.42578125" style="7" customWidth="1"/>
-    <col min="63" max="63" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="7"/>
+    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.42578125" style="7" customWidth="1"/>
+    <col min="61" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2600,14 +2594,8 @@
       <c r="BJ1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2625,11 +2613,11 @@
         <v>100</v>
       </c>
       <c r="BD2" s="27"/>
-      <c r="BL2" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2655,7 +2643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2674,11 +2662,11 @@
       <c r="BD4" s="7">
         <v>50</v>
       </c>
-      <c r="BL4" s="7">
+      <c r="BJ4" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2736,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2772,11 +2760,11 @@
         <v>100</v>
       </c>
       <c r="BF7" s="27"/>
-      <c r="BL7" s="9">
+      <c r="BJ7" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2803,13 +2791,11 @@
       </c>
       <c r="BG8" s="13"/>
       <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BL8" s="7">
+      <c r="BJ8" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2835,13 +2821,8 @@
         <v>80</v>
       </c>
       <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BL9" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2858,18 +2839,11 @@
         <v>0</v>
       </c>
       <c r="BG10" s="13"/>
-      <c r="BH10" s="13">
-        <v>80</v>
-      </c>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BL10" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BH10" s="13"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2885,14 +2859,10 @@
       </c>
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
-      <c r="BI11" s="13">
-        <v>80</v>
-      </c>
-      <c r="BJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2907,13 +2877,11 @@
         <v>0</v>
       </c>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13">
+      <c r="BH12" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2931,16 +2899,14 @@
       </c>
       <c r="BG13" s="13"/>
       <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13">
+      <c r="BI13" s="13">
         <v>90</v>
       </c>
-      <c r="BL13" s="7">
+      <c r="BJ13" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3104,7 +3070,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3136,7 +3102,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -3193,7 +3159,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -3211,7 +3177,7 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rragonnet\Google Drive\GitHub\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="20370" windowHeight="6600" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="552" windowWidth="16272" windowHeight="6360" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1847,7 +1852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1882,7 +1887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2096,22 +2101,22 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="51.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2134,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2139,7 +2144,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2149,7 +2154,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
@@ -2162,7 +2167,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
@@ -2172,7 +2177,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>63</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>38</v>
       </c>
@@ -2213,7 +2218,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>39</v>
       </c>
@@ -2224,7 +2229,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>40</v>
       </c>
@@ -2235,18 +2240,18 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="25">
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2262,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
@@ -2281,15 +2286,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="14">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
@@ -2300,7 +2305,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>51</v>
       </c>
@@ -2311,7 +2316,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>52</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2338,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>54</v>
       </c>
@@ -2372,42 +2377,42 @@
   </sheetPr>
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ9" sqref="BJ9"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
-    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
-    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.44140625" style="7" customWidth="1"/>
+    <col min="19" max="24" width="7.33203125" style="7" customWidth="1"/>
+    <col min="25" max="26" width="7.44140625" style="7" customWidth="1"/>
+    <col min="27" max="28" width="7.109375" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.44140625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.44140625" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" style="7" customWidth="1"/>
     <col min="40" max="50" width="7" style="7" customWidth="1"/>
-    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
+    <col min="51" max="52" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.88671875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.42578125" style="7" customWidth="1"/>
-    <col min="61" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.140625" style="7"/>
+    <col min="57" max="59" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.44140625" style="7" customWidth="1"/>
+    <col min="61" max="62" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2736,7 +2741,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2795,7 +2800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2822,7 +2827,7 @@
       </c>
       <c r="BH9" s="13"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2841,7 +2846,7 @@
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -2860,7 +2865,7 @@
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3180,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>10.204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -3269,9 +3274,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3285,7 +3290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rragonnet\Google Drive\GitHub\AuTuMN\autumn\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="552" windowWidth="16272" windowHeight="6360" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +297,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1087,7 +1080,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,8 +1119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2101,22 +2092,22 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="20"/>
-    <col min="6" max="6" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2125,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2135,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
@@ -2154,7 +2145,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
@@ -2167,7 +2158,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2168,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -2188,15 +2179,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="29">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>37</v>
       </c>
@@ -2207,7 +2198,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>38</v>
       </c>
@@ -2218,7 +2209,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2220,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>40</v>
       </c>
@@ -2240,7 +2231,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2242,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2253,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2270,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
@@ -2286,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -2294,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2296,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>51</v>
       </c>
@@ -2316,7 +2307,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>52</v>
       </c>
@@ -2327,7 +2318,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
@@ -2338,7 +2329,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>54</v>
       </c>
@@ -2377,42 +2368,42 @@
   </sheetPr>
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="BF17" sqref="BF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.44140625" style="7" customWidth="1"/>
-    <col min="19" max="24" width="7.33203125" style="7" customWidth="1"/>
-    <col min="25" max="26" width="7.44140625" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.109375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.44140625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.44140625" style="7" customWidth="1"/>
-    <col min="39" max="39" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
+    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
+    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
     <col min="40" max="50" width="7" style="7" customWidth="1"/>
-    <col min="51" max="52" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.88671875" style="7" customWidth="1"/>
+    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="59" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.44140625" style="7" customWidth="1"/>
-    <col min="61" max="62" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.109375" style="7"/>
+    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.42578125" style="7" customWidth="1"/>
+    <col min="61" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2600,7 +2591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2615,14 +2606,14 @@
       </c>
       <c r="E2" s="1"/>
       <c r="BC2" s="27">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BD2" s="27"/>
       <c r="BJ2" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2648,12 +2639,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -2671,7 +2662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2708,7 +2699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2732,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2762,14 +2753,14 @@
         <v>2.8</v>
       </c>
       <c r="BE7" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BF7" s="27"/>
       <c r="BJ7" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2827,7 +2818,7 @@
       </c>
       <c r="BH9" s="13"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2846,7 +2837,7 @@
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -2865,12 +2856,12 @@
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2886,7 +2877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2911,7 +2902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3075,7 +3066,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3107,7 +3098,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -3124,7 +3115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3144,7 +3135,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -3180,7 +3171,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -3198,7 +3189,7 @@
         <v>10.204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -3274,9 +3265,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3290,7 +3281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3301,7 +3292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2092,8 +2092,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2184,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="19">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
   </sheetPr>
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -107,18 +102,12 @@
     <t>program_perc_treatment_death</t>
   </si>
   <si>
-    <t>comorb_perc_diabetes</t>
-  </si>
-  <si>
     <t>demo_household_size</t>
   </si>
   <si>
     <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
   </si>
   <si>
-    <t>comorb_perc_hiv</t>
-  </si>
-  <si>
     <t>transmission_modifier</t>
   </si>
   <si>
@@ -128,12 +117,6 @@
     <t>program_perc_shortcourse_mdr</t>
   </si>
   <si>
-    <t>comorb_perc_prison</t>
-  </si>
-  <si>
-    <t>comorb_perc_indigenous</t>
-  </si>
-  <si>
     <t>econ_unitcost_ipt</t>
   </si>
   <si>
@@ -203,16 +186,28 @@
     <t>program_perc_xpertacf_urbanpoor</t>
   </si>
   <si>
-    <t>comorb_perc_urbanpoor</t>
-  </si>
-  <si>
-    <t>comorb_perc_ruralpoor</t>
-  </si>
-  <si>
     <t>program_perc_xpertacf_ruralpoor</t>
   </si>
   <si>
     <t>program_number_tests_per_tb_presentation</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_diabetes</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_hiv</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_prison</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_indigenous</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_urbanpoor</t>
+  </si>
+  <si>
+    <t>riskgroup_perc_ruralpoor</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1878,7 +1873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2092,7 +2087,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2137,7 +2132,7 @@
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2147,7 +2142,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2170,18 +2165,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="19">
         <v>2.5</v>
@@ -2189,7 +2184,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="25">
         <v>26.22</v>
@@ -2200,7 +2195,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -2211,7 +2206,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="25">
         <v>265450</v>
@@ -2222,7 +2217,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="25">
         <v>3</v>
@@ -2233,7 +2228,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="25">
         <v>1</v>
@@ -2244,7 +2239,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="25">
         <v>30.26</v>
@@ -2255,7 +2250,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -2263,7 +2258,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="26">
         <v>11575186.195826644</v>
@@ -2271,7 +2266,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="14">
         <v>3</v>
@@ -2279,7 +2274,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
@@ -2287,7 +2282,7 @@
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="25">
         <v>473</v>
@@ -2298,7 +2293,7 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="25">
         <v>0</v>
@@ -2309,7 +2304,7 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="25">
         <v>142024</v>
@@ -2320,7 +2315,7 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="25">
         <v>3</v>
@@ -2331,7 +2326,7 @@
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B23" s="25">
         <v>0.9</v>
@@ -2368,11 +2363,11 @@
   </sheetPr>
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF17" sqref="BF17"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,10 +2580,10 @@
         <v>17</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2641,7 +2636,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2762,7 +2757,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2793,7 +2788,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2820,7 +2815,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2839,7 +2834,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2858,7 +2853,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -2879,7 +2874,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -3068,7 +3063,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3100,7 +3095,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -3117,7 +3112,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3137,7 +3132,7 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3155,7 +3150,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -3173,7 +3168,7 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3191,7 +3186,7 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,6 +2116,12 @@
       </c>
       <c r="B2" s="16">
         <v>42</v>
+      </c>
+      <c r="C2" s="17">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17">
+        <v>80</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2363,7 +2369,7 @@
   </sheetPr>
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1838,7 +1843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1873,7 +1878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2088,7 +2093,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="26">
-        <v>11575186.195826644</v>
+        <v>11575226.195826599</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>parameter</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Philippines average houshold size in 2010 https://psa.gov.ph/content/household-population-philippines-reaches-921-million</t>
   </si>
   <si>
-    <t>transmission_modifier</t>
-  </si>
-  <si>
     <t>program_prop_child_reporting</t>
   </si>
   <si>
@@ -208,6 +205,15 @@
   </si>
   <si>
     <t>riskgroup_perc_ruralpoor</t>
+  </si>
+  <si>
+    <t>epi_prop_smearneg</t>
+  </si>
+  <si>
+    <t>epi_prop_smearpos</t>
+  </si>
+  <si>
+    <t>program_perc_detect</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2094,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="17">
         <v>15</v>
@@ -2131,14 +2137,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="19">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2164,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="21">
-        <v>44000000</v>
+        <v>30000000</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2182,7 +2188,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="19">
         <v>2.5</v>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="25">
         <v>26.22</v>
@@ -2201,7 +2207,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="25">
         <v>265450</v>
@@ -2223,7 +2229,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="25">
         <v>3</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="25">
         <v>1</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="25">
         <v>30.26</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="26">
         <v>11575186.195826644</v>
@@ -2272,7 +2278,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="14">
         <v>3</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
@@ -2288,7 +2294,7 @@
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="25">
         <v>473</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="25">
         <v>0</v>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="25">
         <v>142024</v>
@@ -2321,7 +2327,7 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="25">
         <v>3</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="25">
         <v>0.9</v>
@@ -2367,13 +2373,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,10 +2592,10 @@
         <v>17</v>
       </c>
       <c r="BI1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2648,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2763,7 +2769,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -2794,7 +2800,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -2821,7 +2827,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2840,7 +2846,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -2880,7 +2886,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -3069,7 +3075,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3101,7 +3107,7 @@
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3156,7 +3162,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3192,7 +3198,7 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -3203,17 +3209,60 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="BB21" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="AH21" s="7">
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="AM21" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>0.62</v>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>25</v>
+      </c>
+      <c r="I23" s="7">
+        <v>45</v>
+      </c>
+      <c r="S23" s="7">
+        <v>45</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>45</v>
+      </c>
+      <c r="AR23" s="7">
+        <v>48</v>
+      </c>
+      <c r="AW23" s="7">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2094,7 +2094,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" s="17">
         <v>15</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>parameter</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>program_perc_detect</t>
+  </si>
+  <si>
+    <t>program_prop_acf_detections_per_round</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2094,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,33 +2198,30 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+        <v>26.22</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="25">
-        <v>265450</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2229,32 +2229,32 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="25">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>265450</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B14" s="25">
         <v>1</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="25">
-        <v>30.26</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2262,53 +2262,53 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B15" s="25">
+        <v>30.26</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B17" s="26">
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="25">
-        <v>473</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="25">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -2316,10 +2316,10 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="25">
-        <v>142024</v>
+        <v>0</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="25">
-        <v>3</v>
+        <v>142024</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -2338,14 +2338,25 @@
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="25">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="17">
         <v>15</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>parameter</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>program_prop_acf_detections_per_round</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2099,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2124,13 +2127,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="17">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2384,13 +2387,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW24" sqref="AW24"/>
+      <selection pane="bottomRight" activeCell="BB20" sqref="BB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,12 +2419,12 @@
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
     <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.42578125" style="7" customWidth="1"/>
-    <col min="61" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.140625" style="7"/>
+    <col min="60" max="61" width="14.42578125" style="7" customWidth="1"/>
+    <col min="62" max="63" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2608,8 +2611,11 @@
       <c r="BJ1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2627,11 +2633,11 @@
         <v>99</v>
       </c>
       <c r="BD2" s="27"/>
-      <c r="BJ2" s="9">
+      <c r="BK2" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2657,12 +2663,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -2676,11 +2682,11 @@
       <c r="BD4" s="7">
         <v>50</v>
       </c>
-      <c r="BJ4" s="7">
+      <c r="BK4" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2750,12 +2756,12 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -2774,16 +2780,16 @@
         <v>99</v>
       </c>
       <c r="BF7" s="27"/>
-      <c r="BJ7" s="9">
+      <c r="BK7" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2805,16 +2811,17 @@
       </c>
       <c r="BG8" s="13"/>
       <c r="BH8" s="13"/>
-      <c r="BJ8" s="7">
+      <c r="BI8" s="13"/>
+      <c r="BK8" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2835,8 +2842,9 @@
         <v>80</v>
       </c>
       <c r="BH9" s="13"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BI9" s="13"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2854,8 +2862,9 @@
       </c>
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BI10" s="13"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -2872,14 +2881,17 @@
         <v>0</v>
       </c>
       <c r="BG11" s="13"/>
-      <c r="BH11" s="13"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH11" s="13">
+        <v>80</v>
+      </c>
+      <c r="BI11" s="13"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2891,16 +2903,17 @@
         <v>0</v>
       </c>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="13">
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2913,19 +2926,20 @@
       </c>
       <c r="BG13" s="13"/>
       <c r="BH13" s="13"/>
-      <c r="BI13" s="13">
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13">
         <v>90</v>
       </c>
-      <c r="BJ13" s="7">
+      <c r="BK13" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3084,7 +3098,7 @@
         <v>117.42738589211601</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -3116,7 +3130,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
@@ -3185,8 +3199,8 @@
         <v>3</v>
       </c>
       <c r="BB19" s="7">
-        <f>4/98 * 100</f>
-        <v>4.0816326530612246</v>
+        <f>4.5/98 * 100</f>
+        <v>4.591836734693878</v>
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
@@ -3258,22 +3272,22 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S23" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM23" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR23" s="7">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AW23" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>parameter</t>
   </si>
@@ -150,9 +150,6 @@
     <t>program_perc_xpertacf_indigenous</t>
   </si>
   <si>
-    <t>program_perc_xpertacf</t>
-  </si>
-  <si>
     <t>econ_unitcost_xpertacf</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>program_prop_acf_detections_per_round</t>
-  </si>
-  <si>
-    <t>scenario_9</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2154,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2194,7 +2188,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="19">
         <v>2.5</v>
@@ -2202,7 +2196,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="19">
         <v>0.5</v>
@@ -2308,7 +2302,7 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="25">
         <v>473</v>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="25">
         <v>0</v>
@@ -2330,7 +2324,7 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25">
         <v>142024</v>
@@ -2341,7 +2335,7 @@
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="25">
         <v>3</v>
@@ -2352,7 +2346,7 @@
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="25">
         <v>0.9</v>
@@ -2387,13 +2381,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB20" sqref="BB20"/>
+      <selection pane="bottomRight" activeCell="BE19" sqref="BE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,11 +2414,11 @@
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
     <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="14.42578125" style="7" customWidth="1"/>
-    <col min="62" max="63" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="7"/>
+    <col min="62" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2606,16 +2600,13 @@
         <v>17</v>
       </c>
       <c r="BI1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2633,11 +2624,8 @@
         <v>99</v>
       </c>
       <c r="BD2" s="27"/>
-      <c r="BK2" s="9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2663,9 +2651,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2682,11 +2670,8 @@
       <c r="BD4" s="7">
         <v>50</v>
       </c>
-      <c r="BK4" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2723,7 +2708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2756,7 +2741,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2776,17 +2761,11 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BE7" s="9">
-        <v>99</v>
-      </c>
       <c r="BF7" s="27"/>
-      <c r="BK7" s="9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -2806,19 +2785,15 @@
       <c r="BB8" s="7">
         <v>0</v>
       </c>
-      <c r="BF8" s="7">
+      <c r="BE8" s="13">
         <v>80</v>
       </c>
+      <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BK8" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -2829,24 +2804,16 @@
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
       <c r="BB9" s="7">
         <v>0</v>
       </c>
-      <c r="BG9" s="13">
-        <v>80</v>
-      </c>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2860,11 +2827,13 @@
       <c r="BB10" s="7">
         <v>0</v>
       </c>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13">
+        <v>80</v>
+      </c>
       <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -2880,15 +2849,15 @@
       <c r="BB11" s="7">
         <v>0</v>
       </c>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="13">
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13">
         <v>80</v>
       </c>
-      <c r="BI11" s="13"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2902,15 +2871,16 @@
       <c r="BB12" s="7">
         <v>0</v>
       </c>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BH12" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2921,25 +2891,163 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13">
-        <v>90</v>
-      </c>
-      <c r="BK13" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M13" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N13" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O13" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P13" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R13" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S13" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T13" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U13" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V13" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W13" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X13" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO13" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS13" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT13" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV13" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX13" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY13" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ13" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA13" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB13" s="14">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2947,158 +3055,26 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K14" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L14" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M14" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N14" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O14" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P14" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R14" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S14" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T14" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U14" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V14" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W14" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X14" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM14" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN14" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO14" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP14" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR14" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS14" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT14" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU14" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV14" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW14" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX14" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY14" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ14" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA14" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB14" s="14">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -3111,31 +3087,16 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ15" s="7">
-        <v>5.4</v>
-      </c>
       <c r="BB15" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3143,11 +3104,14 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW16" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB16" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
@@ -3160,14 +3124,12 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW17" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB17" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+        <f>1/98 * 100</f>
+        <v>1.0204081632653061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -3181,11 +3143,15 @@
         <v>3</v>
       </c>
       <c r="BB18" s="7">
-        <f>1/98 * 100</f>
-        <v>1.0204081632653061</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+        <f>4.5/98 * 100</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="BI18" s="7">
+        <f>BB18/2</f>
+        <v>2.295918367346939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -3199,11 +3165,15 @@
         <v>3</v>
       </c>
       <c r="BB19" s="7">
-        <f>4.5/98 * 100</f>
-        <v>4.591836734693878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+        <f>10/98 * 100</f>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="BJ19" s="7">
+        <f>BB19/2</f>
+        <v>5.1020408163265305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
@@ -3217,11 +3187,10 @@
         <v>3</v>
       </c>
       <c r="BB20" s="7">
-        <f>10/98 * 100</f>
-        <v>10.204081632653061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -3238,7 +3207,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>64</v>
       </c>
@@ -3251,47 +3220,30 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB22" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G22" s="7">
         <v>30</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I22" s="7">
         <v>50</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S22" s="7">
         <v>50</v>
       </c>
-      <c r="AM23" s="7">
+      <c r="AM22" s="7">
         <v>50</v>
       </c>
-      <c r="AR23" s="7">
+      <c r="AR22" s="7">
         <v>53</v>
       </c>
-      <c r="AW23" s="7">
+      <c r="AW22" s="7">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="4">
+  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3310,7 +3262,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1844,7 +1849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1879,7 +1884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2093,8 +2098,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2196,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="19">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,7 +2388,7 @@
   </sheetPr>
   <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="555" windowWidth="16275" windowHeight="6360" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>parameter</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>program_prop_acf_detections_per_round</t>
+  </si>
+  <si>
+    <t>program_perc_awareness_raising</t>
+  </si>
+  <si>
+    <t>scenario_9</t>
+  </si>
+  <si>
+    <t>scenario_10</t>
   </si>
 </sst>
 </file>
@@ -2381,13 +2390,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE19" sqref="BE19"/>
+      <selection pane="bottomRight" activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,12 +2422,12 @@
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
     <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.42578125" style="7" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="9.140625" style="7"/>
+    <col min="60" max="63" width="14.42578125" style="7" customWidth="1"/>
+    <col min="64" max="64" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2605,8 +2614,14 @@
       <c r="BJ1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BK1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2625,7 +2640,7 @@
       </c>
       <c r="BD2" s="27"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2651,7 +2666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2708,7 +2723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2756,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2778,7 @@
       </c>
       <c r="BF7" s="27"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2791,7 +2806,7 @@
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2811,7 +2826,7 @@
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2833,7 +2848,7 @@
       </c>
       <c r="BG10" s="13"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -2855,7 +2870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -2877,10 +2892,12 @@
       <c r="BH12" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2891,163 +2908,26 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K13" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L13" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M13" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N13" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O13" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P13" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R13" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S13" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T13" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U13" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V13" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W13" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X13" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS13" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT13" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU13" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV13" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW13" s="14">
+      <c r="BB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13">
+        <v>50</v>
+      </c>
+      <c r="BJ13" s="13">
         <v>100</v>
       </c>
-      <c r="AX13" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY13" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ13" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA13" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB13" s="14">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3055,28 +2935,160 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ14" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB14" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N14" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P14" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R14" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S14" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T14" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U14" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V14" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W14" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X14" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ14" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN14" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO14" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP14" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ14" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR14" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS14" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT14" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU14" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV14" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY14" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ14" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA14" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB14" s="14">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3087,16 +3099,31 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB15" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3104,16 +3131,13 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW16" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB16" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3124,75 +3148,78 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW17" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB17" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB18" s="7">
+      <c r="BB19" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BI18" s="7">
-        <f>BB18/2</f>
+      <c r="BK19" s="7">
+        <f>BB19/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB19" s="7">
+      <c r="BB20" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BJ19" s="7">
-        <f>BB19/2</f>
+      <c r="BL20" s="7">
+        <f>BB20/2</f>
         <v>5.1020408163265305</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB20" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -3207,9 +3234,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -3220,30 +3247,47 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="BB22" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>30</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>50</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S23" s="7">
         <v>50</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AM23" s="7">
         <v>50</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AR23" s="7">
         <v>53</v>
       </c>
-      <c r="AW22" s="7">
+      <c r="AW23" s="7">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3262,7 +3306,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2102,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="21">
-        <v>30000000</v>
+        <v>25800000</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2392,11 +2392,11 @@
   </sheetPr>
   <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ14" sqref="BJ14"/>
+      <selection pane="bottomRight" activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1853,7 +1858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,7 +1893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2103,7 +2108,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="19">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1858,7 +1853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1893,7 +1888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2108,7 +2103,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2208,8 @@
         <v>65</v>
       </c>
       <c r="B9" s="19">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>parameter</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>program_perc_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>program_perc_xpertacf_indigenous</t>
   </si>
   <si>
     <t>econ_unitcost_xpertacf</t>
@@ -2102,8 +2099,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="19">
         <v>1.5</v>
@@ -2205,7 +2202,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19">
         <f>1/3</f>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="25">
         <v>473</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="25">
         <v>0</v>
@@ -2334,7 +2331,7 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="25">
         <v>142024</v>
@@ -2345,7 +2342,7 @@
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="25">
         <v>3</v>
@@ -2356,7 +2353,7 @@
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="25">
         <v>0.9</v>
@@ -2391,13 +2388,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:BL22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW11" sqref="AW11"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,16 +2607,16 @@
         <v>17</v>
       </c>
       <c r="BI1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="BK1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -2824,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
+      <c r="BF9" s="13">
+        <v>80</v>
+      </c>
       <c r="BG9" s="13"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
@@ -2844,14 +2843,14 @@
         <v>0</v>
       </c>
       <c r="BE10" s="13"/>
-      <c r="BF10" s="13">
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13">
         <v>80</v>
       </c>
-      <c r="BG10" s="13"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2867,13 +2866,16 @@
       </c>
       <c r="BE11" s="13"/>
       <c r="BF11" s="13"/>
-      <c r="BG11" s="13">
-        <v>80</v>
-      </c>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13">
+        <v>90</v>
+      </c>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2890,15 +2892,17 @@
       <c r="BE12" s="13"/>
       <c r="BF12" s="13"/>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="13">
-        <v>90</v>
-      </c>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13">
+        <v>50</v>
+      </c>
+      <c r="BJ12" s="13">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2909,26 +2913,163 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB13" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13">
-        <v>50</v>
-      </c>
-      <c r="BJ13" s="13">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M13" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N13" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O13" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P13" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R13" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S13" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T13" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U13" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V13" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W13" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X13" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO13" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS13" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT13" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV13" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW13" s="14">
         <v>100</v>
+      </c>
+      <c r="AX13" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY13" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ13" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA13" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB13" s="14">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2936,155 +3077,23 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K14" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L14" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M14" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N14" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O14" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P14" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R14" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S14" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T14" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U14" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V14" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W14" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X14" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM14" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN14" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO14" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP14" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR14" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS14" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT14" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU14" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV14" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW14" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX14" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY14" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ14" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA14" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB14" s="14">
-        <v>117.42738589211601</v>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>5.9</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -3100,23 +3109,8 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ15" s="7">
-        <v>5.4</v>
-      </c>
       <c r="BB15" s="7">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -3124,7 +3118,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3132,8 +3126,11 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW16" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB16" s="7">
-        <v>0.1</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
@@ -3149,11 +3146,9 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW17" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB17" s="7">
-        <v>0.153</v>
+        <f>1/98 * 100</f>
+        <v>1.0204081632653061</v>
       </c>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
@@ -3170,8 +3165,12 @@
         <v>3</v>
       </c>
       <c r="BB18" s="7">
-        <f>1/98 * 100</f>
-        <v>1.0204081632653061</v>
+        <f>4.5/98 * 100</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="BK18" s="7">
+        <f>BB18/2</f>
+        <v>2.295918367346939</v>
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
@@ -3188,12 +3187,12 @@
         <v>3</v>
       </c>
       <c r="BB19" s="7">
-        <f>4.5/98 * 100</f>
-        <v>4.591836734693878</v>
-      </c>
-      <c r="BK19" s="7">
+        <f>10/98 * 100</f>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="BL19" s="7">
         <f>BB19/2</f>
-        <v>2.295918367346939</v>
+        <v>5.1020408163265305</v>
       </c>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
@@ -3210,12 +3209,7 @@
         <v>3</v>
       </c>
       <c r="BB20" s="7">
-        <f>10/98 * 100</f>
-        <v>10.204081632653061</v>
-      </c>
-      <c r="BL20" s="7">
-        <f>BB20/2</f>
-        <v>5.1020408163265305</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
@@ -3248,42 +3242,25 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB22" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G22" s="7">
         <v>30</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I22" s="7">
         <v>50</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S22" s="7">
         <v>50</v>
       </c>
-      <c r="AM23" s="7">
+      <c r="AM22" s="7">
         <v>50</v>
       </c>
-      <c r="AR23" s="7">
+      <c r="AR22" s="7">
         <v>53</v>
       </c>
-      <c r="AW23" s="7">
+      <c r="AW22" s="7">
         <v>55</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>parameter</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>scenario_10</t>
+  </si>
+  <si>
+    <t>scenario_11</t>
+  </si>
+  <si>
+    <t>program_perc_cxrxpertacf_ruralpoor</t>
   </si>
 </sst>
 </file>
@@ -2388,13 +2394,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,12 +2426,12 @@
     <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
     <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="14.42578125" style="7" customWidth="1"/>
-    <col min="64" max="64" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="9.140625" style="7"/>
+    <col min="60" max="64" width="14.42578125" style="7" customWidth="1"/>
+    <col min="65" max="65" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2618,8 +2624,11 @@
       <c r="BL1" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BM1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2638,7 +2647,7 @@
       </c>
       <c r="BD2" s="27"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2754,7 +2763,7 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2776,7 +2785,7 @@
       </c>
       <c r="BF7" s="27"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2803,8 +2812,9 @@
       </c>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BH8" s="13"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2825,8 +2835,9 @@
         <v>80</v>
       </c>
       <c r="BG9" s="13"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BH9" s="13"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2847,10 +2858,11 @@
       <c r="BG10" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BH10" s="13"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2868,14 +2880,12 @@
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
       <c r="BH11" s="13">
-        <v>90</v>
-      </c>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2894,15 +2904,14 @@
       <c r="BG12" s="13"/>
       <c r="BH12" s="13"/>
       <c r="BI12" s="13">
-        <v>50</v>
-      </c>
-      <c r="BJ12" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2913,163 +2922,27 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K13" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L13" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M13" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N13" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O13" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P13" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R13" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S13" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T13" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U13" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V13" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W13" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X13" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS13" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT13" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU13" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV13" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW13" s="14">
+      <c r="BB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13">
+        <v>50</v>
+      </c>
+      <c r="BK13" s="13">
         <v>100</v>
       </c>
-      <c r="AX13" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY13" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ13" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA13" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB13" s="14">
-        <v>117.42738589211601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -3077,28 +2950,160 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ14" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB14" s="7">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M14" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N14" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O14" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P14" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R14" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S14" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T14" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U14" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V14" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W14" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X14" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ14" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN14" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO14" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP14" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ14" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR14" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS14" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT14" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU14" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV14" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY14" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ14" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA14" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB14" s="14">
+        <v>117.42738589211601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3109,16 +3114,31 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB15" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3126,16 +3146,13 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW16" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB16" s="7">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3146,75 +3163,78 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW17" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB17" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB18" s="7">
+      <c r="BB19" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BK18" s="7">
-        <f>BB18/2</f>
+      <c r="BL19" s="7">
+        <f>BB19/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB19" s="7">
+      <c r="BB20" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BL19" s="7">
-        <f>BB19/2</f>
+      <c r="BM20" s="7">
+        <f>BB20/2</f>
         <v>5.1020408163265305</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB20" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -3229,9 +3249,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -3242,25 +3262,42 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="BB22" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>30</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>50</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S23" s="7">
         <v>50</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AM23" s="7">
         <v>50</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AR23" s="7">
         <v>53</v>
       </c>
-      <c r="AW22" s="7">
+      <c r="AW23" s="7">
         <v>55</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>parameter</t>
   </si>
@@ -226,6 +231,12 @@
   </si>
   <si>
     <t>program_perc_cxrxpertacf_ruralpoor</t>
+  </si>
+  <si>
+    <t>program_perc_cxrxpertacf_prison</t>
+  </si>
+  <si>
+    <t>program_perc_cxrxpertacf_urbanpoor</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1891,7 +1902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2394,13 +2405,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
+      <selection pane="bottomRight" activeCell="BJ13" sqref="BH11:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2873,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2882,10 +2893,12 @@
       <c r="BH11" s="13">
         <v>80</v>
       </c>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2904,14 +2917,13 @@
       <c r="BG12" s="13"/>
       <c r="BH12" s="13"/>
       <c r="BI12" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2931,15 +2943,12 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
       <c r="BJ13" s="13">
-        <v>50</v>
-      </c>
-      <c r="BK13" s="13">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -2950,163 +2959,25 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K14" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L14" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M14" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N14" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O14" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P14" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R14" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S14" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T14" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U14" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V14" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W14" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X14" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM14" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN14" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO14" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP14" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR14" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS14" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT14" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU14" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV14" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW14" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX14" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY14" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ14" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA14" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB14" s="14">
-        <v>117.42738589211601</v>
-      </c>
+      <c r="BB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BK14" s="13">
+        <v>90</v>
+      </c>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -3114,31 +2985,27 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="BB15" s="7">
         <v>0</v>
       </c>
-      <c r="AK15" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ15" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB15" s="7">
-        <v>5.9</v>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13">
+        <v>50</v>
+      </c>
+      <c r="BM15" s="13">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -3146,16 +3013,163 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB16" s="7">
-        <v>0.1</v>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J16" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K16" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M16" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N16" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O16" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P16" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R16" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S16" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T16" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U16" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V16" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W16" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X16" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ16" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN16" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO16" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP16" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ16" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR16" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS16" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT16" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU16" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV16" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW16" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX16" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY16" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA16" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB16" s="14">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3163,19 +3177,31 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW17" s="7">
-        <v>0.112</v>
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>5.4</v>
       </c>
       <c r="BB17" s="7">
-        <v>0.153</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -3184,91 +3210,94 @@
         <v>3</v>
       </c>
       <c r="BB18" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB20" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB19" s="7">
+      <c r="BB21" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BL19" s="7">
-        <f>BB19/2</f>
+      <c r="BL21" s="7">
+        <f>BB21/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB20" s="7">
+      <c r="BB22" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BM20" s="7">
-        <f>BB20/2</f>
+      <c r="BM22" s="7">
+        <f>BB22/2</f>
         <v>5.1020408163265305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB21" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB22" s="7">
-        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -3279,30 +3308,64 @@
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="BB23" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G25" s="7">
         <v>30</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I25" s="7">
         <v>50</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S25" s="7">
         <v>50</v>
       </c>
-      <c r="AM23" s="7">
+      <c r="AM25" s="7">
         <v>50</v>
       </c>
-      <c r="AR23" s="7">
+      <c r="AR25" s="7">
         <v>53</v>
       </c>
-      <c r="AW23" s="7">
+      <c r="AW25" s="7">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="4">
+  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3321,7 +3384,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="19">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -2408,10 +2408,10 @@
   <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ13" sqref="BH11:BJ13"/>
+      <selection pane="bottomRight" activeCell="AW6" sqref="AW6:BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,13 +2766,33 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3363,9 +3383,15 @@
       <c r="AW25" s="7">
         <v>55</v>
       </c>
+      <c r="AZ25" s="7">
+        <v>60</v>
+      </c>
+      <c r="BB25" s="7">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3384,7 +3410,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>parameter</t>
   </si>
@@ -237,6 +232,9 @@
   </si>
   <si>
     <t>program_perc_cxrxpertacf_urbanpoor</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age0to5</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1902,7 +1900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2405,13 +2403,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW6" sqref="AW6:BB6"/>
+      <selection pane="bottomRight" activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,9 +2651,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="BC2" s="27">
-        <v>99</v>
-      </c>
+      <c r="BC2" s="27"/>
       <c r="BD2" s="27"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -2994,7 +2990,7 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -3005,24 +3001,26 @@
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW15" s="7">
+        <v>0</v>
+      </c>
       <c r="BB15" s="7">
         <v>0</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>80</v>
       </c>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
       <c r="BH15" s="13"/>
       <c r="BK15" s="13"/>
-      <c r="BL15" s="13">
-        <v>50</v>
-      </c>
-      <c r="BM15" s="13">
-        <v>100</v>
-      </c>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3033,163 +3031,27 @@
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J16" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K16" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L16" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M16" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N16" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O16" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P16" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R16" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S16" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T16" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U16" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V16" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W16" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X16" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC16" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE16" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG16" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH16" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI16" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ16" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK16" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL16" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM16" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN16" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO16" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP16" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ16" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR16" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS16" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT16" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU16" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV16" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW16" s="14">
+      <c r="BB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13">
+        <v>50</v>
+      </c>
+      <c r="BM16" s="13">
         <v>100</v>
-      </c>
-      <c r="AX16" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY16" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ16" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA16" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB16" s="14">
-        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3197,28 +3059,160 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU17" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ17" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB17" s="7">
-        <v>5.9</v>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J17" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K17" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L17" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N17" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O17" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P17" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R17" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S17" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T17" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U17" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V17" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W17" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X17" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ17" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO17" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP17" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ17" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS17" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT17" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU17" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV17" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW17" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX17" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY17" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ17" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA17" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB17" s="14">
+        <v>117.42738589211601</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
@@ -3229,16 +3223,31 @@
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB18" s="7">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3246,16 +3255,13 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW19" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB19" s="7">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3266,75 +3272,78 @@
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW20" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB20" s="7">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB21" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB21" s="7">
+      <c r="BB22" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BL21" s="7">
-        <f>BB21/2</f>
+      <c r="BL22" s="7">
+        <f>BB22/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB22" s="7">
+      <c r="BB23" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BM22" s="7">
-        <f>BB22/2</f>
+      <c r="BM23" s="7">
+        <f>BB23/2</f>
         <v>5.1020408163265305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB23" s="7">
-        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -3351,7 +3360,7 @@
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
@@ -3362,31 +3371,48 @@
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="7">
+      <c r="BB25" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>30</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>50</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S26" s="7">
         <v>50</v>
       </c>
-      <c r="AM25" s="7">
+      <c r="AM26" s="7">
         <v>50</v>
       </c>
-      <c r="AR25" s="7">
+      <c r="AR26" s="7">
         <v>53</v>
       </c>
-      <c r="AW25" s="7">
+      <c r="AW26" s="7">
         <v>55</v>
       </c>
-      <c r="AZ25" s="7">
+      <c r="AZ26" s="7">
         <v>60</v>
       </c>
-      <c r="BB25" s="7">
+      <c r="BB26" s="7">
         <v>62</v>
       </c>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1865,7 +1870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1900,7 +1905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2409,7 +2414,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX6" sqref="AX6"/>
+      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,33 +2767,15 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AV6" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="AW6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="9">
-        <v>1</v>
-      </c>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
     </row>
     <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>parameter</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>program_perc_ipt_age0to5</t>
+  </si>
+  <si>
+    <t>scenario_12</t>
+  </si>
+  <si>
+    <t>scenario_13</t>
+  </si>
+  <si>
+    <t>scenario_14</t>
+  </si>
+  <si>
+    <t>scenario_16</t>
+  </si>
+  <si>
+    <t>scenario_15</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2135,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="25">
-        <v>30.26</v>
+        <v>26.24</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2408,13 +2423,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BR26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="bottomRight" activeCell="BP3" sqref="BP3:BP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,10 +2457,13 @@
     <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="60" max="64" width="14.42578125" style="7" customWidth="1"/>
     <col min="65" max="65" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="7"/>
+    <col min="66" max="66" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2641,8 +2659,23 @@
       <c r="BM1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BN1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2658,8 +2691,11 @@
       <c r="E2" s="1"/>
       <c r="BC2" s="27"/>
       <c r="BD2" s="27"/>
-    </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN2" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2684,8 +2720,9 @@
       <c r="AW3" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP3" s="13"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2701,11 +2738,14 @@
       <c r="BB4" s="7">
         <v>0</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BC4" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP4" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2741,8 +2781,9 @@
       <c r="AZ5" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP5" s="13"/>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2776,8 +2817,9 @@
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9"/>
-    </row>
-    <row r="7" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP6" s="13"/>
+    </row>
+    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2797,9 +2839,15 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
+      <c r="BD7" s="27">
+        <v>99</v>
+      </c>
       <c r="BF7" s="27"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP7" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2821,14 +2869,15 @@
       <c r="BB8" s="7">
         <v>0</v>
       </c>
-      <c r="BE8" s="13">
-        <v>80</v>
-      </c>
+      <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BH8" s="13">
+        <v>80</v>
+      </c>
+      <c r="BP8" s="13"/>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2845,13 +2894,15 @@
         <v>0</v>
       </c>
       <c r="BE9" s="13"/>
-      <c r="BF9" s="13">
-        <v>80</v>
-      </c>
+      <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
       <c r="BH9" s="13"/>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BI9" s="7">
+        <v>80</v>
+      </c>
+      <c r="BP9" s="13"/>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2869,12 +2920,14 @@
       </c>
       <c r="BE10" s="13"/>
       <c r="BF10" s="13"/>
-      <c r="BG10" s="13">
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BJ10" s="7">
         <v>80</v>
       </c>
-      <c r="BH10" s="13"/>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP10" s="13"/>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2890,16 +2943,19 @@
       <c r="BB11" s="7">
         <v>0</v>
       </c>
-      <c r="BE11" s="13"/>
+      <c r="BE11" s="13">
+        <v>80</v>
+      </c>
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
-      <c r="BH11" s="13">
-        <v>80</v>
-      </c>
+      <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
       <c r="BJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP11" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -2916,15 +2972,18 @@
         <v>0</v>
       </c>
       <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
+      <c r="BF12" s="13">
+        <v>80</v>
+      </c>
       <c r="BG12" s="13"/>
       <c r="BH12" s="13"/>
-      <c r="BI12" s="13">
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BP12" s="13">
         <v>80</v>
       </c>
-      <c r="BJ12" s="13"/>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -2942,14 +3001,17 @@
       </c>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
+      <c r="BG13" s="13">
+        <v>80</v>
+      </c>
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
-      <c r="BJ13" s="13">
+      <c r="BJ13" s="13"/>
+      <c r="BP13" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2969,13 +3031,17 @@
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
       <c r="BH14" s="13"/>
-      <c r="BK14" s="13">
-        <v>90</v>
-      </c>
+      <c r="BK14" s="13"/>
       <c r="BL14" s="13"/>
       <c r="BM14" s="13"/>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO14" s="13">
+        <v>90</v>
+      </c>
+      <c r="BP14" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -2992,20 +3058,22 @@
         <v>0</v>
       </c>
       <c r="BB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
       <c r="BH15" s="13"/>
-      <c r="BK15" s="13"/>
+      <c r="BK15" s="13">
+        <v>90</v>
+      </c>
       <c r="BL15" s="13"/>
       <c r="BM15" s="13"/>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP15" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -3030,10 +3098,13 @@
         <v>50</v>
       </c>
       <c r="BM16" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="BP16" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3196,8 +3267,9 @@
       <c r="BB17" s="14">
         <v>117.42738589211601</v>
       </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP17" s="13"/>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -3228,8 +3300,9 @@
       <c r="BB18" s="7">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP18" s="13"/>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -3245,8 +3318,9 @@
       <c r="BB19" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP19" s="13"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -3265,8 +3339,9 @@
       <c r="BB20" s="7">
         <v>0.153</v>
       </c>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP20" s="13"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3283,8 +3358,9 @@
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP21" s="13"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -3301,12 +3377,13 @@
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BL22" s="7">
+      <c r="BP22" s="13"/>
+      <c r="BQ22" s="7">
         <f>BB22/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -3323,12 +3400,13 @@
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BM23" s="7">
+      <c r="BP23" s="13"/>
+      <c r="BR23" s="7">
         <f>BB23/2</f>
         <v>5.1020408163265305</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -3344,8 +3422,9 @@
       <c r="BB24" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP24" s="13"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -3361,8 +3440,9 @@
       <c r="BB25" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP25" s="13"/>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -3402,9 +3482,10 @@
       <c r="BB26" s="7">
         <v>62</v>
       </c>
+      <c r="BP26" s="13"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="4">
+  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3423,7 +3504,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>parameter</t>
   </si>
@@ -150,21 +150,6 @@
   </si>
   <si>
     <t>program_perc_xpertacf_prison</t>
-  </si>
-  <si>
-    <t>econ_unitcost_xpertacf</t>
-  </si>
-  <si>
-    <t>econ_inflectioncost_xpertacf</t>
-  </si>
-  <si>
-    <t>econ_startupcost_xpertacf</t>
-  </si>
-  <si>
-    <t>econ_startupduration_xpertacf</t>
-  </si>
-  <si>
-    <t>econ_saturation_xpertacf</t>
   </si>
   <si>
     <t>age_breakpoints</t>
@@ -2132,10 +2117,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2180,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2229,7 +2214,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="19">
         <v>1.5</v>
@@ -2237,7 +2222,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="19">
         <f>1/3</f>
@@ -2318,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2326,7 +2311,7 @@
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
@@ -2334,68 +2319,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="25">
-        <v>473</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="25">
-        <v>142024</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="25">
-        <v>3</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2425,11 +2355,11 @@
   </sheetPr>
   <dimension ref="A1:BR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP3" sqref="BP3:BP26"/>
+      <selection pane="bottomRight" activeCell="BO14" sqref="BO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,34 +2575,34 @@
         <v>17</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BM1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="BO1" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2724,7 +2654,7 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2879,7 +2809,7 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -2904,7 +2834,7 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2929,7 +2859,7 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2957,7 +2887,7 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2985,7 +2915,7 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -3043,7 +2973,7 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -3075,7 +3005,7 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3271,7 +3201,7 @@
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
@@ -3304,7 +3234,7 @@
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -3322,7 +3252,7 @@
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3343,7 +3273,7 @@
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -3362,7 +3292,7 @@
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -3385,7 +3315,7 @@
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -3408,7 +3338,7 @@
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -3426,7 +3356,7 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
@@ -3444,7 +3374,7 @@
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>parameter</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>scenario_15</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age5to15</t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2122,8 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,13 +2356,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BR26"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO14" sqref="BO14"/>
+      <selection pane="bottomRight" activeCell="BN18" sqref="BN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,9 +2624,10 @@
       <c r="E2" s="1"/>
       <c r="BC2" s="27"/>
       <c r="BD2" s="27"/>
-      <c r="BN2" s="27">
+      <c r="BL2" s="27">
         <v>99</v>
       </c>
+      <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2671,7 +2675,7 @@
       <c r="BC4" s="13">
         <v>50</v>
       </c>
-      <c r="BP4" s="13">
+      <c r="BM4" s="13">
         <v>50</v>
       </c>
     </row>
@@ -2711,7 +2715,7 @@
       <c r="AZ5" s="8">
         <v>85</v>
       </c>
-      <c r="BP5" s="13"/>
+      <c r="BM5" s="13"/>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2747,7 +2751,7 @@
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9"/>
-      <c r="BP6" s="13"/>
+      <c r="BM6" s="13"/>
     </row>
     <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2773,7 +2777,7 @@
         <v>99</v>
       </c>
       <c r="BF7" s="27"/>
-      <c r="BP7" s="27">
+      <c r="BM7" s="27">
         <v>99</v>
       </c>
     </row>
@@ -2802,10 +2806,8 @@
       <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
-      <c r="BH8" s="13">
-        <v>80</v>
-      </c>
-      <c r="BP8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BM8" s="13"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2827,10 +2829,7 @@
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
       <c r="BH9" s="13"/>
-      <c r="BI9" s="7">
-        <v>80</v>
-      </c>
-      <c r="BP9" s="13"/>
+      <c r="BM9" s="13"/>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2852,10 +2851,7 @@
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
-      <c r="BJ10" s="7">
-        <v>80</v>
-      </c>
-      <c r="BP10" s="13"/>
+      <c r="BM10" s="13"/>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2881,7 +2877,7 @@
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
       <c r="BJ11" s="13"/>
-      <c r="BP11" s="13">
+      <c r="BM11" s="13">
         <v>80</v>
       </c>
     </row>
@@ -2909,7 +2905,7 @@
       <c r="BH12" s="13"/>
       <c r="BI12" s="13"/>
       <c r="BJ12" s="13"/>
-      <c r="BP12" s="13">
+      <c r="BM12" s="13">
         <v>80</v>
       </c>
     </row>
@@ -2937,7 +2933,7 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
       <c r="BJ13" s="13"/>
-      <c r="BP13" s="13">
+      <c r="BM13" s="13">
         <v>80</v>
       </c>
     </row>
@@ -2961,15 +2957,14 @@
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
       <c r="BH14" s="13"/>
-      <c r="BK14" s="13"/>
+      <c r="BK14" s="13">
+        <v>90</v>
+      </c>
       <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BO14" s="13">
+      <c r="BM14" s="13">
         <v>90</v>
       </c>
-      <c r="BP14" s="13">
-        <v>90</v>
-      </c>
+      <c r="BO14" s="13"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2993,19 +2988,18 @@
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BK15" s="13">
+      <c r="BH15" s="13">
         <v>90</v>
       </c>
+      <c r="BK15" s="13"/>
       <c r="BL15" s="13"/>
-      <c r="BM15" s="13"/>
-      <c r="BP15" s="13">
+      <c r="BM15" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3023,20 +3017,18 @@
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
       <c r="BH16" s="13"/>
+      <c r="BI16" s="13">
+        <v>90</v>
+      </c>
       <c r="BK16" s="13"/>
-      <c r="BL16" s="13">
-        <v>50</v>
-      </c>
+      <c r="BL16" s="13"/>
       <c r="BM16" s="13">
-        <v>80</v>
-      </c>
-      <c r="BP16" s="13">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3047,164 +3039,28 @@
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J17" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K17" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L17" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M17" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N17" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O17" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P17" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R17" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S17" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T17" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U17" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V17" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W17" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X17" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB17" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC17" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD17" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE17" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF17" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG17" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH17" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI17" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ17" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK17" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL17" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM17" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN17" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO17" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP17" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ17" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR17" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS17" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT17" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU17" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV17" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW17" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX17" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY17" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ17" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA17" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB17" s="14">
-        <v>117.42738589211601</v>
-      </c>
-      <c r="BP17" s="13"/>
+      <c r="BB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BJ17" s="13">
+        <v>80</v>
+      </c>
+      <c r="BK17" s="13"/>
+      <c r="BM17" s="13">
+        <v>80</v>
+      </c>
+      <c r="BN17" s="13"/>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -3212,29 +3068,161 @@
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP18" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU18" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ18" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB18" s="7">
-        <v>5.9</v>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J18" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K18" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L18" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M18" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N18" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O18" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P18" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R18" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S18" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T18" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U18" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V18" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W18" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X18" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ18" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP18" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ18" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS18" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT18" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU18" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV18" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW18" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX18" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY18" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ18" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA18" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB18" s="14">
+        <v>117.42738589211601</v>
       </c>
       <c r="BP18" s="13"/>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -3245,17 +3233,32 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB19" s="7">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="BP19" s="13"/>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3263,17 +3266,14 @@
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW20" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB20" s="7">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
       <c r="BP20" s="13"/>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -3284,79 +3284,88 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW21" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB21" s="7">
+        <v>0.153</v>
+      </c>
+      <c r="BP21" s="13"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB22" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
-      <c r="BP21" s="13"/>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="BP22" s="13"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB22" s="7">
+      <c r="BB23" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BP22" s="13"/>
-      <c r="BQ22" s="7">
-        <f>BB22/2</f>
+      <c r="BN23" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BP23" s="13"/>
+      <c r="BQ23" s="7">
+        <f>BB23/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB23" s="7">
+      <c r="BB24" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BP23" s="13"/>
-      <c r="BR23" s="7">
-        <f>BB23/2</f>
+      <c r="BN24" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BP24" s="13"/>
+      <c r="BR24" s="7">
+        <f>BB24/2</f>
         <v>5.1020408163265305</v>
       </c>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB24" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="BP24" s="13"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
@@ -3374,7 +3383,7 @@
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -3385,37 +3394,55 @@
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="7">
+      <c r="BB26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BP26" s="13"/>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>30</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="7">
         <v>50</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S27" s="7">
         <v>50</v>
       </c>
-      <c r="AM26" s="7">
+      <c r="AM27" s="7">
         <v>50</v>
       </c>
-      <c r="AR26" s="7">
+      <c r="AR27" s="7">
         <v>53</v>
       </c>
-      <c r="AW26" s="7">
+      <c r="AW27" s="7">
         <v>55</v>
       </c>
-      <c r="AZ26" s="7">
+      <c r="AZ27" s="7">
         <v>60</v>
       </c>
-      <c r="BB26" s="7">
+      <c r="BB27" s="7">
         <v>62</v>
       </c>
-      <c r="BP26" s="13"/>
+      <c r="BP27" s="13"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" xWindow="382" yWindow="552" count="4">
+  <dataValidations xWindow="382" yWindow="552" count="4">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
       <formula1>0</formula1>
       <formula2>100000000000000000000</formula2>
@@ -3434,7 +3461,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rragonnet\Google Drive\GitHub\AuTuMN\autumn\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="612" windowWidth="16272" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>parameter</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>program_perc_ipt_age5to15</t>
+  </si>
+  <si>
+    <t>program_perc_ipt_age15up</t>
   </si>
 </sst>
 </file>
@@ -2126,18 +2129,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="51.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2164,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2174,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -2181,7 +2184,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2207,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>59</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>32</v>
       </c>
@@ -2243,7 +2246,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
@@ -2265,7 +2268,7 @@
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
@@ -2287,7 +2290,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,47 +2359,47 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BR27"/>
+  <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN18" sqref="BN18"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
-    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
-    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.44140625" style="7" customWidth="1"/>
+    <col min="19" max="24" width="7.33203125" style="7" customWidth="1"/>
+    <col min="25" max="26" width="7.44140625" style="7" customWidth="1"/>
+    <col min="27" max="28" width="7.109375" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.44140625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.44140625" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" style="7" customWidth="1"/>
     <col min="40" max="50" width="7" style="7" customWidth="1"/>
-    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
+    <col min="51" max="52" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.88671875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="64" width="14.42578125" style="7" customWidth="1"/>
-    <col min="65" max="65" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="64" width="14.44140625" style="7" customWidth="1"/>
+    <col min="65" max="65" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="7"/>
+    <col min="69" max="70" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2632,7 @@
       </c>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2656,7 +2659,7 @@
       </c>
       <c r="BP3" s="13"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2717,7 +2720,7 @@
       </c>
       <c r="BM5" s="13"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2753,7 +2756,7 @@
       <c r="BB6" s="9"/>
       <c r="BM6" s="13"/>
     </row>
-    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +2812,7 @@
       <c r="BH8" s="13"/>
       <c r="BM8" s="13"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2831,7 +2834,7 @@
       <c r="BH9" s="13"/>
       <c r="BM9" s="13"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2853,7 +2856,7 @@
       <c r="BH10" s="13"/>
       <c r="BM10" s="13"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2966,7 +2969,7 @@
       </c>
       <c r="BO14" s="13"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -2996,8 +2999,14 @@
       <c r="BM15" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BO15" s="7">
+        <v>90</v>
+      </c>
+      <c r="BP15" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -3025,10 +3034,16 @@
       <c r="BM16" s="13">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BO16" s="7">
+        <v>90</v>
+      </c>
+      <c r="BP16" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3042,22 +3057,13 @@
       <c r="BB17" s="7">
         <v>0</v>
       </c>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BJ17" s="13">
-        <v>80</v>
-      </c>
-      <c r="BK17" s="13"/>
-      <c r="BM17" s="13">
-        <v>80</v>
-      </c>
-      <c r="BN17" s="13"/>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BO17" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3068,164 +3074,28 @@
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J18" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K18" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L18" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M18" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N18" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O18" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P18" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R18" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S18" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T18" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U18" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V18" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W18" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X18" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB18" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC18" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG18" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH18" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI18" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ18" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK18" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL18" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM18" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN18" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO18" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP18" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ18" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR18" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS18" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT18" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU18" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV18" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW18" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX18" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY18" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ18" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA18" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB18" s="14">
-        <v>117.42738589211601</v>
-      </c>
-      <c r="BP18" s="13"/>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BJ18" s="13">
+        <v>80</v>
+      </c>
+      <c r="BK18" s="13"/>
+      <c r="BM18" s="13">
+        <v>80</v>
+      </c>
+      <c r="BN18" s="13"/>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3233,29 +3103,161 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU19" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ19" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB19" s="7">
-        <v>5.9</v>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L19" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M19" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N19" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O19" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P19" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R19" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S19" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T19" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U19" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V19" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W19" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X19" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN19" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO19" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ19" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU19" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV19" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW19" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY19" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA19" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB19" s="14">
+        <v>117.42738589211601</v>
       </c>
       <c r="BP19" s="13"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
@@ -3266,17 +3268,32 @@
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AB20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>5.4</v>
+      </c>
       <c r="BB20" s="7">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="BP20" s="13"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3284,17 +3301,14 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AW21" s="7">
-        <v>0.112</v>
-      </c>
       <c r="BB21" s="7">
-        <v>0.153</v>
+        <v>0.1</v>
       </c>
       <c r="BP21" s="13"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -3305,85 +3319,88 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW22" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB22" s="7">
+        <v>0.153</v>
+      </c>
+      <c r="BP22" s="13"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB23" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
-      <c r="BP22" s="13"/>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="BP23" s="13"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB23" s="7">
+      <c r="BB24" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BN23" s="13">
+      <c r="BN24" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="7">
-        <f>BB23/2</f>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="7">
+        <f>BB24/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB24" s="7">
+      <c r="BB25" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BN24" s="13">
+      <c r="BN25" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BP24" s="13"/>
-      <c r="BR24" s="7">
-        <f>BB24/2</f>
+      <c r="BP25" s="13"/>
+      <c r="BR25" s="7">
+        <f>BB25/2</f>
         <v>5.1020408163265305</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB25" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="BP25" s="13"/>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -3399,9 +3416,9 @@
       </c>
       <c r="BP26" s="13"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
@@ -3412,34 +3429,52 @@
       <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="BB27" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BP27" s="13"/>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>30</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I28" s="7">
         <v>50</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S28" s="7">
         <v>50</v>
       </c>
-      <c r="AM27" s="7">
+      <c r="AM28" s="7">
         <v>50</v>
       </c>
-      <c r="AR27" s="7">
+      <c r="AR28" s="7">
         <v>53</v>
       </c>
-      <c r="AW27" s="7">
+      <c r="AW28" s="7">
         <v>55</v>
       </c>
-      <c r="AZ27" s="7">
+      <c r="AZ28" s="7">
         <v>60</v>
       </c>
-      <c r="BB27" s="7">
+      <c r="BB28" s="7">
         <v>62</v>
       </c>
-      <c r="BP27" s="13"/>
+      <c r="BP28" s="13"/>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
@@ -3452,7 +3487,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C28 C30:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3472,7 +3507,7 @@
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D28 D30:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3491,9 +3526,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3507,7 +3542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3518,7 +3553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -257,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +334,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +358,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1113,7 +1132,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1152,6 +1171,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2123,10 +2151,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,13 +2181,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="16">
+        <v>18.5</v>
+      </c>
+      <c r="C2" s="17">
         <v>21</v>
-      </c>
-      <c r="C2" s="17">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17">
-        <v>50</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2309,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2317,7 +2342,7 @@
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
@@ -2325,13 +2350,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
       </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2359,19 +2391,19 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BR28"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="5" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
@@ -2676,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="BM4" s="13">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
@@ -3002,9 +3034,6 @@
       <c r="BO15" s="7">
         <v>90</v>
       </c>
-      <c r="BP15" s="7">
-        <v>90</v>
-      </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -3037,9 +3066,6 @@
       <c r="BO16" s="7">
         <v>90</v>
       </c>
-      <c r="BP16" s="7">
-        <v>90</v>
-      </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3269,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="7">
         <v>3.1</v>
@@ -3301,8 +3327,29 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AC21" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>1.24E-2</v>
+      </c>
+      <c r="AW21" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>6.6799999999999998E-2</v>
+      </c>
       <c r="BB21" s="7">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="BP21" s="13"/>
     </row>
@@ -3475,6 +3522,24 @@
         <v>62</v>
       </c>
       <c r="BP28" s="13"/>
+    </row>
+    <row r="29" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="BF29" s="32"/>
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="32"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="32"/>
+      <c r="BK29" s="32"/>
+      <c r="BL29" s="32"/>
+      <c r="BM29" s="32"/>
+      <c r="BN29" s="32"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="32"/>
     </row>
   </sheetData>
   <dataValidations xWindow="382" yWindow="552" count="4">
@@ -3487,7 +3552,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C28 C30:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3496,7 +3561,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
@@ -3508,6 +3573,12 @@
             <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D28 D30:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
+          <x14:formula1>
+            <xm:f>[1]dropdown_lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="612" windowWidth="16272" windowHeight="6300" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="612" windowWidth="16272" windowHeight="6300" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>parameter</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>program_perc_ipt_age15up</t>
+  </si>
+  <si>
+    <t>program_perc_intensive_screening</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2156,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,13 +2394,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BR29"/>
+  <dimension ref="A1:BR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BN8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="BP19" sqref="BP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3116,177 +3119,38 @@
       </c>
       <c r="BN18" s="13"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="I19" s="14">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="J19" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="K19" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="L19" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="M19" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="N19" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="O19" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="P19" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="R19" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="S19" s="14">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="T19" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="U19" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="V19" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="W19" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="X19" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="Y19" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Z19" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="AA19" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AB19" s="14">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AE19" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AF19" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AG19" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AH19" s="14">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="AI19" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AJ19" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AK19" s="14">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="AL19" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AM19" s="14">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="AN19" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AO19" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AP19" s="14">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="AQ19" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AR19" s="14">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="AS19" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AT19" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AU19" s="14">
-        <v>92.448132780083</v>
-      </c>
-      <c r="AV19" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AW19" s="14">
-        <v>100</v>
-      </c>
-      <c r="AX19" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AY19" s="14">
-        <v>107.966804979253</v>
-      </c>
-      <c r="AZ19" s="14">
-        <v>111.203319502075</v>
-      </c>
-      <c r="BA19" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB19" s="14">
-        <v>117.42738589211601</v>
-      </c>
-      <c r="BP19" s="13"/>
+      <c r="E19" s="1"/>
+      <c r="BB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BM19" s="27">
+        <v>90</v>
+      </c>
+      <c r="BP19" s="9">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3294,29 +3158,161 @@
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="AK20" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="AP20" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU20" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AZ20" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="BB20" s="7">
-        <v>5.9</v>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.42215881727406</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="J20" s="14">
+        <v>2.3081073919986701</v>
+      </c>
+      <c r="K20" s="14">
+        <v>2.4974653103104298</v>
+      </c>
+      <c r="L20" s="14">
+        <v>2.9115458645382701</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3.90623450399154</v>
+      </c>
+      <c r="N20" s="14">
+        <v>4.1703507493909102</v>
+      </c>
+      <c r="O20" s="14">
+        <v>4.55399078719985</v>
+      </c>
+      <c r="P20" s="14">
+        <v>5.0047790229916798</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>5.3718558386314896</v>
+      </c>
+      <c r="R20" s="14">
+        <v>6.3137212289735496</v>
+      </c>
+      <c r="S20" s="14">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="T20" s="14">
+        <v>8.4391855224587609</v>
+      </c>
+      <c r="U20" s="14">
+        <v>9.3018160392078606</v>
+      </c>
+      <c r="V20" s="14">
+        <v>10.2347283365258</v>
+      </c>
+      <c r="W20" s="14">
+        <v>15.386785740408699</v>
+      </c>
+      <c r="X20" s="14">
+        <v>18.9416113416321</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>19.1590871369295</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>19.938817427385899</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>22.702351313969601</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>34.090656984785603</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>37.0398409405256</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>39.527551867219898</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>43.633070539419101</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>50.0989972337483</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>52.899661134163203</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>61.2167842323652</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>67.053941908713696</v>
+      </c>
+      <c r="AO20" s="14">
+        <v>68.8796680497925</v>
+      </c>
+      <c r="AP20" s="14">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="AQ20" s="14">
+        <v>73.858921161825705</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="AS20" s="14">
+        <v>82.987551867219906</v>
+      </c>
+      <c r="AT20" s="14">
+        <v>85.394190871369304</v>
+      </c>
+      <c r="AU20" s="14">
+        <v>92.448132780083</v>
+      </c>
+      <c r="AV20" s="14">
+        <v>96.348547717842294</v>
+      </c>
+      <c r="AW20" s="14">
+        <v>100</v>
+      </c>
+      <c r="AX20" s="14">
+        <v>104.647302904564</v>
+      </c>
+      <c r="AY20" s="14">
+        <v>107.966804979253</v>
+      </c>
+      <c r="AZ20" s="14">
+        <v>111.203319502075</v>
+      </c>
+      <c r="BA20" s="14">
+        <v>115.767634854772</v>
+      </c>
+      <c r="BB20" s="14">
+        <v>117.42738589211601</v>
       </c>
       <c r="BP20" s="13"/>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
@@ -3327,38 +3323,32 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="7">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>2.3E-3</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>1.24E-2</v>
-      </c>
-      <c r="AW21" s="7">
-        <v>3.2000000000000001E-2</v>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>5.2</v>
       </c>
       <c r="AZ21" s="7">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="BA21" s="7">
-        <v>6.6799999999999998E-2</v>
+        <v>5.4</v>
       </c>
       <c r="BB21" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>5.9</v>
       </c>
       <c r="BP21" s="13"/>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -3366,17 +3356,35 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AC22" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>1.24E-2</v>
+      </c>
       <c r="AW22" s="7">
-        <v>0.112</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="BB22" s="7">
-        <v>0.153</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="BP22" s="13"/>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -3387,85 +3395,88 @@
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AW23" s="7">
+        <v>0.112</v>
+      </c>
       <c r="BB23" s="7">
+        <v>0.153</v>
+      </c>
+      <c r="BP23" s="13"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB24" s="7">
         <f>1/98 * 100</f>
         <v>1.0204081632653061</v>
       </c>
-      <c r="BP23" s="13"/>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="BP24" s="13"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB24" s="7">
+      <c r="BB25" s="7">
         <f>4.5/98 * 100</f>
         <v>4.591836734693878</v>
       </c>
-      <c r="BN24" s="13">
+      <c r="BN25" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="7">
-        <f>BB24/2</f>
+      <c r="BP25" s="13"/>
+      <c r="BQ25" s="7">
+        <f>BB25/2</f>
         <v>2.295918367346939</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BB25" s="7">
+      <c r="BB26" s="7">
         <f>10/98 * 100</f>
         <v>10.204081632653061</v>
       </c>
-      <c r="BN25" s="13">
+      <c r="BN26" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BP25" s="13"/>
-      <c r="BR25" s="7">
-        <f>BB25/2</f>
+      <c r="BP26" s="13"/>
+      <c r="BR26" s="7">
+        <f>BB26/2</f>
         <v>5.1020408163265305</v>
       </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB26" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="BP26" s="13"/>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
@@ -3483,7 +3494,7 @@
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -3494,95 +3505,74 @@
       <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="BB28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BP28" s="13"/>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>30</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>50</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S29" s="7">
         <v>50</v>
       </c>
-      <c r="AM28" s="7">
+      <c r="AM29" s="7">
         <v>50</v>
       </c>
-      <c r="AR28" s="7">
+      <c r="AR29" s="7">
         <v>53</v>
       </c>
-      <c r="AW28" s="7">
+      <c r="AW29" s="7">
         <v>55</v>
       </c>
-      <c r="AZ28" s="7">
+      <c r="AZ29" s="7">
         <v>60</v>
       </c>
-      <c r="BB28" s="7">
+      <c r="BB29" s="7">
         <v>62</v>
       </c>
-      <c r="BP28" s="13"/>
-    </row>
-    <row r="29" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="BF29" s="32"/>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
-      <c r="BI29" s="32"/>
-      <c r="BJ29" s="32"/>
-      <c r="BK29" s="32"/>
-      <c r="BL29" s="32"/>
-      <c r="BM29" s="32"/>
-      <c r="BN29" s="32"/>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
+      <c r="BP29" s="13"/>
+    </row>
+    <row r="30" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="BF30" s="32"/>
+      <c r="BG30" s="32"/>
+      <c r="BH30" s="32"/>
+      <c r="BI30" s="32"/>
+      <c r="BJ30" s="32"/>
+      <c r="BK30" s="32"/>
+      <c r="BL30" s="32"/>
+      <c r="BM30" s="32"/>
+      <c r="BN30" s="32"/>
+      <c r="BO30" s="32"/>
+      <c r="BP30" s="32"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="382" yWindow="552" count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7 BC7:BD7">
-      <formula1>0</formula1>
-      <formula2>100000000000000000000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D1"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2 BC3:BE6 F2:BB7">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Smoothness for fitting function" prompt="Must be positive." sqref="C2:C1048576">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="382" yWindow="552" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>dropdown_lists!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D28 D30:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time-variant?" prompt="If no, the most recent value will be selected.">
-          <x14:formula1>
-            <xm:f>[1]dropdown_lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D29</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rragonnet\Google Drive\GitHub\AuTuMN\autumn\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="612" windowWidth="16272" windowHeight="6300" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>parameter</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>program_perc_intensive_screening</t>
+  </si>
+  <si>
+    <t>riskgroup_multiplier_force_infection_prison</t>
+  </si>
+  <si>
+    <t>riskgroup_multiplier_force_infection_urbanpoor</t>
+  </si>
+  <si>
+    <t>riskgroup_multiplier_force_infection_ruralpoor</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +381,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1210,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1183,6 +1258,49 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="665">
     <cellStyle name="Comma" xfId="664" builtinId="3"/>
@@ -2154,24 +2272,24 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="23" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="20"/>
-    <col min="6" max="6" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2179,30 +2297,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16">
-        <v>18.5</v>
-      </c>
-      <c r="C2" s="17">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="19">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2327,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
@@ -2225,7 +2340,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2350,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
@@ -2246,7 +2361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2369,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>59</v>
       </c>
@@ -2263,110 +2378,140 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="34">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25">
-        <v>26.22</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="B13" s="25">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B14" s="25">
         <v>0</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="25">
-        <v>265450</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="25">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="25">
-        <v>1</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="25">
-        <v>26.24</v>
+        <v>265450</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="25">
+        <v>26.24</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B19" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B20" s="26">
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B21" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B22" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
+    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2396,45 +2541,45 @@
   </sheetPr>
   <dimension ref="A1:BR30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BN8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP19" sqref="BP19"/>
+      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="5" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.44140625" style="7" customWidth="1"/>
-    <col min="19" max="24" width="7.33203125" style="7" customWidth="1"/>
-    <col min="25" max="26" width="7.44140625" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.109375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.44140625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.44140625" style="7" customWidth="1"/>
-    <col min="39" max="39" width="7.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
+    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
+    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
     <col min="40" max="50" width="7" style="7" customWidth="1"/>
-    <col min="51" max="52" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.88671875" style="7" customWidth="1"/>
+    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
     <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="59" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="64" width="14.44140625" style="7" customWidth="1"/>
-    <col min="65" max="65" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="64" width="14.42578125" style="7" customWidth="1"/>
+    <col min="65" max="65" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.109375" style="7"/>
+    <col min="69" max="70" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2646,7 +2791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2662,12 +2807,11 @@
       <c r="E2" s="1"/>
       <c r="BC2" s="27"/>
       <c r="BD2" s="27"/>
-      <c r="BL2" s="27">
-        <v>99</v>
-      </c>
+      <c r="BL2" s="27"/>
       <c r="BN2" s="27"/>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP2" s="47"/>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2692,9 +2836,9 @@
       <c r="AW3" s="7">
         <v>30</v>
       </c>
-      <c r="BP3" s="13"/>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP3" s="48"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2710,14 +2854,15 @@
       <c r="BB4" s="7">
         <v>0</v>
       </c>
-      <c r="BC4" s="13">
+      <c r="BC4" s="35">
         <v>80</v>
       </c>
-      <c r="BM4" s="13">
+      <c r="BM4" s="13"/>
+      <c r="BP4" s="48">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2754,8 +2899,9 @@
         <v>85</v>
       </c>
       <c r="BM5" s="13"/>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP5" s="48"/>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2779,7 +2925,7 @@
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="9"/>
-      <c r="AS6" s="8"/>
+      <c r="AS6" s="17"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
@@ -2790,8 +2936,9 @@
       <c r="BA6" s="9"/>
       <c r="BB6" s="9"/>
       <c r="BM6" s="13"/>
-    </row>
-    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BP6" s="48"/>
+    </row>
+    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -2811,15 +2958,16 @@
       <c r="AY7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD7" s="27">
+      <c r="BD7" s="37">
         <v>99</v>
       </c>
       <c r="BF7" s="27"/>
-      <c r="BM7" s="27">
+      <c r="BM7" s="27"/>
+      <c r="BP7" s="47">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -2846,8 +2994,9 @@
       <c r="BG8" s="13"/>
       <c r="BH8" s="13"/>
       <c r="BM8" s="13"/>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP8" s="48"/>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -2868,8 +3017,9 @@
       <c r="BG9" s="13"/>
       <c r="BH9" s="13"/>
       <c r="BM9" s="13"/>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP9" s="48"/>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2890,8 +3040,9 @@
       <c r="BG10" s="13"/>
       <c r="BH10" s="13"/>
       <c r="BM10" s="13"/>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP10" s="48"/>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
@@ -2907,19 +3058,24 @@
       <c r="BB11" s="7">
         <v>0</v>
       </c>
-      <c r="BE11" s="13">
-        <v>80</v>
+      <c r="BE11" s="36">
+        <v>99</v>
       </c>
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
-      <c r="BM11" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BI11" s="39">
+        <v>99</v>
+      </c>
+      <c r="BJ11" s="40">
+        <v>99</v>
+      </c>
+      <c r="BM11" s="13"/>
+      <c r="BP11" s="48">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -2936,18 +3092,23 @@
         <v>0</v>
       </c>
       <c r="BE12" s="13"/>
-      <c r="BF12" s="13">
+      <c r="BF12" s="36">
         <v>80</v>
       </c>
       <c r="BG12" s="13"/>
       <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BM12" s="13">
+      <c r="BI12" s="39">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BJ12" s="40">
+        <v>80</v>
+      </c>
+      <c r="BM12" s="13"/>
+      <c r="BP12" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -2965,17 +3126,22 @@
       </c>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
-      <c r="BG13" s="13">
-        <v>80</v>
+      <c r="BG13" s="36">
+        <v>70</v>
       </c>
       <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BM13" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BI13" s="39">
+        <v>70</v>
+      </c>
+      <c r="BJ13" s="40">
+        <v>70</v>
+      </c>
+      <c r="BM13" s="13"/>
+      <c r="BP13" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2995,16 +3161,18 @@
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
       <c r="BH14" s="13"/>
-      <c r="BK14" s="13">
+      <c r="BJ14" s="41"/>
+      <c r="BK14" s="43">
         <v>90</v>
       </c>
       <c r="BL14" s="13"/>
-      <c r="BM14" s="13">
+      <c r="BM14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="48">
         <v>90</v>
       </c>
-      <c r="BO14" s="13"/>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -3021,24 +3189,24 @@
         <v>0</v>
       </c>
       <c r="BB15" s="7">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BC15" s="13"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="13">
+      <c r="BH15" s="13"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="44">
         <v>90</v>
       </c>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="13"/>
-      <c r="BM15" s="13">
+      <c r="BM15" s="13"/>
+      <c r="BP15" s="48">
         <v>90</v>
       </c>
-      <c r="BO15" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -3058,19 +3226,14 @@
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
       <c r="BH16" s="13"/>
-      <c r="BI16" s="13">
-        <v>90</v>
-      </c>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="40"/>
       <c r="BK16" s="13"/>
       <c r="BL16" s="13"/>
-      <c r="BM16" s="13">
-        <v>90</v>
-      </c>
-      <c r="BO16" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BM16" s="13"/>
+      <c r="BP16" s="48"/>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
@@ -3086,11 +3249,16 @@
       <c r="BB17" s="7">
         <v>0</v>
       </c>
-      <c r="BO17" s="7">
+      <c r="BJ17" s="41"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="45">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BP17" s="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -3110,16 +3278,18 @@
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
       <c r="BH18" s="13"/>
-      <c r="BJ18" s="13">
-        <v>80</v>
-      </c>
+      <c r="BJ18" s="41"/>
       <c r="BK18" s="13"/>
-      <c r="BM18" s="13">
-        <v>80</v>
-      </c>
+      <c r="BM18" s="13"/>
       <c r="BN18" s="13"/>
-    </row>
-    <row r="19" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BO18" s="46">
+        <v>50</v>
+      </c>
+      <c r="BP18" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -3136,16 +3306,22 @@
       <c r="BB19" s="7">
         <v>0</v>
       </c>
+      <c r="BC19" s="27"/>
       <c r="BD19" s="27"/>
       <c r="BF19" s="27"/>
-      <c r="BM19" s="27">
+      <c r="BH19" s="38">
         <v>90</v>
       </c>
-      <c r="BP19" s="9">
+      <c r="BI19" s="27"/>
+      <c r="BJ19" s="42">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="BM19" s="27"/>
+      <c r="BP19" s="47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -3310,7 +3486,7 @@
       </c>
       <c r="BP20" s="13"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +3519,7 @@
       </c>
       <c r="BP21" s="13"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -3382,7 +3558,7 @@
       </c>
       <c r="BP22" s="13"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3403,7 +3579,7 @@
       </c>
       <c r="BP23" s="13"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -3417,12 +3593,11 @@
         <v>3</v>
       </c>
       <c r="BB24" s="7">
-        <f>1/98 * 100</f>
-        <v>1.0204081632653061</v>
+        <v>14</v>
       </c>
       <c r="BP24" s="13"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -3436,19 +3611,14 @@
         <v>3</v>
       </c>
       <c r="BB25" s="7">
-        <f>4.5/98 * 100</f>
-        <v>4.591836734693878</v>
-      </c>
-      <c r="BN25" s="13">
-        <v>2.2999999999999998</v>
+        <v>21</v>
+      </c>
+      <c r="BN25" s="49">
+        <v>10.5</v>
       </c>
       <c r="BP25" s="13"/>
-      <c r="BQ25" s="7">
-        <f>BB25/2</f>
-        <v>2.295918367346939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -3462,19 +3632,14 @@
         <v>3</v>
       </c>
       <c r="BB26" s="7">
-        <f>10/98 * 100</f>
-        <v>10.204081632653061</v>
-      </c>
-      <c r="BN26" s="13">
-        <v>5.0999999999999996</v>
+        <v>21</v>
+      </c>
+      <c r="BN26" s="49">
+        <v>10.5</v>
       </c>
       <c r="BP26" s="13"/>
-      <c r="BR26" s="7">
-        <f>BB26/2</f>
-        <v>5.1020408163265305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -3492,7 +3657,7 @@
       </c>
       <c r="BP27" s="13"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3675,7 @@
       </c>
       <c r="BP28" s="13"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -3552,7 +3717,7 @@
       </c>
       <c r="BP29" s="13"/>
     </row>
-    <row r="30" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -3587,9 +3752,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3603,7 +3768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3614,7 +3779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntdoan\Github\AuTuMN\autumn\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
     <sheet name="time_variants" sheetId="2" r:id="rId2"/>
     <sheet name="dropdown_lists" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>parameter</t>
   </si>
@@ -57,9 +52,6 @@
   </si>
   <si>
     <t>program_prop_death_reporting</t>
-  </si>
-  <si>
-    <t>time_variant</t>
   </si>
   <si>
     <t>susceptible_fully</t>
@@ -2025,7 +2017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2060,7 +2052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2274,7 +2266,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2319,7 +2311,7 @@
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19">
         <v>0.4</v>
@@ -2329,7 +2321,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2342,7 +2334,7 @@
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="21">
         <v>25800000</v>
@@ -2352,18 +2344,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="23">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="19">
         <v>1.5</v>
@@ -2371,7 +2363,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="19">
         <f>1/3</f>
@@ -2380,7 +2372,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="34">
         <v>11</v>
@@ -2388,7 +2380,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="34">
         <v>9.5</v>
@@ -2396,7 +2388,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="34">
         <v>3.8</v>
@@ -2404,7 +2396,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="25">
         <v>21</v>
@@ -2415,7 +2407,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="25">
         <v>0</v>
@@ -2426,7 +2418,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="25">
         <v>265450</v>
@@ -2437,7 +2429,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="25">
         <v>3</v>
@@ -2448,7 +2440,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="25">
         <v>1</v>
@@ -2459,7 +2451,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="25">
         <v>26.24</v>
@@ -2470,7 +2462,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
@@ -2478,7 +2470,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="26">
         <v>11575186.195826644</v>
@@ -2486,7 +2478,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="14">
         <v>3</v>
@@ -2494,7 +2486,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="14">
         <v>1</v>
@@ -2539,47 +2531,47 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BR30"/>
+  <dimension ref="A1:BQ30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.42578125" style="7" customWidth="1"/>
-    <col min="19" max="24" width="7.28515625" style="7" customWidth="1"/>
-    <col min="25" max="26" width="7.42578125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.140625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="7.42578125" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="7.42578125" style="7" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="7" customWidth="1"/>
-    <col min="40" max="50" width="7" style="7" customWidth="1"/>
-    <col min="51" max="52" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="7.85546875" style="7" customWidth="1"/>
-    <col min="55" max="56" width="14" style="7" customWidth="1"/>
-    <col min="57" max="59" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="64" width="14.42578125" style="7" customWidth="1"/>
-    <col min="65" max="65" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="7.42578125" style="7" customWidth="1"/>
+    <col min="18" max="23" width="7.28515625" style="7" customWidth="1"/>
+    <col min="24" max="25" width="7.42578125" style="7" customWidth="1"/>
+    <col min="26" max="27" width="7.140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="7.42578125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="7.42578125" style="7" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="7" customWidth="1"/>
+    <col min="39" max="49" width="7" style="7" customWidth="1"/>
+    <col min="50" max="51" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="7.85546875" style="7" customWidth="1"/>
+    <col min="54" max="55" width="14" style="7" customWidth="1"/>
+    <col min="56" max="58" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="63" width="14.42578125" style="7" customWidth="1"/>
+    <col min="64" max="64" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2589,164 +2581,164 @@
       <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>12</v>
+      <c r="D1" s="2">
+        <v>1920</v>
       </c>
       <c r="E1" s="2">
-        <v>1920</v>
+        <v>1950</v>
       </c>
       <c r="F1" s="2">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="G1" s="2">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="H1" s="2">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="I1" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="J1" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="K1" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="L1" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="M1" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="N1" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="O1" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="P1" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="Q1" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="R1" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="S1" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="T1" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="U1" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="V1" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="W1" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="X1" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="Y1" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="Z1" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="AA1" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="AB1" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AC1" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="AD1" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="AE1" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AF1" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="AG1" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="AH1" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="AI1" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="AJ1" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="AK1" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="AL1" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="AM1" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="AN1" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="AO1" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AP1" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="AQ1" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="AR1" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="AS1" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AT1" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="AU1" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="AV1" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AW1" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AX1" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="AY1" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="AZ1" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="BA1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="BB1" s="2">
         <v>2015</v>
       </c>
+      <c r="BB1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="BC1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BE1" s="2" t="s">
         <v>14</v>
@@ -2758,13 +2750,13 @@
         <v>16</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="BI1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>61</v>
@@ -2773,7 +2765,7 @@
         <v>62</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="BN1" s="2" t="s">
         <v>68</v>
@@ -2782,18 +2774,15 @@
         <v>69</v>
       </c>
       <c r="BP1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -2801,19 +2790,16 @@
       <c r="C2" s="12">
         <v>0.1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="BB2" s="27"/>
       <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BP2" s="47"/>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BK2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BO2" s="47"/>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2821,26 +2807,23 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AL3" s="7">
         <v>10</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AQ3" s="7">
         <v>15</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AV3" s="7">
         <v>30</v>
       </c>
-      <c r="BP3" s="48"/>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BO3" s="48"/>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2848,23 +2831,20 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="7">
+      <c r="BA4" s="7">
         <v>0</v>
       </c>
-      <c r="BC4" s="35">
+      <c r="BB4" s="35">
         <v>80</v>
       </c>
-      <c r="BM4" s="13"/>
-      <c r="BP4" s="48">
+      <c r="BL4" s="13"/>
+      <c r="BO4" s="48">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2872,9 +2852,7 @@
       <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -2891,19 +2869,18 @@
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="8">
+        <v>93</v>
+      </c>
       <c r="AY5" s="8">
-        <v>93</v>
-      </c>
-      <c r="AZ5" s="8">
         <v>85</v>
       </c>
-      <c r="BM5" s="13"/>
-      <c r="BP5" s="48"/>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL5" s="13"/>
+      <c r="BO5" s="48"/>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2911,21 +2888,19 @@
       <c r="C6" s="5">
         <v>0.2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="17"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
@@ -2934,13 +2909,12 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BM6" s="13"/>
-      <c r="BP6" s="48"/>
-    </row>
-    <row r="7" spans="1:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BL6" s="13"/>
+      <c r="BO6" s="48"/>
+    </row>
+    <row r="7" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>4</v>
@@ -2948,28 +2922,25 @@
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="AW7" s="9">
+      <c r="D7" s="1"/>
+      <c r="AV7" s="9">
         <v>0</v>
       </c>
-      <c r="AY7" s="9">
+      <c r="AX7" s="9">
         <v>2.8</v>
       </c>
-      <c r="BD7" s="37">
+      <c r="BC7" s="37">
         <v>99</v>
       </c>
-      <c r="BF7" s="27"/>
-      <c r="BM7" s="27"/>
-      <c r="BP7" s="47">
+      <c r="BE7" s="27"/>
+      <c r="BL7" s="27"/>
+      <c r="BO7" s="47">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -2977,28 +2948,25 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AD8" s="7">
         <v>0</v>
       </c>
-      <c r="BB8" s="7">
+      <c r="BA8" s="7">
         <v>0</v>
       </c>
+      <c r="BD8" s="13"/>
       <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BP8" s="48"/>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL8" s="13"/>
+      <c r="BO8" s="48"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -3006,22 +2974,19 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB9" s="7">
+      <c r="BA9" s="7">
         <v>0</v>
       </c>
+      <c r="BD9" s="13"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BP9" s="48"/>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL9" s="13"/>
+      <c r="BO9" s="48"/>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -3029,22 +2994,19 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB10" s="7">
+      <c r="BA10" s="7">
         <v>0</v>
       </c>
+      <c r="BD10" s="13"/>
       <c r="BE10" s="13"/>
       <c r="BF10" s="13"/>
       <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BP10" s="48"/>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BL10" s="13"/>
+      <c r="BO10" s="48"/>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -3052,32 +3014,29 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB11" s="7">
+      <c r="BA11" s="7">
         <v>0</v>
       </c>
-      <c r="BE11" s="36">
+      <c r="BD11" s="36">
         <v>99</v>
       </c>
+      <c r="BE11" s="13"/>
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="39">
+      <c r="BH11" s="39">
         <v>99</v>
       </c>
-      <c r="BJ11" s="40">
+      <c r="BI11" s="40">
         <v>99</v>
       </c>
-      <c r="BM11" s="13"/>
-      <c r="BP11" s="48">
+      <c r="BL11" s="13"/>
+      <c r="BO11" s="48">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -3085,32 +3044,29 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB12" s="7">
+      <c r="BA12" s="7">
         <v>0</v>
       </c>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="36">
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="36">
         <v>80</v>
       </c>
+      <c r="BF12" s="13"/>
       <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="39">
+      <c r="BH12" s="39">
         <v>80</v>
       </c>
-      <c r="BJ12" s="40">
+      <c r="BI12" s="40">
         <v>80</v>
       </c>
-      <c r="BM12" s="13"/>
-      <c r="BP12" s="48">
+      <c r="BL12" s="13"/>
+      <c r="BO12" s="48">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -3118,32 +3074,29 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB13" s="7">
+      <c r="BA13" s="7">
         <v>0</v>
       </c>
+      <c r="BD13" s="13"/>
       <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="36">
+      <c r="BF13" s="36">
         <v>70</v>
       </c>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="39">
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="39">
         <v>70</v>
       </c>
-      <c r="BJ13" s="40">
+      <c r="BI13" s="40">
         <v>70</v>
       </c>
-      <c r="BM13" s="13"/>
-      <c r="BP13" s="48">
+      <c r="BL13" s="13"/>
+      <c r="BO13" s="48">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -3151,30 +3104,27 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB14" s="7">
+      <c r="BA14" s="7">
         <v>0</v>
       </c>
+      <c r="BD14" s="13"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BJ14" s="41"/>
-      <c r="BK14" s="43">
+      <c r="BI14" s="41"/>
+      <c r="BJ14" s="43">
         <v>90</v>
       </c>
+      <c r="BK14" s="13"/>
       <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="48">
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="48">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -3182,33 +3132,30 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW15" s="7">
+      <c r="AV15" s="7">
         <v>0</v>
       </c>
-      <c r="BB15" s="7">
+      <c r="BA15" s="7">
         <v>14</v>
       </c>
-      <c r="BC15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BD15" s="13"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BJ15" s="41"/>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="44">
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="44">
         <v>90</v>
       </c>
-      <c r="BM15" s="13"/>
-      <c r="BP15" s="48">
+      <c r="BL15" s="13"/>
+      <c r="BO15" s="48">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3216,26 +3163,23 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB16" s="7">
+      <c r="BA16" s="7">
         <v>0</v>
       </c>
+      <c r="BD16" s="13"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
       <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="40"/>
+      <c r="BI16" s="40"/>
+      <c r="BJ16" s="13"/>
       <c r="BK16" s="13"/>
       <c r="BL16" s="13"/>
-      <c r="BM16" s="13"/>
-      <c r="BP16" s="48"/>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO16" s="48"/>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3243,24 +3187,21 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB17" s="7">
+      <c r="BA17" s="7">
         <v>0</v>
       </c>
-      <c r="BJ17" s="41"/>
-      <c r="BL17" s="13"/>
-      <c r="BM17" s="45">
+      <c r="BI17" s="41"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="45">
         <v>90</v>
       </c>
-      <c r="BP17" s="48">
+      <c r="BO17" s="48">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3268,30 +3209,27 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB18" s="7">
+      <c r="BA18" s="7">
         <v>0</v>
       </c>
+      <c r="BD18" s="13"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BJ18" s="41"/>
-      <c r="BK18" s="13"/>
+      <c r="BI18" s="41"/>
+      <c r="BJ18" s="13"/>
+      <c r="BL18" s="13"/>
       <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="46">
+      <c r="BN18" s="46">
         <v>50</v>
       </c>
-      <c r="BP18" s="48">
+      <c r="BO18" s="48">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>4</v>
@@ -3299,31 +3237,28 @@
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="BB19" s="7">
+      <c r="D19" s="1"/>
+      <c r="BA19" s="7">
         <v>0</v>
       </c>
+      <c r="BB19" s="27"/>
       <c r="BC19" s="27"/>
-      <c r="BD19" s="27"/>
-      <c r="BF19" s="27"/>
-      <c r="BH19" s="38">
+      <c r="BE19" s="27"/>
+      <c r="BG19" s="38">
         <v>90</v>
       </c>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="42">
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="42">
         <v>90</v>
       </c>
-      <c r="BM19" s="27"/>
-      <c r="BP19" s="47">
+      <c r="BL19" s="27"/>
+      <c r="BO19" s="47">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3331,164 +3266,161 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
       <c r="F20" s="14">
-        <v>1</v>
+        <v>1.1289570744394</v>
       </c>
       <c r="G20" s="14">
-        <v>1.1289570744394</v>
+        <v>1.42215881727406</v>
       </c>
       <c r="H20" s="14">
-        <v>1.42215881727406</v>
+        <v>1.90118931222233</v>
       </c>
       <c r="I20" s="14">
-        <v>1.90118931222233</v>
+        <v>2.3081073919986701</v>
       </c>
       <c r="J20" s="14">
-        <v>2.3081073919986701</v>
+        <v>2.4974653103104298</v>
       </c>
       <c r="K20" s="14">
-        <v>2.4974653103104298</v>
+        <v>2.9115458645382701</v>
       </c>
       <c r="L20" s="14">
-        <v>2.9115458645382701</v>
+        <v>3.90623450399154</v>
       </c>
       <c r="M20" s="14">
-        <v>3.90623450399154</v>
+        <v>4.1703507493909102</v>
       </c>
       <c r="N20" s="14">
-        <v>4.1703507493909102</v>
+        <v>4.55399078719985</v>
       </c>
       <c r="O20" s="14">
-        <v>4.55399078719985</v>
+        <v>5.0047790229916798</v>
       </c>
       <c r="P20" s="14">
-        <v>5.0047790229916798</v>
+        <v>5.3718558386314896</v>
       </c>
       <c r="Q20" s="14">
-        <v>5.3718558386314896</v>
+        <v>6.3137212289735496</v>
       </c>
       <c r="R20" s="14">
-        <v>6.3137212289735496</v>
+        <v>7.4628507238053698</v>
       </c>
       <c r="S20" s="14">
-        <v>7.4628507238053698</v>
+        <v>8.4391855224587609</v>
       </c>
       <c r="T20" s="14">
-        <v>8.4391855224587609</v>
+        <v>9.3018160392078606</v>
       </c>
       <c r="U20" s="14">
-        <v>9.3018160392078606</v>
+        <v>10.2347283365258</v>
       </c>
       <c r="V20" s="14">
-        <v>10.2347283365258</v>
+        <v>15.386785740408699</v>
       </c>
       <c r="W20" s="14">
-        <v>15.386785740408699</v>
+        <v>18.9416113416321</v>
       </c>
       <c r="X20" s="14">
-        <v>18.9416113416321</v>
+        <v>19.1590871369295</v>
       </c>
       <c r="Y20" s="14">
-        <v>19.1590871369295</v>
+        <v>19.938817427385899</v>
       </c>
       <c r="Z20" s="14">
-        <v>19.938817427385899</v>
+        <v>22.702351313969601</v>
       </c>
       <c r="AA20" s="14">
-        <v>22.702351313969601</v>
+        <v>25.481798063623799</v>
       </c>
       <c r="AB20" s="14">
-        <v>25.481798063623799</v>
+        <v>28.584806362378998</v>
       </c>
       <c r="AC20" s="14">
-        <v>28.584806362378998</v>
+        <v>34.090656984785603</v>
       </c>
       <c r="AD20" s="14">
-        <v>34.090656984785603</v>
+        <v>37.0398409405256</v>
       </c>
       <c r="AE20" s="14">
-        <v>37.0398409405256</v>
+        <v>39.527551867219898</v>
       </c>
       <c r="AF20" s="14">
-        <v>39.527551867219898</v>
+        <v>43.633070539419101</v>
       </c>
       <c r="AG20" s="14">
-        <v>43.633070539419101</v>
+        <v>46.6140802213001</v>
       </c>
       <c r="AH20" s="14">
-        <v>46.6140802213001</v>
+        <v>50.0989972337483</v>
       </c>
       <c r="AI20" s="14">
-        <v>50.0989972337483</v>
+        <v>52.899661134163203</v>
       </c>
       <c r="AJ20" s="14">
-        <v>52.899661134163203</v>
+        <v>57.784910096818798</v>
       </c>
       <c r="AK20" s="14">
-        <v>57.784910096818798</v>
+        <v>61.2167842323652</v>
       </c>
       <c r="AL20" s="14">
-        <v>61.2167842323652</v>
+        <v>63.651452282157699</v>
       </c>
       <c r="AM20" s="14">
-        <v>63.651452282157699</v>
+        <v>67.053941908713696</v>
       </c>
       <c r="AN20" s="14">
-        <v>67.053941908713696</v>
+        <v>68.8796680497925</v>
       </c>
       <c r="AO20" s="14">
-        <v>68.8796680497925</v>
+        <v>70.456431535269701</v>
       </c>
       <c r="AP20" s="14">
-        <v>70.456431535269701</v>
+        <v>73.858921161825705</v>
       </c>
       <c r="AQ20" s="14">
-        <v>73.858921161825705</v>
+        <v>78.6721991701245</v>
       </c>
       <c r="AR20" s="14">
-        <v>78.6721991701245</v>
+        <v>82.987551867219906</v>
       </c>
       <c r="AS20" s="14">
-        <v>82.987551867219906</v>
+        <v>85.394190871369304</v>
       </c>
       <c r="AT20" s="14">
-        <v>85.394190871369304</v>
+        <v>92.448132780083</v>
       </c>
       <c r="AU20" s="14">
-        <v>92.448132780083</v>
+        <v>96.348547717842294</v>
       </c>
       <c r="AV20" s="14">
-        <v>96.348547717842294</v>
+        <v>100</v>
       </c>
       <c r="AW20" s="14">
-        <v>100</v>
+        <v>104.647302904564</v>
       </c>
       <c r="AX20" s="14">
-        <v>104.647302904564</v>
+        <v>107.966804979253</v>
       </c>
       <c r="AY20" s="14">
-        <v>107.966804979253</v>
+        <v>111.203319502075</v>
       </c>
       <c r="AZ20" s="14">
-        <v>111.203319502075</v>
+        <v>115.767634854772</v>
       </c>
       <c r="BA20" s="14">
-        <v>115.767634854772</v>
-      </c>
-      <c r="BB20" s="14">
         <v>117.42738589211601</v>
       </c>
-      <c r="BP20" s="13"/>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO20" s="13"/>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
@@ -3496,32 +3428,29 @@
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="7">
+      <c r="AA21" s="7">
         <v>1</v>
       </c>
-      <c r="AK21" s="7">
+      <c r="AJ21" s="7">
         <v>3.1</v>
       </c>
-      <c r="AP21" s="7">
+      <c r="AO21" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AU21" s="7">
+      <c r="AT21" s="7">
         <v>5.2</v>
       </c>
-      <c r="AZ21" s="7">
+      <c r="AY21" s="7">
         <v>5.4</v>
       </c>
-      <c r="BB21" s="7">
+      <c r="BA21" s="7">
         <v>5.9</v>
       </c>
-      <c r="BP21" s="13"/>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO21" s="13"/>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
@@ -3529,38 +3458,35 @@
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="7">
+      <c r="AB22" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AG22" s="7">
         <v>2.3E-3</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AL22" s="7">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AQ22" s="7">
         <v>1.24E-2</v>
       </c>
-      <c r="AW22" s="7">
+      <c r="AV22" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="AY22" s="7">
+        <v>5.6300000000000003E-2</v>
+      </c>
       <c r="AZ22" s="7">
-        <v>5.6300000000000003E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="BA22" s="7">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="BB22" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BP22" s="13"/>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO22" s="13"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -3568,20 +3494,17 @@
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW23" s="7">
+      <c r="AV23" s="7">
         <v>0.112</v>
       </c>
-      <c r="BB23" s="7">
+      <c r="BA23" s="7">
         <v>0.153</v>
       </c>
-      <c r="BP23" s="13"/>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO23" s="13"/>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -3589,17 +3512,14 @@
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB24" s="7">
+      <c r="BA24" s="7">
         <v>14</v>
       </c>
-      <c r="BP24" s="13"/>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO24" s="13"/>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
@@ -3607,20 +3527,17 @@
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB25" s="7">
+      <c r="BA25" s="7">
         <v>21</v>
       </c>
-      <c r="BN25" s="49">
+      <c r="BM25" s="49">
         <v>10.5</v>
       </c>
-      <c r="BP25" s="13"/>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO25" s="13"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -3628,20 +3545,17 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB26" s="7">
+      <c r="BA26" s="7">
         <v>21</v>
       </c>
-      <c r="BN26" s="49">
+      <c r="BM26" s="49">
         <v>10.5</v>
       </c>
-      <c r="BP26" s="13"/>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO26" s="13"/>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
@@ -3649,17 +3563,14 @@
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB27" s="7">
+      <c r="BA27" s="7">
         <v>0.4</v>
       </c>
-      <c r="BP27" s="13"/>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO27" s="13"/>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -3667,17 +3578,14 @@
       <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB28" s="7">
+      <c r="BA28" s="7">
         <v>0.4</v>
       </c>
-      <c r="BP28" s="13"/>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BO28" s="13"/>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -3685,44 +3593,41 @@
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>3</v>
+      <c r="E29" s="7">
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
         <v>30</v>
       </c>
-      <c r="I29" s="7">
+      <c r="H29" s="7">
         <v>50</v>
       </c>
-      <c r="S29" s="7">
+      <c r="R29" s="7">
         <v>50</v>
       </c>
-      <c r="AM29" s="7">
+      <c r="AL29" s="7">
         <v>50</v>
       </c>
-      <c r="AR29" s="7">
+      <c r="AQ29" s="7">
         <v>53</v>
       </c>
-      <c r="AW29" s="7">
+      <c r="AV29" s="7">
         <v>55</v>
       </c>
-      <c r="AZ29" s="7">
+      <c r="AY29" s="7">
         <v>60</v>
       </c>
-      <c r="BB29" s="7">
+      <c r="BA29" s="7">
         <v>62</v>
       </c>
-      <c r="BP29" s="13"/>
-    </row>
-    <row r="30" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BO29" s="13"/>
+    </row>
+    <row r="30" spans="1:67" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="BE30" s="32"/>
       <c r="BF30" s="32"/>
       <c r="BG30" s="32"/>
       <c r="BH30" s="32"/>
@@ -3733,7 +3638,6 @@
       <c r="BM30" s="32"/>
       <c r="BN30" s="32"/>
       <c r="BO30" s="32"/>
-      <c r="BP30" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3762,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -2537,7 +2537,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,9 +2804,6 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
       <c r="E3" s="7">
         <v>5</v>
       </c>
@@ -2827,9 +2824,6 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
       </c>
       <c r="BA4" s="7">
         <v>0</v>
@@ -2919,9 +2913,7 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="AV7" s="9">
         <v>0</v>
@@ -2944,9 +2936,6 @@
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -2971,9 +2960,6 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
       <c r="BA9" s="7">
         <v>0</v>
       </c>
@@ -2991,9 +2977,6 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
       <c r="BA10" s="7">
         <v>0</v>
       </c>
@@ -3011,9 +2994,6 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
       <c r="BA11" s="7">
         <v>0</v>
       </c>
@@ -3041,9 +3021,6 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
       <c r="BA12" s="7">
         <v>0</v>
       </c>
@@ -3071,9 +3048,6 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
       <c r="BA13" s="7">
         <v>0</v>
       </c>
@@ -3100,9 +3074,6 @@
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
       </c>
       <c r="BA14" s="7">
         <v>0</v>
@@ -3128,9 +3099,6 @@
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
       </c>
       <c r="AV15" s="7">
         <v>0</v>
@@ -3159,9 +3127,6 @@
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
       </c>
       <c r="BA16" s="7">
         <v>0</v>
@@ -3184,9 +3149,6 @@
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
       <c r="BA17" s="7">
         <v>0</v>
       </c>
@@ -3205,9 +3167,6 @@
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
       </c>
       <c r="BA18" s="7">
         <v>0</v>
@@ -3234,9 +3193,7 @@
       <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="1"/>
       <c r="BA19" s="7">
         <v>0</v>
@@ -3263,9 +3220,6 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
@@ -3425,9 +3379,6 @@
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
       <c r="AA21" s="7">
         <v>1</v>
       </c>
@@ -3455,9 +3406,6 @@
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
       <c r="AB22" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -3491,9 +3439,6 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
       <c r="AV23" s="7">
         <v>0.112</v>
       </c>
@@ -3509,9 +3454,6 @@
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
       <c r="BA24" s="7">
         <v>14</v>
       </c>
@@ -3524,9 +3466,6 @@
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
       <c r="BA25" s="7">
         <v>21</v>
       </c>
@@ -3542,9 +3481,6 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
       <c r="BA26" s="7">
         <v>21</v>
       </c>
@@ -3560,9 +3496,6 @@
       <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
       <c r="BA27" s="7">
         <v>0.4</v>
       </c>
@@ -3575,9 +3508,6 @@
       <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
       <c r="BA28" s="7">
         <v>0.4</v>
       </c>
@@ -3589,9 +3519,6 @@
       </c>
       <c r="B29" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>parameter</t>
   </si>
@@ -181,12 +181,6 @@
   </si>
   <si>
     <t>riskgroup_perc_ruralpoor</t>
-  </si>
-  <si>
-    <t>epi_prop_smearneg</t>
-  </si>
-  <si>
-    <t>epi_prop_smearpos</t>
   </si>
   <si>
     <t>program_perc_detect</t>
@@ -2363,7 +2357,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="19">
         <f>1/3</f>
@@ -2372,7 +2366,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="34">
         <v>11</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="34">
         <v>9.5</v>
@@ -2388,7 +2382,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="34">
         <v>3.8</v>
@@ -2531,13 +2525,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BQ30"/>
+  <dimension ref="A1:BQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,28 +2750,28 @@
         <v>45</v>
       </c>
       <c r="BJ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="BM1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2989,7 +2983,7 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -3043,7 +3037,7 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -3095,7 +3089,7 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -3123,7 +3117,7 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>4</v>
@@ -3496,75 +3490,51 @@
       <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>50</v>
+      </c>
+      <c r="R27" s="7">
+        <v>50</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>50</v>
+      </c>
+      <c r="AQ27" s="7">
+        <v>53</v>
+      </c>
+      <c r="AV27" s="7">
+        <v>55</v>
+      </c>
+      <c r="AY27" s="7">
+        <v>60</v>
+      </c>
       <c r="BA27" s="7">
-        <v>0.4</v>
+        <v>62</v>
       </c>
       <c r="BO27" s="13"/>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA28" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="BO28" s="13"/>
-    </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>30</v>
-      </c>
-      <c r="H29" s="7">
-        <v>50</v>
-      </c>
-      <c r="R29" s="7">
-        <v>50</v>
-      </c>
-      <c r="AL29" s="7">
-        <v>50</v>
-      </c>
-      <c r="AQ29" s="7">
-        <v>53</v>
-      </c>
-      <c r="AV29" s="7">
-        <v>55</v>
-      </c>
-      <c r="AY29" s="7">
-        <v>60</v>
-      </c>
-      <c r="BA29" s="7">
-        <v>62</v>
-      </c>
-      <c r="BO29" s="13"/>
-    </row>
-    <row r="30" spans="1:67" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="32"/>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="32"/>
-      <c r="BM30" s="32"/>
-      <c r="BN30" s="32"/>
-      <c r="BO30" s="32"/>
+    <row r="28" spans="1:67" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="32"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="32"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
+      <c r="BN28" s="32"/>
+      <c r="BO28" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>parameter</t>
   </si>
@@ -220,12 +220,6 @@
   </si>
   <si>
     <t>scenario_14</t>
-  </si>
-  <si>
-    <t>scenario_16</t>
-  </si>
-  <si>
-    <t>scenario_15</t>
   </si>
   <si>
     <t>program_perc_ipt_age5to15</t>
@@ -340,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,12 +350,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1196,14 +1184,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1235,56 +1222,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2266,13 +2246,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="51.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="22" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="13.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2283,182 +2263,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>9</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>0.44</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>0.4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>15</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>25800000</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="34">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="34">
+      <c r="B12" s="28">
         <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>21</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>0</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>265450</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>3</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>26.24</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2466,15 +2446,15 @@
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>11575186.195826644</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2482,22 +2462,22 @@
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2525,13 +2505,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BQ28"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,298 +2519,185 @@
     <col min="1" max="1" width="73.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="7.42578125" style="7" customWidth="1"/>
-    <col min="18" max="23" width="7.28515625" style="7" customWidth="1"/>
-    <col min="24" max="25" width="7.42578125" style="7" customWidth="1"/>
-    <col min="26" max="27" width="7.140625" style="7" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="7.42578125" style="7" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="7.42578125" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" style="7" customWidth="1"/>
-    <col min="39" max="49" width="7" style="7" customWidth="1"/>
-    <col min="50" max="51" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="7.85546875" style="7" customWidth="1"/>
-    <col min="54" max="55" width="14" style="7" customWidth="1"/>
-    <col min="56" max="58" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="63" width="14.42578125" style="7" customWidth="1"/>
-    <col min="64" max="64" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="7"/>
+    <col min="4" max="4" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="6" customWidth="1"/>
+    <col min="13" max="16" width="7" style="6" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.85546875" style="6" customWidth="1"/>
+    <col min="21" max="22" width="14" style="6" customWidth="1"/>
+    <col min="23" max="25" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="14.42578125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2">
-        <v>1920</v>
+        <v>1950</v>
       </c>
       <c r="E1" s="2">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="F1" s="2">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="G1" s="2">
-        <v>1965</v>
+        <v>1980</v>
       </c>
       <c r="H1" s="2">
-        <v>1970</v>
+        <v>1989</v>
       </c>
       <c r="I1" s="2">
-        <v>1971</v>
+        <v>1990</v>
       </c>
       <c r="J1" s="2">
-        <v>1972</v>
+        <v>1995</v>
       </c>
       <c r="K1" s="2">
-        <v>1973</v>
+        <v>1998</v>
       </c>
       <c r="L1" s="2">
-        <v>1974</v>
+        <v>2000</v>
       </c>
       <c r="M1" s="2">
-        <v>1975</v>
+        <v>2003</v>
       </c>
       <c r="N1" s="2">
-        <v>1976</v>
+        <v>2005</v>
       </c>
       <c r="O1" s="2">
-        <v>1977</v>
+        <v>2008</v>
       </c>
       <c r="P1" s="2">
-        <v>1978</v>
+        <v>2010</v>
       </c>
       <c r="Q1" s="2">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="R1" s="2">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="S1" s="2">
-        <v>1981</v>
+        <v>2014</v>
       </c>
       <c r="T1" s="2">
-        <v>1982</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1983</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1984</v>
-      </c>
-      <c r="W1" s="2">
-        <v>1985</v>
-      </c>
-      <c r="X1" s="2">
-        <v>1986</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>1987</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>1988</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>1989</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>1990</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>1991</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>1992</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>1993</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>1994</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>1995</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>1996</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>1997</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>1998</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>1999</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AW1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AX1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AY1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AZ1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="BA1" s="2">
         <v>2015</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0.1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BO2" s="47"/>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AH2" s="41"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="L3" s="6">
         <v>10</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="N3" s="6">
         <v>15</v>
       </c>
-      <c r="AV3" s="7">
+      <c r="P3" s="6">
         <v>30</v>
       </c>
-      <c r="BO3" s="48"/>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AH3" s="42"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="T4" s="6">
         <v>0</v>
       </c>
-      <c r="BB4" s="35">
+      <c r="U4" s="29">
         <v>80</v>
       </c>
-      <c r="BL4" s="13"/>
-      <c r="BO4" s="48">
+      <c r="AE4" s="12"/>
+      <c r="AH4" s="42">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -2840,33 +2707,23 @@
       <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7">
         <v>93</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="R5" s="7">
         <v>85</v>
       </c>
-      <c r="BL5" s="13"/>
-      <c r="BO5" s="48"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AE5" s="12"/>
+      <c r="AH5" s="42"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2876,665 +2733,544 @@
       <c r="C6" s="5">
         <v>0.2</v>
       </c>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BL6" s="13"/>
-      <c r="BO6" s="48"/>
-    </row>
-    <row r="7" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="AE6" s="12"/>
+      <c r="AH6" s="42"/>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1"/>
-      <c r="AV7" s="9">
+      <c r="C7" s="11"/>
+      <c r="P7" s="8">
         <v>0</v>
       </c>
-      <c r="AX7" s="9">
+      <c r="Q7" s="8">
         <v>2.8</v>
       </c>
-      <c r="BC7" s="37">
+      <c r="V7" s="31">
         <v>99</v>
       </c>
-      <c r="BE7" s="27"/>
-      <c r="BL7" s="27"/>
-      <c r="BO7" s="47">
+      <c r="X7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AH7" s="41">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="T8" s="6">
         <v>0</v>
       </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BO8" s="48"/>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AH8" s="42"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA9" s="7">
+      <c r="T9" s="6">
         <v>0</v>
       </c>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BO9" s="48"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AH9" s="42"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA10" s="7">
+      <c r="T10" s="6">
         <v>0</v>
       </c>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BO10" s="48"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AH10" s="42"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA11" s="7">
+      <c r="T11" s="6">
         <v>0</v>
       </c>
-      <c r="BD11" s="36">
+      <c r="W11" s="30">
         <v>99</v>
       </c>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="13"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="39">
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="33">
         <v>99</v>
       </c>
-      <c r="BI11" s="40">
+      <c r="AB11" s="34">
         <v>99</v>
       </c>
-      <c r="BL11" s="13"/>
-      <c r="BO11" s="48">
+      <c r="AE11" s="12"/>
+      <c r="AH11" s="42">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA12" s="7">
+      <c r="T12" s="6">
         <v>0</v>
       </c>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="36">
+      <c r="W12" s="12"/>
+      <c r="X12" s="30">
         <v>80</v>
       </c>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="39">
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="33">
         <v>80</v>
       </c>
-      <c r="BI12" s="40">
+      <c r="AB12" s="34">
         <v>80</v>
       </c>
-      <c r="BL12" s="13"/>
-      <c r="BO12" s="48">
+      <c r="AE12" s="12"/>
+      <c r="AH12" s="42">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA13" s="7">
+      <c r="T13" s="6">
         <v>0</v>
       </c>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="36">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="30">
         <v>70</v>
       </c>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="39">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="33">
         <v>70</v>
       </c>
-      <c r="BI13" s="40">
+      <c r="AB13" s="34">
         <v>70</v>
       </c>
-      <c r="BL13" s="13"/>
-      <c r="BO13" s="48">
+      <c r="AE13" s="12"/>
+      <c r="AH13" s="42">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA14" s="7">
+      <c r="T14" s="6">
         <v>0</v>
       </c>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
-      <c r="BF14" s="13"/>
-      <c r="BG14" s="13"/>
-      <c r="BI14" s="41"/>
-      <c r="BJ14" s="43">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="37">
         <v>90</v>
       </c>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="48">
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="42">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AV15" s="7">
+      <c r="P15" s="6">
         <v>0</v>
       </c>
-      <c r="BA15" s="7">
+      <c r="T15" s="6">
         <v>14</v>
       </c>
-      <c r="BB15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="13"/>
-      <c r="BG15" s="13"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="44">
+      <c r="U15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="38">
         <v>90</v>
       </c>
-      <c r="BL15" s="13"/>
-      <c r="BO15" s="48">
+      <c r="AE15" s="12"/>
+      <c r="AH15" s="42">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA16" s="7">
+      <c r="T16" s="6">
         <v>0</v>
       </c>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="40"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
-      <c r="BL16" s="13"/>
-      <c r="BO16" s="48"/>
-    </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AH16" s="42"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA17" s="7">
+      <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="BI17" s="41"/>
-      <c r="BK17" s="13"/>
-      <c r="BL17" s="45">
+      <c r="AB17" s="35"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="39">
         <v>90</v>
       </c>
-      <c r="BO17" s="48">
+      <c r="AH17" s="42">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA18" s="7">
+      <c r="T18" s="6">
         <v>0</v>
       </c>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BI18" s="41"/>
-      <c r="BJ18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="46">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="40">
         <v>50</v>
       </c>
-      <c r="BO18" s="48">
+      <c r="AH18" s="42">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="1"/>
-      <c r="BA19" s="7">
+      <c r="C19" s="11"/>
+      <c r="T19" s="6">
         <v>0</v>
       </c>
-      <c r="BB19" s="27"/>
-      <c r="BC19" s="27"/>
-      <c r="BE19" s="27"/>
-      <c r="BG19" s="38">
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Z19" s="32">
         <v>90</v>
       </c>
-      <c r="BH19" s="27"/>
-      <c r="BI19" s="42">
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="36">
         <v>90</v>
       </c>
-      <c r="BL19" s="27"/>
-      <c r="BO19" s="47">
+      <c r="AE19" s="26"/>
+      <c r="AH19" s="41">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="E20" s="13">
         <v>1.1289570744394</v>
       </c>
-      <c r="G20" s="14">
-        <v>1.42215881727406</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="F20" s="13">
         <v>1.90118931222233</v>
       </c>
-      <c r="I20" s="14">
-        <v>2.3081073919986701</v>
-      </c>
-      <c r="J20" s="14">
-        <v>2.4974653103104298</v>
-      </c>
-      <c r="K20" s="14">
-        <v>2.9115458645382701</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3.90623450399154</v>
-      </c>
-      <c r="M20" s="14">
-        <v>4.1703507493909102</v>
-      </c>
-      <c r="N20" s="14">
-        <v>4.55399078719985</v>
-      </c>
-      <c r="O20" s="14">
-        <v>5.0047790229916798</v>
-      </c>
-      <c r="P20" s="14">
-        <v>5.3718558386314896</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>6.3137212289735496</v>
-      </c>
-      <c r="R20" s="14">
+      <c r="G20" s="13">
         <v>7.4628507238053698</v>
       </c>
-      <c r="S20" s="14">
-        <v>8.4391855224587609</v>
-      </c>
-      <c r="T20" s="14">
-        <v>9.3018160392078606</v>
-      </c>
-      <c r="U20" s="14">
-        <v>10.2347283365258</v>
-      </c>
-      <c r="V20" s="14">
-        <v>15.386785740408699</v>
-      </c>
-      <c r="W20" s="14">
-        <v>18.9416113416321</v>
-      </c>
-      <c r="X20" s="14">
-        <v>19.1590871369295</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>19.938817427385899</v>
-      </c>
-      <c r="Z20" s="14">
-        <v>22.702351313969601</v>
-      </c>
-      <c r="AA20" s="14">
+      <c r="H20" s="13">
         <v>25.481798063623799</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="I20" s="13">
         <v>28.584806362378998</v>
       </c>
-      <c r="AC20" s="14">
-        <v>34.090656984785603</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>37.0398409405256</v>
-      </c>
-      <c r="AE20" s="14">
-        <v>39.527551867219898</v>
-      </c>
-      <c r="AF20" s="14">
-        <v>43.633070539419101</v>
-      </c>
-      <c r="AG20" s="14">
+      <c r="J20" s="13">
         <v>46.6140802213001</v>
       </c>
-      <c r="AH20" s="14">
-        <v>50.0989972337483</v>
-      </c>
-      <c r="AI20" s="14">
-        <v>52.899661134163203</v>
-      </c>
-      <c r="AJ20" s="14">
+      <c r="K20" s="13">
         <v>57.784910096818798</v>
       </c>
-      <c r="AK20" s="14">
-        <v>61.2167842323652</v>
-      </c>
-      <c r="AL20" s="14">
+      <c r="L20" s="13">
         <v>63.651452282157699</v>
       </c>
-      <c r="AM20" s="14">
-        <v>67.053941908713696</v>
-      </c>
-      <c r="AN20" s="14">
-        <v>68.8796680497925</v>
-      </c>
-      <c r="AO20" s="14">
+      <c r="M20" s="13">
         <v>70.456431535269701</v>
       </c>
-      <c r="AP20" s="14">
-        <v>73.858921161825705</v>
-      </c>
-      <c r="AQ20" s="14">
+      <c r="N20" s="13">
         <v>78.6721991701245</v>
       </c>
-      <c r="AR20" s="14">
-        <v>82.987551867219906</v>
-      </c>
-      <c r="AS20" s="14">
-        <v>85.394190871369304</v>
-      </c>
-      <c r="AT20" s="14">
+      <c r="O20" s="13">
         <v>92.448132780083</v>
       </c>
-      <c r="AU20" s="14">
-        <v>96.348547717842294</v>
-      </c>
-      <c r="AV20" s="14">
+      <c r="P20" s="13">
         <v>100</v>
       </c>
-      <c r="AW20" s="14">
-        <v>104.647302904564</v>
-      </c>
-      <c r="AX20" s="14">
+      <c r="Q20" s="13">
         <v>107.966804979253</v>
       </c>
-      <c r="AY20" s="14">
+      <c r="R20" s="13">
         <v>111.203319502075</v>
       </c>
-      <c r="AZ20" s="14">
+      <c r="S20" s="13">
         <v>115.767634854772</v>
       </c>
-      <c r="BA20" s="14">
+      <c r="T20" s="13">
         <v>117.42738589211601</v>
       </c>
-      <c r="BO20" s="13"/>
-    </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH20" s="12"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="H21" s="6">
         <v>1</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="K21" s="6">
         <v>3.1</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="M21" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AT21" s="7">
+      <c r="O21" s="6">
         <v>5.2</v>
       </c>
-      <c r="AY21" s="7">
+      <c r="R21" s="6">
         <v>5.4</v>
       </c>
-      <c r="BA21" s="7">
+      <c r="T21" s="6">
         <v>5.9</v>
       </c>
-      <c r="BO21" s="13"/>
-    </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="I22" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="J22" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="L22" s="6">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="N22" s="6">
         <v>1.24E-2</v>
       </c>
-      <c r="AV22" s="7">
+      <c r="P22" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AY22" s="7">
+      <c r="R22" s="6">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="AZ22" s="7">
+      <c r="S22" s="6">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="BA22" s="7">
+      <c r="T22" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BO22" s="13"/>
-    </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH22" s="12"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AV23" s="7">
+      <c r="P23" s="6">
         <v>0.112</v>
       </c>
-      <c r="BA23" s="7">
+      <c r="T23" s="6">
         <v>0.153</v>
       </c>
-      <c r="BO23" s="13"/>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH23" s="12"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="7">
+      <c r="T24" s="6">
         <v>14</v>
       </c>
-      <c r="BO24" s="13"/>
-    </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH24" s="12"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA25" s="7">
+      <c r="T25" s="6">
         <v>21</v>
       </c>
-      <c r="BM25" s="49">
+      <c r="AF25" s="43">
         <v>10.5</v>
       </c>
-      <c r="BO25" s="13"/>
-    </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH25" s="12"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BA26" s="7">
+      <c r="T26" s="6">
         <v>21</v>
       </c>
-      <c r="BM26" s="49">
+      <c r="AF26" s="43">
         <v>10.5</v>
       </c>
-      <c r="BO26" s="13"/>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AH26" s="12"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="7">
+      <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="7">
+      <c r="E27" s="6">
         <v>30</v>
       </c>
-      <c r="H27" s="7">
+      <c r="F27" s="6">
         <v>50</v>
       </c>
-      <c r="R27" s="7">
+      <c r="G27" s="6">
         <v>50</v>
       </c>
-      <c r="AL27" s="7">
+      <c r="L27" s="6">
         <v>50</v>
       </c>
-      <c r="AQ27" s="7">
+      <c r="N27" s="6">
         <v>53</v>
       </c>
-      <c r="AV27" s="7">
+      <c r="P27" s="6">
         <v>55</v>
       </c>
-      <c r="AY27" s="7">
+      <c r="R27" s="6">
         <v>60</v>
       </c>
-      <c r="BA27" s="7">
+      <c r="T27" s="6">
         <v>62</v>
       </c>
-      <c r="BO27" s="13"/>
-    </row>
-    <row r="28" spans="1:67" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
+      <c r="AH27" s="12"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -84,15 +84,9 @@
     <t>econ_cpi</t>
   </si>
   <si>
-    <t>program_perc_vaccination</t>
-  </si>
-  <si>
     <t>program_perc_lowquality</t>
   </si>
   <si>
-    <t>program_perc_xpert</t>
-  </si>
-  <si>
     <t>program_perc_treatment_success</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>program_prop_child_reporting</t>
   </si>
   <si>
-    <t>program_perc_shortcourse_mdr</t>
-  </si>
-  <si>
     <t>econ_unitcost_ipt</t>
   </si>
   <si>
@@ -141,27 +132,15 @@
     <t>econ_unitcost_xpert</t>
   </si>
   <si>
-    <t>program_perc_xpertacf_prison</t>
-  </si>
-  <si>
     <t>age_breakpoints</t>
   </si>
   <si>
-    <t>program_perc_engage_lowquality</t>
-  </si>
-  <si>
     <t>scenario_7</t>
   </si>
   <si>
     <t>scenario_8</t>
   </si>
   <si>
-    <t>program_perc_xpertacf_urbanpoor</t>
-  </si>
-  <si>
-    <t>program_perc_xpertacf_ruralpoor</t>
-  </si>
-  <si>
     <t>program_number_tests_per_tb_presentation</t>
   </si>
   <si>
@@ -189,9 +168,6 @@
     <t>program_prop_acf_detections_per_round</t>
   </si>
   <si>
-    <t>program_perc_awareness_raising</t>
-  </si>
-  <si>
     <t>scenario_9</t>
   </si>
   <si>
@@ -201,18 +177,6 @@
     <t>scenario_11</t>
   </si>
   <si>
-    <t>program_perc_cxrxpertacf_ruralpoor</t>
-  </si>
-  <si>
-    <t>program_perc_cxrxpertacf_prison</t>
-  </si>
-  <si>
-    <t>program_perc_cxrxpertacf_urbanpoor</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age0to5</t>
-  </si>
-  <si>
     <t>scenario_12</t>
   </si>
   <si>
@@ -222,15 +186,6 @@
     <t>scenario_14</t>
   </si>
   <si>
-    <t>program_perc_ipt_age5to15</t>
-  </si>
-  <si>
-    <t>program_perc_ipt_age15up</t>
-  </si>
-  <si>
-    <t>program_perc_intensive_screening</t>
-  </si>
-  <si>
     <t>riskgroup_multiplier_force_infection_prison</t>
   </si>
   <si>
@@ -238,6 +193,51 @@
   </si>
   <si>
     <t>riskgroup_multiplier_force_infection_ruralpoor</t>
+  </si>
+  <si>
+    <t>int_perc_engage_lowquality</t>
+  </si>
+  <si>
+    <t>int_perc_xpert</t>
+  </si>
+  <si>
+    <t>int_perc_xpertacf_prison</t>
+  </si>
+  <si>
+    <t>int_perc_xpertacf_urbanpoor</t>
+  </si>
+  <si>
+    <t>int_perc_xpertacf_ruralpoor</t>
+  </si>
+  <si>
+    <t>int_perc_cxrxpertacf_prison</t>
+  </si>
+  <si>
+    <t>int_perc_cxrxpertacf_urbanpoor</t>
+  </si>
+  <si>
+    <t>int_perc_cxrxpertacf_ruralpoor</t>
+  </si>
+  <si>
+    <t>int_perc_shortcourse_mdr</t>
+  </si>
+  <si>
+    <t>int_perc_ipt_age0to5</t>
+  </si>
+  <si>
+    <t>int_perc_ipt_age5to15</t>
+  </si>
+  <si>
+    <t>int_perc_ipt_age15up</t>
+  </si>
+  <si>
+    <t>int_perc_awareness_raising</t>
+  </si>
+  <si>
+    <t>int_perc_intensive_screening</t>
+  </si>
+  <si>
+    <t>int_perc_vaccination</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +350,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB9DAED"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1214,57 +1208,57 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="664" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="664" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2235,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2279,7 @@
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="18">
         <v>0.4</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="18">
         <v>5</v>
@@ -2318,18 +2312,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="22">
         <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" s="18">
         <v>1.5</v>
@@ -2337,7 +2331,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18">
         <f>1/3</f>
@@ -2345,138 +2339,138 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="28">
+      <c r="A10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="22">
         <v>9.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="22">
         <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19">
+        <v>21</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23">
+        <v>265450</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="24">
-        <v>21</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="24">
-        <v>0</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="24">
-        <v>265450</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="24">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="24">
+        <v>37</v>
+      </c>
+      <c r="B18" s="23">
         <v>26.24</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="25">
+        <v>34</v>
+      </c>
+      <c r="B20" s="24">
         <v>11575186.195826644</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>38</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
     </row>
   </sheetData>
@@ -2508,10 +2502,10 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,33 +2612,33 @@
         <v>16</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
@@ -2652,54 +2646,72 @@
       <c r="C2" s="11">
         <v>0.1</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AH2" s="41"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AH2" s="38"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6">
+        <v>50</v>
       </c>
       <c r="L3" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N3" s="6">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="P3" s="6">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="R3" s="6">
+        <v>60</v>
+      </c>
+      <c r="T3" s="6">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="12"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="29">
-        <v>80</v>
-      </c>
-      <c r="AE4" s="12"/>
-      <c r="AH4" s="42">
-        <v>80</v>
-      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6">
+        <v>15</v>
+      </c>
+      <c r="P4" s="6">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="39"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2721,11 +2733,11 @@
         <v>85</v>
       </c>
       <c r="AE5" s="12"/>
-      <c r="AH5" s="42"/>
+      <c r="AH5" s="39"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2745,51 +2757,52 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="AE6" s="12"/>
-      <c r="AH6" s="42"/>
-    </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="39"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="P7" s="8">
+      <c r="T7" s="6">
         <v>0</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="U7" s="26">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AH7" s="39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
         <v>2.8</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V8" s="28">
         <v>99</v>
       </c>
-      <c r="X7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AH7" s="41">
+      <c r="X8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AH8" s="38">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AH8" s="42"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -2802,11 +2815,11 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AE9" s="12"/>
-      <c r="AH9" s="42"/>
+      <c r="AH9" s="39"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2819,11 +2832,11 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AE10" s="12"/>
-      <c r="AH10" s="42"/>
+      <c r="AH10" s="39"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2831,26 +2844,16 @@
       <c r="T11" s="6">
         <v>0</v>
       </c>
-      <c r="W11" s="30">
-        <v>99</v>
-      </c>
+      <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="33">
-        <v>99</v>
-      </c>
-      <c r="AB11" s="34">
-        <v>99</v>
-      </c>
       <c r="AE11" s="12"/>
-      <c r="AH11" s="42">
-        <v>99</v>
-      </c>
+      <c r="AH11" s="39"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2858,26 +2861,26 @@
       <c r="T12" s="6">
         <v>0</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="30">
-        <v>80</v>
-      </c>
+      <c r="W12" s="27">
+        <v>99</v>
+      </c>
+      <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="33">
-        <v>80</v>
-      </c>
-      <c r="AB12" s="34">
-        <v>80</v>
+      <c r="AA12" s="30">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>99</v>
       </c>
       <c r="AE12" s="12"/>
-      <c r="AH12" s="42">
-        <v>80</v>
+      <c r="AH12" s="39">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2886,25 +2889,25 @@
         <v>0</v>
       </c>
       <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="30">
-        <v>70</v>
-      </c>
+      <c r="X13" s="27">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="33">
-        <v>70</v>
-      </c>
-      <c r="AB13" s="34">
-        <v>70</v>
+      <c r="AA13" s="30">
+        <v>80</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>80</v>
       </c>
       <c r="AE13" s="12"/>
-      <c r="AH13" s="42">
-        <v>70</v>
+      <c r="AH13" s="39">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -2914,44 +2917,43 @@
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="27">
+        <v>70</v>
+      </c>
       <c r="Z14" s="12"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="37">
-        <v>90</v>
-      </c>
-      <c r="AD14" s="12"/>
+      <c r="AA14" s="30">
+        <v>70</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>70</v>
+      </c>
       <c r="AE14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="42">
-        <v>90</v>
+      <c r="AH14" s="39">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="6">
+      <c r="T15" s="6">
         <v>0</v>
       </c>
-      <c r="T15" s="6">
-        <v>14</v>
-      </c>
-      <c r="U15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="38">
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="34">
         <v>90</v>
       </c>
+      <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
-      <c r="AH15" s="42">
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="39">
         <v>90</v>
       </c>
     </row>
@@ -2962,19 +2964,26 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
       <c r="T16" s="6">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="U16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="34"/>
+      <c r="AB16" s="32"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
+      <c r="AD16" s="35">
+        <v>90</v>
+      </c>
       <c r="AE16" s="12"/>
-      <c r="AH16" s="42"/>
+      <c r="AH16" s="39">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2986,18 +2995,20 @@
       <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="35"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
-      <c r="AE17" s="39">
-        <v>90</v>
-      </c>
-      <c r="AH17" s="42">
-        <v>90</v>
-      </c>
+      <c r="AE17" s="12"/>
+      <c r="AH17" s="39"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -3005,212 +3016,216 @@
       <c r="T18" s="6">
         <v>0</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="40">
-        <v>50</v>
-      </c>
-      <c r="AH18" s="42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="32"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="36">
+        <v>90</v>
+      </c>
+      <c r="AH18" s="39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
       <c r="T19" s="6">
         <v>0</v>
       </c>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Z19" s="32">
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="37">
+        <v>50</v>
+      </c>
+      <c r="AH19" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Z20" s="29">
         <v>90</v>
       </c>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="36">
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="33">
         <v>90</v>
       </c>
-      <c r="AE19" s="26"/>
-      <c r="AH19" s="41">
+      <c r="AE20" s="25"/>
+      <c r="AH20" s="38">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1.1289570744394</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1.90118931222233</v>
-      </c>
-      <c r="G20" s="13">
-        <v>7.4628507238053698</v>
-      </c>
-      <c r="H20" s="13">
-        <v>25.481798063623799</v>
-      </c>
-      <c r="I20" s="13">
-        <v>28.584806362378998</v>
-      </c>
-      <c r="J20" s="13">
-        <v>46.6140802213001</v>
-      </c>
-      <c r="K20" s="13">
-        <v>57.784910096818798</v>
-      </c>
-      <c r="L20" s="13">
-        <v>63.651452282157699</v>
-      </c>
-      <c r="M20" s="13">
-        <v>70.456431535269701</v>
-      </c>
-      <c r="N20" s="13">
-        <v>78.6721991701245</v>
-      </c>
-      <c r="O20" s="13">
-        <v>92.448132780083</v>
-      </c>
-      <c r="P20" s="13">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>107.966804979253</v>
-      </c>
-      <c r="R20" s="13">
-        <v>111.203319502075</v>
-      </c>
-      <c r="S20" s="13">
-        <v>115.767634854772</v>
-      </c>
-      <c r="T20" s="13">
-        <v>117.42738589211601</v>
-      </c>
-      <c r="AH20" s="12"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O21" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="R21" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="T21" s="6">
-        <v>5.9</v>
+      <c r="E21" s="13">
+        <v>1.1289570744394</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1.90118931222233</v>
+      </c>
+      <c r="G21" s="13">
+        <v>7.4628507238053698</v>
+      </c>
+      <c r="H21" s="13">
+        <v>25.481798063623799</v>
+      </c>
+      <c r="I21" s="13">
+        <v>28.584806362378998</v>
+      </c>
+      <c r="J21" s="13">
+        <v>46.6140802213001</v>
+      </c>
+      <c r="K21" s="13">
+        <v>57.784910096818798</v>
+      </c>
+      <c r="L21" s="13">
+        <v>63.651452282157699</v>
+      </c>
+      <c r="M21" s="13">
+        <v>70.456431535269701</v>
+      </c>
+      <c r="N21" s="13">
+        <v>78.6721991701245</v>
+      </c>
+      <c r="O21" s="13">
+        <v>92.448132780083</v>
+      </c>
+      <c r="P21" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>107.966804979253</v>
+      </c>
+      <c r="R21" s="13">
+        <v>111.203319502075</v>
+      </c>
+      <c r="S21" s="13">
+        <v>115.767634854772</v>
+      </c>
+      <c r="T21" s="13">
+        <v>117.42738589211601</v>
       </c>
       <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="6">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="L22" s="6">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1.24E-2</v>
-      </c>
-      <c r="P22" s="6">
-        <v>3.2000000000000001E-2</v>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5.2</v>
       </c>
       <c r="R22" s="6">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="S22" s="6">
-        <v>6.6799999999999998E-2</v>
+        <v>5.4</v>
       </c>
       <c r="T22" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>5.9</v>
       </c>
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="L23" s="6">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.24E-2</v>
       </c>
       <c r="P23" s="6">
-        <v>0.112</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="R23" s="6">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="S23" s="6">
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="T23" s="6">
-        <v>0.153</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="P24" s="6">
+        <v>0.112</v>
+      </c>
       <c r="T24" s="6">
-        <v>14</v>
+        <v>0.153</v>
       </c>
       <c r="AH24" s="12"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T25" s="6">
-        <v>21</v>
-      </c>
-      <c r="AF25" s="43">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" s="12"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -3218,44 +3233,23 @@
       <c r="T26" s="6">
         <v>21</v>
       </c>
-      <c r="AF26" s="43">
+      <c r="AF26" s="40">
         <v>10.5</v>
       </c>
       <c r="AH26" s="12"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>30</v>
-      </c>
-      <c r="F27" s="6">
-        <v>50</v>
-      </c>
-      <c r="G27" s="6">
-        <v>50</v>
-      </c>
-      <c r="L27" s="6">
-        <v>50</v>
-      </c>
-      <c r="N27" s="6">
-        <v>53</v>
-      </c>
-      <c r="P27" s="6">
-        <v>55</v>
-      </c>
-      <c r="R27" s="6">
-        <v>60</v>
-      </c>
       <c r="T27" s="6">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="AF27" s="40">
+        <v>10.5</v>
       </c>
       <c r="AH27" s="12"/>
     </row>

--- a/autumn/xls/data_philippines.xlsx
+++ b/autumn/xls/data_philippines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="615" windowWidth="16275" windowHeight="6300" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="constants" sheetId="1" r:id="rId1"/>
@@ -2234,8 +2234,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2501,7 @@
   </sheetPr>
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
